--- a/Trudgill_et_al_202X/Data/TJ_d18O_d13C.xlsx
+++ b/Trudgill_et_al_202X/Data/TJ_d18O_d13C.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="318">
   <si>
     <t>Height</t>
   </si>
@@ -885,6 +885,111 @@
   </si>
   <si>
     <t>°C</t>
+  </si>
+  <si>
+    <t>relative_age</t>
+  </si>
+  <si>
+    <t>absolute_age</t>
+  </si>
+  <si>
+    <t>Myr</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>oneil_temperature</t>
+  </si>
+  <si>
+    <t>kim_oneil_temperature</t>
+  </si>
+  <si>
+    <t>hansen_temperature</t>
+  </si>
+  <si>
+    <t>anderson_arthur_temperature</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
+    <t>relative_age</t>
+  </si>
+  <si>
+    <t>absolute_age</t>
+  </si>
+  <si>
+    <t>oneil_temperature</t>
+  </si>
+  <si>
+    <t>oneil_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>kim_oneil_temperature</t>
+  </si>
+  <si>
+    <t>kim_oneil_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>hansen_temperature</t>
+  </si>
+  <si>
+    <t>hansen_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>anderson_arthur_temperature</t>
+  </si>
+  <si>
+    <t>anderson_arthur_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>Myr</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>relative_age</t>
+  </si>
+  <si>
+    <t>absolute_age</t>
+  </si>
+  <si>
+    <t>Myr</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>relative_age</t>
+  </si>
+  <si>
+    <t>absolute_age</t>
+  </si>
+  <si>
+    <t>Myr</t>
+  </si>
+  <si>
+    <t>Ma</t>
   </si>
 </sst>
 </file>
@@ -908,7 +1013,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -991,11 +1096,26 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1074,6 +1194,21 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1399,8 +1534,8 @@
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="4.7109375" bestFit="true" customWidth="true"/>
     <col min="3" max="3" width="5.37890625" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="5.7109375" customWidth="true"/>
-    <col min="5" max="5" width="9.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="5.7109375" customWidth="true"/>
     <col min="9" max="9" width="9.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
@@ -1418,22 +1553,22 @@
         <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
@@ -1447,22 +1582,22 @@
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">
@@ -1476,10 +1611,10 @@
         <v>-0.41999999999999998</v>
       </c>
       <c r="D3" s="0">
-        <v>13.68</v>
+        <v>0.035223931546153893</v>
       </c>
       <c r="E3" s="0">
-        <v>12.849891999999999</v>
+        <v>201.52877606845385</v>
       </c>
       <c r="F3" s="0">
         <v>10.22546992837573</v>
@@ -1505,10 +1640,10 @@
         <v>0.46000000000000002</v>
       </c>
       <c r="D4" s="0">
-        <v>10.16</v>
+        <v>0.035223931546153893</v>
       </c>
       <c r="E4" s="0">
-        <v>9.4858280000000015</v>
+        <v>201.52877606845385</v>
       </c>
       <c r="F4" s="0">
         <v>6.691185771382834</v>
@@ -1534,10 +1669,10 @@
         <v>-0.39000000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>13.56</v>
+        <v>0.035223931546153893</v>
       </c>
       <c r="E5" s="0">
-        <v>12.731892999999999</v>
+        <v>201.52877606845385</v>
       </c>
       <c r="F5" s="0">
         <v>10.102718416113191</v>
@@ -1563,10 +1698,10 @@
         <v>-0.17999999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>12.720000000000001</v>
+        <v>0.035223931546153893</v>
       </c>
       <c r="E6" s="0">
-        <v>11.912452</v>
+        <v>201.52877606845385</v>
       </c>
       <c r="F6" s="0">
         <v>9.2480034143312082</v>
@@ -1592,10 +1727,10 @@
         <v>-0.089999999999999997</v>
       </c>
       <c r="D7" s="0">
-        <v>12.359999999999999</v>
+        <v>0.050868432627401879</v>
       </c>
       <c r="E7" s="0">
-        <v>11.564773000000002</v>
+        <v>201.5131315673726</v>
       </c>
       <c r="F7" s="0">
         <v>8.8841125786477733</v>
@@ -1621,10 +1756,10 @@
         <v>-0.12</v>
       </c>
       <c r="D8" s="0">
-        <v>12.48</v>
+        <v>0.050868432627401879</v>
       </c>
       <c r="E8" s="0">
-        <v>11.680432</v>
+        <v>201.5131315673726</v>
       </c>
       <c r="F8" s="0">
         <v>9.0052495419909633</v>
@@ -1650,10 +1785,10 @@
         <v>0.88</v>
       </c>
       <c r="D9" s="0">
-        <v>8.4800000000000004</v>
+        <v>0.050868432627401879</v>
       </c>
       <c r="E9" s="0">
-        <v>7.9512320000000001</v>
+        <v>201.5131315673726</v>
       </c>
       <c r="F9" s="0">
         <v>5.051396199287467</v>
@@ -1679,10 +1814,10 @@
         <v>-0.10000000000000001</v>
       </c>
       <c r="D10" s="0">
-        <v>12.4</v>
+        <v>0.050868432627401879</v>
       </c>
       <c r="E10" s="0">
-        <v>11.603300000000001</v>
+        <v>201.5131315673726</v>
       </c>
       <c r="F10" s="0">
         <v>8.9244738252274942</v>
@@ -1708,10 +1843,10 @@
         <v>-0.34000000000000002</v>
       </c>
       <c r="D11" s="0">
-        <v>13.359999999999999</v>
+        <v>0.050868432627401879</v>
       </c>
       <c r="E11" s="0">
-        <v>12.535748</v>
+        <v>201.5131315673726</v>
       </c>
       <c r="F11" s="0">
         <v>9.8984947355855866</v>
@@ -1737,10 +1872,10 @@
         <v>0.95999999999999996</v>
       </c>
       <c r="D12" s="0">
-        <v>8.1600000000000001</v>
+        <v>0.050868432627401879</v>
       </c>
       <c r="E12" s="0">
-        <v>7.6641280000000007</v>
+        <v>201.5131315673726</v>
       </c>
       <c r="F12" s="0">
         <v>4.7423882445851859</v>
@@ -1766,10 +1901,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D13" s="0">
-        <v>9.8000000000000007</v>
+        <v>0.050868432627401879</v>
       </c>
       <c r="E13" s="0">
-        <v>9.1531250000000011</v>
+        <v>201.5131315673726</v>
       </c>
       <c r="F13" s="0">
         <v>6.337303419268153</v>
@@ -1795,10 +1930,10 @@
         <v>0.19</v>
       </c>
       <c r="D14" s="0">
-        <v>11.24</v>
+        <v>0.073624070563762758</v>
       </c>
       <c r="E14" s="0">
-        <v>10.496573</v>
+        <v>201.49037592943623</v>
       </c>
       <c r="F14" s="0">
         <v>7.7611467341893103</v>
@@ -1824,10 +1959,10 @@
         <v>-0.12</v>
       </c>
       <c r="D15" s="0">
-        <v>12.48</v>
+        <v>0.073624070563762758</v>
       </c>
       <c r="E15" s="0">
-        <v>11.680432</v>
+        <v>201.49037592943623</v>
       </c>
       <c r="F15" s="0">
         <v>9.0052495419909633</v>
@@ -1853,10 +1988,10 @@
         <v>1.6200000000000001</v>
       </c>
       <c r="D16" s="0">
-        <v>5.5199999999999996</v>
+        <v>0.073624070563762758</v>
       </c>
       <c r="E16" s="0">
-        <v>5.3590120000000008</v>
+        <v>201.49037592943623</v>
       </c>
       <c r="F16" s="0">
         <v>2.2326717403818179</v>
@@ -1882,10 +2017,10 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D17" s="0">
-        <v>11.84</v>
+        <v>0.073624070563762758</v>
       </c>
       <c r="E17" s="0">
-        <v>11.066288</v>
+        <v>201.49037592943623</v>
       </c>
       <c r="F17" s="0">
         <v>8.3610245670220706</v>
@@ -1911,10 +2046,10 @@
         <v>-0.48999999999999999</v>
       </c>
       <c r="D18" s="0">
-        <v>13.960000000000001</v>
+        <v>0.10320639988103184</v>
       </c>
       <c r="E18" s="0">
-        <v>13.126133000000001</v>
+        <v>201.46079360011896</v>
       </c>
       <c r="F18" s="0">
         <v>10.51252626289903</v>
@@ -1940,10 +2075,10 @@
         <v>0.34999999999999998</v>
       </c>
       <c r="D19" s="0">
-        <v>10.6</v>
+        <v>0.10320639988103184</v>
       </c>
       <c r="E19" s="0">
-        <v>9.8953250000000015</v>
+        <v>201.46079360011896</v>
       </c>
       <c r="F19" s="0">
         <v>7.1255831733357127</v>
@@ -1969,10 +2104,10 @@
         <v>0.080000000000000002</v>
       </c>
       <c r="D20" s="0">
-        <v>11.68</v>
+        <v>0.10605085462307688</v>
       </c>
       <c r="E20" s="0">
-        <v>10.913792000000001</v>
+        <v>201.45794914537692</v>
       </c>
       <c r="F20" s="0">
         <v>8.200672657266864</v>
@@ -1998,10 +2133,10 @@
         <v>-0.050000000000000003</v>
       </c>
       <c r="D21" s="0">
-        <v>12.199999999999999</v>
+        <v>0.1074730819940995</v>
       </c>
       <c r="E21" s="0">
-        <v>11.410925000000001</v>
+        <v>201.45652691800589</v>
       </c>
       <c r="F21" s="0">
         <v>8.722844702912198</v>
@@ -2027,10 +2162,10 @@
         <v>-0.050000000000000003</v>
       </c>
       <c r="D22" s="0">
-        <v>12.199999999999999</v>
+        <v>0.1074730819940995</v>
       </c>
       <c r="E22" s="0">
-        <v>11.410925000000001</v>
+        <v>201.45652691800589</v>
       </c>
       <c r="F22" s="0">
         <v>8.722844702912198</v>
@@ -2056,10 +2191,10 @@
         <v>-0.050000000000000003</v>
       </c>
       <c r="D23" s="0">
-        <v>12.199999999999999</v>
+        <v>0.1074730819940995</v>
       </c>
       <c r="E23" s="0">
-        <v>11.410925000000001</v>
+        <v>201.45652691800589</v>
       </c>
       <c r="F23" s="0">
         <v>8.722844702912198</v>
@@ -2085,10 +2220,10 @@
         <v>-0.050000000000000003</v>
       </c>
       <c r="D24" s="0">
-        <v>12.199999999999999</v>
+        <v>0.1074730819940995</v>
       </c>
       <c r="E24" s="0">
-        <v>11.410925000000001</v>
+        <v>201.45652691800589</v>
       </c>
       <c r="F24" s="0">
         <v>8.722844702912198</v>
@@ -2114,10 +2249,10 @@
         <v>0.17000000000000001</v>
       </c>
       <c r="D25" s="0">
-        <v>11.32</v>
+        <v>0.11117087315875811</v>
       </c>
       <c r="E25" s="0">
-        <v>10.572197000000001</v>
+        <v>201.45282912684124</v>
       </c>
       <c r="F25" s="0">
         <v>7.8409037411564668</v>
@@ -2143,10 +2278,10 @@
         <v>0.02</v>
       </c>
       <c r="D26" s="0">
-        <v>11.92</v>
+        <v>0.11117087315875811</v>
       </c>
       <c r="E26" s="0">
-        <v>11.142692</v>
+        <v>201.45282912684124</v>
       </c>
       <c r="F26" s="0">
         <v>8.4413058137607777</v>
@@ -2172,10 +2307,10 @@
         <v>-0.81000000000000005</v>
       </c>
       <c r="D27" s="0">
-        <v>15.24</v>
+        <v>0.11919290281584802</v>
       </c>
       <c r="E27" s="0">
-        <v>14.405173000000001</v>
+        <v>201.44480709718414</v>
       </c>
       <c r="F27" s="0">
         <v>11.836243288323772</v>
@@ -2201,10 +2336,10 @@
         <v>-0.65000000000000002</v>
       </c>
       <c r="D28" s="0">
-        <v>14.6</v>
+        <v>0.11919290281584802</v>
       </c>
       <c r="E28" s="0">
-        <v>13.762325000000001</v>
+        <v>201.44480709718414</v>
       </c>
       <c r="F28" s="0">
         <v>11.172020760493297</v>
@@ -2230,10 +2365,10 @@
         <v>-1.02</v>
       </c>
       <c r="D29" s="0">
-        <v>16.079999999999998</v>
+        <v>0.11919290281584802</v>
       </c>
       <c r="E29" s="0">
-        <v>15.259012</v>
+        <v>201.44480709718414</v>
       </c>
       <c r="F29" s="0">
         <v>12.715305342560441</v>
@@ -2259,10 +2394,10 @@
         <v>-0.35999999999999999</v>
       </c>
       <c r="D30" s="0">
-        <v>13.44</v>
+        <v>0.11919290281584802</v>
       </c>
       <c r="E30" s="0">
-        <v>12.614128000000001</v>
+        <v>201.44480709718414</v>
       </c>
       <c r="F30" s="0">
         <v>9.9801299616367487</v>
@@ -2288,10 +2423,10 @@
         <v>-0.87</v>
       </c>
       <c r="D31" s="0">
-        <v>15.48</v>
+        <v>0.12458510624494902</v>
       </c>
       <c r="E31" s="0">
-        <v>14.647957000000002</v>
+        <v>201.43941489375504</v>
       </c>
       <c r="F31" s="0">
         <v>12.086557187173639</v>
@@ -2317,10 +2452,10 @@
         <v>-0.80000000000000004</v>
       </c>
       <c r="D32" s="0">
-        <v>15.199999999999999</v>
+        <v>0.13195445093138711</v>
       </c>
       <c r="E32" s="0">
-        <v>14.364800000000001</v>
+        <v>201.43204554906862</v>
       </c>
       <c r="F32" s="0">
         <v>11.794589799157166</v>
@@ -2346,10 +2481,10 @@
         <v>-0.80000000000000004</v>
       </c>
       <c r="D33" s="0">
-        <v>15.199999999999999</v>
+        <v>0.13195445093138711</v>
       </c>
       <c r="E33" s="0">
-        <v>14.364800000000001</v>
+        <v>201.43204554906862</v>
       </c>
       <c r="F33" s="0">
         <v>11.794589799157166</v>
@@ -2375,10 +2510,10 @@
         <v>-0.66000000000000003</v>
       </c>
       <c r="D34" s="0">
-        <v>14.640000000000001</v>
+        <v>0.13195445093138711</v>
       </c>
       <c r="E34" s="0">
-        <v>13.802308</v>
+        <v>201.43204554906862</v>
       </c>
       <c r="F34" s="0">
         <v>11.213395570240493</v>
@@ -2404,10 +2539,10 @@
         <v>-0.34000000000000002</v>
       </c>
       <c r="D35" s="0">
-        <v>13.359999999999999</v>
+        <v>0.13195445093138711</v>
       </c>
       <c r="E35" s="0">
-        <v>12.535748</v>
+        <v>201.43204554906862</v>
       </c>
       <c r="F35" s="0">
         <v>9.8984947355855866</v>
@@ -2433,10 +2568,10 @@
         <v>-0.47999999999999998</v>
       </c>
       <c r="D36" s="0">
-        <v>13.92</v>
+        <v>0.13195445093138711</v>
       </c>
       <c r="E36" s="0">
-        <v>13.086592000000001</v>
+        <v>201.43204554906862</v>
       </c>
       <c r="F36" s="0">
         <v>10.471463568314391</v>
@@ -2462,10 +2597,10 @@
         <v>-1.0600000000000001</v>
       </c>
       <c r="D37" s="0">
-        <v>16.240000000000002</v>
+        <v>0.13195445093138711</v>
       </c>
       <c r="E37" s="0">
-        <v>15.422948000000002</v>
+        <v>201.43204554906862</v>
       </c>
       <c r="F37" s="0">
         <v>12.88369096451629</v>
@@ -2491,10 +2626,10 @@
         <v>0.22</v>
       </c>
       <c r="D38" s="0">
-        <v>11.119999999999999</v>
+        <v>0.13590873344606114</v>
       </c>
       <c r="E38" s="0">
-        <v>10.383332000000001</v>
+        <v>201.42809126655393</v>
       </c>
       <c r="F38" s="0">
         <v>7.641641447510608</v>
@@ -2520,10 +2655,10 @@
         <v>-0.93000000000000005</v>
       </c>
       <c r="D39" s="0">
-        <v>15.720000000000001</v>
+        <v>0.14004275607503866</v>
       </c>
       <c r="E39" s="0">
-        <v>14.891677000000001</v>
+        <v>201.42395724392495</v>
       </c>
       <c r="F39" s="0">
         <v>12.337546918468149</v>
@@ -2549,10 +2684,10 @@
         <v>-1.1699999999999999</v>
       </c>
       <c r="D40" s="0">
-        <v>16.68</v>
+        <v>0.14058197641794873</v>
       </c>
       <c r="E40" s="0">
-        <v>15.875916999999999</v>
+        <v>201.42341802358203</v>
       </c>
       <c r="F40" s="0">
         <v>13.348325128248916</v>
@@ -2578,10 +2713,10 @@
         <v>-1.1699999999999999</v>
       </c>
       <c r="D41" s="0">
-        <v>16.68</v>
+        <v>0.14058197641794873</v>
       </c>
       <c r="E41" s="0">
-        <v>15.875916999999999</v>
+        <v>201.42341802358203</v>
       </c>
       <c r="F41" s="0">
         <v>13.348325128248916</v>
@@ -2607,10 +2742,10 @@
         <v>-1.0900000000000001</v>
       </c>
       <c r="D42" s="0">
-        <v>16.359999999999999</v>
+        <v>0.14058197641794873</v>
       </c>
       <c r="E42" s="0">
-        <v>15.546173000000001</v>
+        <v>201.42341802358203</v>
       </c>
       <c r="F42" s="0">
         <v>13.010180069557975</v>
@@ -2636,10 +2771,10 @@
         <v>-1.1799999999999999</v>
       </c>
       <c r="D43" s="0">
-        <v>16.719999999999999</v>
+        <v>0.14058197641794873</v>
       </c>
       <c r="E43" s="0">
-        <v>15.917252</v>
+        <v>201.42341802358203</v>
       </c>
       <c r="F43" s="0">
         <v>13.390679508137566</v>
@@ -2665,10 +2800,10 @@
         <v>-1.25</v>
       </c>
       <c r="D44" s="0">
-        <v>17</v>
+        <v>0.14525521938983624</v>
       </c>
       <c r="E44" s="0">
-        <v>16.207325000000001</v>
+        <v>201.41874478061015</v>
       </c>
       <c r="F44" s="0">
         <v>13.687698976921808</v>
@@ -2694,10 +2829,10 @@
         <v>-1.1799999999999999</v>
       </c>
       <c r="D45" s="0">
-        <v>16.719999999999999</v>
+        <v>0.14525521938983624</v>
       </c>
       <c r="E45" s="0">
-        <v>15.917252</v>
+        <v>201.41874478061015</v>
       </c>
       <c r="F45" s="0">
         <v>13.390679508137566</v>
@@ -2723,10 +2858,10 @@
         <v>-0.38</v>
       </c>
       <c r="D46" s="0">
-        <v>13.52</v>
+        <v>0.14885002167590358</v>
       </c>
       <c r="E46" s="0">
-        <v>12.692612</v>
+        <v>201.41514997832408</v>
       </c>
       <c r="F46" s="0">
         <v>10.061837498180125</v>
@@ -2752,10 +2887,10 @@
         <v>-0.38</v>
       </c>
       <c r="D47" s="0">
-        <v>13.52</v>
+        <v>0.14885002167590358</v>
       </c>
       <c r="E47" s="0">
-        <v>12.692612</v>
+        <v>201.41514997832408</v>
       </c>
       <c r="F47" s="0">
         <v>10.061837498180125</v>
@@ -2781,10 +2916,10 @@
         <v>-0.81999999999999995</v>
       </c>
       <c r="D48" s="0">
-        <v>15.279999999999999</v>
+        <v>0.14938924201881371</v>
       </c>
       <c r="E48" s="0">
-        <v>14.445572</v>
+        <v>201.41461075798117</v>
       </c>
       <c r="F48" s="0">
         <v>11.87791546682945</v>
@@ -2810,10 +2945,10 @@
         <v>-0.42999999999999999</v>
       </c>
       <c r="D49" s="0">
-        <v>13.720000000000001</v>
+        <v>0.15208534373336416</v>
       </c>
       <c r="E49" s="0">
-        <v>12.889277</v>
+        <v>201.41191465626662</v>
       </c>
       <c r="F49" s="0">
         <v>10.266423396423988</v>
@@ -2839,10 +2974,10 @@
         <v>-0.23999999999999999</v>
       </c>
       <c r="D50" s="0">
-        <v>12.960000000000001</v>
+        <v>0.15208534373336416</v>
       </c>
       <c r="E50" s="0">
-        <v>12.145408000000002</v>
+        <v>201.41191465626662</v>
       </c>
       <c r="F50" s="0">
         <v>9.4913995556107693</v>
@@ -2868,10 +3003,10 @@
         <v>-0.27000000000000002</v>
       </c>
       <c r="D51" s="0">
-        <v>13.08</v>
+        <v>0.15406248499070119</v>
       </c>
       <c r="E51" s="0">
-        <v>12.262237000000001</v>
+        <v>201.40993751500929</v>
       </c>
       <c r="F51" s="0">
         <v>9.6133393591768481</v>
@@ -2897,10 +3032,10 @@
         <v>0.16</v>
       </c>
       <c r="D52" s="0">
-        <v>11.359999999999999</v>
+        <v>0.15406248499070119</v>
       </c>
       <c r="E52" s="0">
-        <v>10.610048000000003</v>
+        <v>201.40993751500929</v>
       </c>
       <c r="F52" s="0">
         <v>7.8808083270826614</v>
@@ -2926,10 +3061,10 @@
         <v>-0.46000000000000002</v>
       </c>
       <c r="D53" s="0">
-        <v>13.84</v>
+        <v>0.1560396262480383</v>
       </c>
       <c r="E53" s="0">
-        <v>13.007588</v>
+        <v>201.40796037375196</v>
       </c>
       <c r="F53" s="0">
         <v>10.38939287962603</v>
@@ -2955,10 +3090,10 @@
         <v>-0.54000000000000004</v>
       </c>
       <c r="D54" s="0">
-        <v>14.16</v>
+        <v>0.1560396262480383</v>
       </c>
       <c r="E54" s="0">
-        <v>13.324228000000002</v>
+        <v>201.40796037375196</v>
       </c>
       <c r="F54" s="0">
         <v>10.718113776744531</v>
@@ -2984,10 +3119,10 @@
         <v>-0.54000000000000004</v>
       </c>
       <c r="D55" s="0">
-        <v>14.16</v>
+        <v>0.1560396262480383</v>
       </c>
       <c r="E55" s="0">
-        <v>13.324228000000002</v>
+        <v>201.40796037375196</v>
       </c>
       <c r="F55" s="0">
         <v>10.718113776744531</v>
@@ -3013,10 +3148,10 @@
         <v>-1.1899999999999999</v>
       </c>
       <c r="D56" s="0">
-        <v>16.759999999999998</v>
+        <v>0.16826195402066721</v>
       </c>
       <c r="E56" s="0">
-        <v>15.958613</v>
+        <v>201.39573804597933</v>
       </c>
       <c r="F56" s="0">
         <v>13.433053102246276</v>
@@ -3042,10 +3177,10 @@
         <v>-1.05</v>
       </c>
       <c r="D57" s="0">
-        <v>16.199999999999999</v>
+        <v>0.16826195402066721</v>
       </c>
       <c r="E57" s="0">
-        <v>15.381925000000001</v>
+        <v>201.39573804597933</v>
       </c>
       <c r="F57" s="0">
         <v>12.841566032065373</v>
@@ -3071,10 +3206,10 @@
         <v>-1.79</v>
       </c>
       <c r="D58" s="0">
-        <v>19.16</v>
+        <v>0.17167701619243128</v>
       </c>
       <c r="E58" s="0">
-        <v>18.487852999999998</v>
+        <v>201.39232298380756</v>
       </c>
       <c r="F58" s="0">
         <v>16.011186695302456</v>
@@ -3100,10 +3235,10 @@
         <v>-1.25</v>
       </c>
       <c r="D59" s="0">
-        <v>17</v>
+        <v>0.17167701619243128</v>
       </c>
       <c r="E59" s="0">
-        <v>16.207325000000001</v>
+        <v>201.39232298380756</v>
       </c>
       <c r="F59" s="0">
         <v>13.687698976921808</v>
@@ -3129,10 +3264,10 @@
         <v>-0.68999999999999995</v>
       </c>
       <c r="D60" s="0">
-        <v>14.76</v>
+        <v>0.17599077893571205</v>
       </c>
       <c r="E60" s="0">
-        <v>13.922413000000001</v>
+        <v>201.38800922106429</v>
       </c>
       <c r="F60" s="0">
         <v>11.337630947867581</v>
@@ -3158,10 +3293,10 @@
         <v>-1.0900000000000001</v>
       </c>
       <c r="D61" s="0">
-        <v>16.359999999999999</v>
+        <v>0.21234619175508065</v>
       </c>
       <c r="E61" s="0">
-        <v>15.546173000000001</v>
+        <v>201.35165380824492</v>
       </c>
       <c r="F61" s="0">
         <v>13.010180069557975</v>
@@ -3187,10 +3322,10 @@
         <v>-1.0600000000000001</v>
       </c>
       <c r="D62" s="0">
-        <v>16.240000000000002</v>
+        <v>0.21234619175508065</v>
       </c>
       <c r="E62" s="0">
-        <v>15.422948000000002</v>
+        <v>201.35165380824492</v>
       </c>
       <c r="F62" s="0">
         <v>12.88369096451629</v>
@@ -3216,10 +3351,10 @@
         <v>-1.78</v>
       </c>
       <c r="D63" s="0">
-        <v>19.120000000000001</v>
+        <v>0.21321871787094013</v>
       </c>
       <c r="E63" s="0">
-        <v>18.444931999999998</v>
+        <v>201.35078128212905</v>
       </c>
       <c r="F63" s="0">
         <v>15.967633206778771</v>
@@ -3245,10 +3380,10 @@
         <v>-1.74</v>
       </c>
       <c r="D64" s="0">
-        <v>18.960000000000001</v>
+        <v>0.21601833800389364</v>
       </c>
       <c r="E64" s="0">
-        <v>18.273508</v>
+        <v>201.3479816619961</v>
       </c>
       <c r="F64" s="0">
         <v>15.793620200498367</v>
@@ -3274,10 +3409,10 @@
         <v>-0.96999999999999997</v>
       </c>
       <c r="D65" s="0">
-        <v>15.879999999999999</v>
+        <v>0.22826667608556503</v>
       </c>
       <c r="E65" s="0">
-        <v>15.054677</v>
+        <v>201.33573332391444</v>
       </c>
       <c r="F65" s="0">
         <v>12.505250365780171</v>
@@ -3303,10 +3438,10 @@
         <v>-0.059999999999999998</v>
       </c>
       <c r="D66" s="0">
-        <v>12.24</v>
+        <v>0.22826667608556503</v>
       </c>
       <c r="E66" s="0">
-        <v>11.449348000000001</v>
+        <v>201.33573332391444</v>
       </c>
       <c r="F66" s="0">
         <v>8.7631351310559467</v>
@@ -3332,10 +3467,10 @@
         <v>-0.98999999999999999</v>
       </c>
       <c r="D67" s="0">
-        <v>15.960000000000001</v>
+        <v>0.25171349469905036</v>
       </c>
       <c r="E67" s="0">
-        <v>15.136332999999999</v>
+        <v>201.31228650530093</v>
       </c>
       <c r="F67" s="0">
         <v>12.589215515853766</v>
@@ -3361,10 +3496,10 @@
         <v>-1.46</v>
       </c>
       <c r="D68" s="0">
-        <v>17.84</v>
+        <v>0.25171349469905036</v>
       </c>
       <c r="E68" s="0">
-        <v>17.085187999999999</v>
+        <v>201.31228650530093</v>
       </c>
       <c r="F68" s="0">
         <v>14.584456358617786</v>
@@ -3390,10 +3525,10 @@
         <v>-1.1200000000000001</v>
       </c>
       <c r="D69" s="0">
-        <v>16.48</v>
+        <v>0.25171349469905036</v>
       </c>
       <c r="E69" s="0">
-        <v>15.669632000000002</v>
+        <v>201.31228650530093</v>
       </c>
       <c r="F69" s="0">
         <v>13.13684093668121</v>
@@ -3419,10 +3554,10 @@
         <v>-0.89000000000000001</v>
       </c>
       <c r="D70" s="0">
-        <v>15.56</v>
+        <v>0.27568524208746442</v>
       </c>
       <c r="E70" s="0">
-        <v>14.729092999999999</v>
+        <v>201.28831475791253</v>
       </c>
       <c r="F70" s="0">
         <v>12.170145189025618</v>
@@ -3448,10 +3583,10 @@
         <v>-1.52</v>
       </c>
       <c r="D71" s="0">
-        <v>18.079999999999998</v>
+        <v>0.27743500467056026</v>
       </c>
       <c r="E71" s="0">
-        <v>17.338111999999999</v>
+        <v>201.28656499532943</v>
       </c>
       <c r="F71" s="0">
         <v>14.842256400772555</v>
@@ -3477,10 +3612,10 @@
         <v>-1.4099999999999999</v>
       </c>
       <c r="D72" s="0">
-        <v>17.640000000000001</v>
+        <v>0.31715154688078667</v>
       </c>
       <c r="E72" s="0">
-        <v>16.875132999999998</v>
+        <v>201.24684845311921</v>
       </c>
       <c r="F72" s="0">
         <v>14.370162821689803</v>
@@ -3506,10 +3641,10 @@
         <v>-2.0499999999999998</v>
       </c>
       <c r="D73" s="0">
-        <v>20.199999999999999</v>
+        <v>0.3317449808455657</v>
       </c>
       <c r="E73" s="0">
-        <v>19.612924999999997</v>
+        <v>201.23225501915442</v>
       </c>
       <c r="F73" s="0">
         <v>17.150686939033335</v>
@@ -3535,10 +3670,10 @@
         <v>-2.0299999999999998</v>
       </c>
       <c r="D74" s="0">
-        <v>20.119999999999997</v>
+        <v>0.36056239475069901</v>
       </c>
       <c r="E74" s="0">
-        <v>19.525756999999999</v>
+        <v>201.20343760524929</v>
       </c>
       <c r="F74" s="0">
         <v>17.062543824246234</v>
@@ -3564,10 +3699,10 @@
         <v>-1.24</v>
       </c>
       <c r="D75" s="0">
-        <v>16.960000000000001</v>
+        <v>0.36056239475069901</v>
       </c>
       <c r="E75" s="0">
-        <v>16.165808000000002</v>
+        <v>201.20343760524929</v>
       </c>
       <c r="F75" s="0">
         <v>13.645209793080312</v>
@@ -3593,10 +3728,10 @@
         <v>-1.79</v>
       </c>
       <c r="D76" s="0">
-        <v>19.16</v>
+        <v>0.36795147523919464</v>
       </c>
       <c r="E76" s="0">
-        <v>18.487852999999998</v>
+        <v>201.19604852476081</v>
       </c>
       <c r="F76" s="0">
         <v>16.011186695302456</v>
@@ -3622,10 +3757,10 @@
         <v>-1.8799999999999999</v>
       </c>
       <c r="D77" s="0">
-        <v>19.52</v>
+        <v>0.37404746664220362</v>
       </c>
       <c r="E77" s="0">
-        <v>18.875312000000001</v>
+        <v>201.1899525333578</v>
       </c>
       <c r="F77" s="0">
         <v>16.40407560049232</v>
@@ -3651,10 +3786,10 @@
         <v>-1.3899999999999999</v>
       </c>
       <c r="D78" s="0">
-        <v>17.559999999999999</v>
+        <v>0.37404746664220362</v>
       </c>
       <c r="E78" s="0">
-        <v>16.791293</v>
+        <v>201.1899525333578</v>
       </c>
       <c r="F78" s="0">
         <v>14.284582367400162</v>
@@ -3680,10 +3815,10 @@
         <v>-1.3899999999999999</v>
       </c>
       <c r="D79" s="0">
-        <v>17.559999999999999</v>
+        <v>0.37404746664220362</v>
       </c>
       <c r="E79" s="0">
-        <v>16.791293</v>
+        <v>201.1899525333578</v>
       </c>
       <c r="F79" s="0">
         <v>14.284582367400162</v>
@@ -3709,10 +3844,10 @@
         <v>-1.3899999999999999</v>
       </c>
       <c r="D80" s="0">
-        <v>17.559999999999999</v>
+        <v>0.37404746664220362</v>
       </c>
       <c r="E80" s="0">
-        <v>16.791293</v>
+        <v>201.1899525333578</v>
       </c>
       <c r="F80" s="0">
         <v>14.284582367400162</v>
@@ -3738,10 +3873,10 @@
         <v>-1.3899999999999999</v>
       </c>
       <c r="D81" s="0">
-        <v>17.559999999999999</v>
+        <v>0.37404746664220362</v>
       </c>
       <c r="E81" s="0">
-        <v>16.791293</v>
+        <v>201.1899525333578</v>
       </c>
       <c r="F81" s="0">
         <v>14.284582367400162</v>
@@ -3789,84 +3924,84 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="0" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">

--- a/Trudgill_et_al_202X/Data/TJ_d18O_d13C.xlsx
+++ b/Trudgill_et_al_202X/Data/TJ_d18O_d13C.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="341">
   <si>
     <t>Height</t>
   </si>
@@ -990,6 +990,75 @@
   </si>
   <si>
     <t>Ma</t>
+  </si>
+  <si>
+    <t>oneil_temperature</t>
+  </si>
+  <si>
+    <t>kim_oneil_temperature</t>
+  </si>
+  <si>
+    <t>hansen_temperature</t>
+  </si>
+  <si>
+    <t>anderson_arthur_temperature</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
+    <t>relative_age</t>
+  </si>
+  <si>
+    <t>absolute_age</t>
+  </si>
+  <si>
+    <t>oneil_temperature</t>
+  </si>
+  <si>
+    <t>oneil_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>kim_oneil_temperature</t>
+  </si>
+  <si>
+    <t>kim_oneil_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>hansen_temperature</t>
+  </si>
+  <si>
+    <t>hansen_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>anderson_arthur_temperature</t>
+  </si>
+  <si>
+    <t>anderson_arthur_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>Myr</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>°C</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1082,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="97">
     <border>
       <left/>
       <right/>
@@ -1111,11 +1180,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1209,6 +1284,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,16 +1640,16 @@
         <v>315</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
@@ -1588,16 +1669,16 @@
         <v>317</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">
@@ -3909,7 +3990,7 @@
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.37890625" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="13.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
@@ -3924,84 +4005,84 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="0" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">
@@ -4015,10 +4096,10 @@
         <v>-0.13250000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>12.529999999999999</v>
+        <v>0.035223931546153893</v>
       </c>
       <c r="E3" s="0">
-        <v>11.745016250000001</v>
+        <v>201.52877606845385</v>
       </c>
       <c r="F3" s="0">
         <v>9.066844382550741</v>
@@ -4056,10 +4137,10 @@
         <v>0.24857142857142858</v>
       </c>
       <c r="D4" s="0">
-        <v>11.005714285714285</v>
+        <v>0.050868432627401879</v>
       </c>
       <c r="E4" s="0">
-        <v>10.307534</v>
+        <v>201.51313156737257</v>
       </c>
       <c r="F4" s="0">
         <v>7.5490597920846607</v>
@@ -4097,10 +4178,10 @@
         <v>0.43250000000000005</v>
       </c>
       <c r="D5" s="0">
-        <v>10.27</v>
+        <v>0.073624070563762758</v>
       </c>
       <c r="E5" s="0">
-        <v>9.6505762500000003</v>
+        <v>201.49037592943623</v>
       </c>
       <c r="F5" s="0">
         <v>6.8400231458960405</v>
@@ -4138,10 +4219,10 @@
         <v>-0.070000000000000007</v>
       </c>
       <c r="D6" s="0">
-        <v>12.280000000000001</v>
+        <v>0.10320639988103184</v>
       </c>
       <c r="E6" s="0">
-        <v>11.510729000000001</v>
+        <v>201.46079360011896</v>
       </c>
       <c r="F6" s="0">
         <v>8.8190547181173713</v>
@@ -4179,10 +4260,10 @@
         <v>0.080000000000000002</v>
       </c>
       <c r="D7" s="0">
-        <v>11.68</v>
+        <v>0.10605085462307688</v>
       </c>
       <c r="E7" s="0">
-        <v>10.913792000000001</v>
+        <v>201.45794914537692</v>
       </c>
       <c r="F7" s="0">
         <v>8.200672657266864</v>
@@ -4220,10 +4301,10 @@
         <v>-0.050000000000000003</v>
       </c>
       <c r="D8" s="0">
-        <v>12.199999999999999</v>
+        <v>0.1074730819940995</v>
       </c>
       <c r="E8" s="0">
-        <v>11.410925000000001</v>
+        <v>201.45652691800589</v>
       </c>
       <c r="F8" s="0">
         <v>8.722844702912198</v>
@@ -4261,10 +4342,10 @@
         <v>0.095000000000000001</v>
       </c>
       <c r="D9" s="0">
-        <v>11.620000000000001</v>
+        <v>0.11117087315875811</v>
       </c>
       <c r="E9" s="0">
-        <v>10.8574445</v>
+        <v>201.45282912684124</v>
       </c>
       <c r="F9" s="0">
         <v>8.1411047774586223</v>
@@ -4302,10 +4383,10 @@
         <v>-0.70999999999999996</v>
       </c>
       <c r="D10" s="0">
-        <v>14.84</v>
+        <v>0.11919290281584802</v>
       </c>
       <c r="E10" s="0">
-        <v>14.0101595</v>
+        <v>201.44480709718414</v>
       </c>
       <c r="F10" s="0">
         <v>11.425924838253565</v>
@@ -4343,10 +4424,10 @@
         <v>-0.87</v>
       </c>
       <c r="D11" s="0">
-        <v>15.48</v>
+        <v>0.12458510624494902</v>
       </c>
       <c r="E11" s="0">
-        <v>14.647957000000002</v>
+        <v>201.43941489375504</v>
       </c>
       <c r="F11" s="0">
         <v>12.086557187173639</v>
@@ -4384,10 +4465,10 @@
         <v>-0.69000000000000006</v>
       </c>
       <c r="D12" s="0">
-        <v>14.76</v>
+        <v>0.13195445093138711</v>
       </c>
       <c r="E12" s="0">
-        <v>13.929532666666667</v>
+        <v>201.43204554906859</v>
       </c>
       <c r="F12" s="0">
         <v>11.342704072828516</v>
@@ -4425,10 +4506,10 @@
         <v>0.22</v>
       </c>
       <c r="D13" s="0">
-        <v>11.119999999999999</v>
+        <v>0.13590873344606114</v>
       </c>
       <c r="E13" s="0">
-        <v>10.383332000000001</v>
+        <v>201.42809126655393</v>
       </c>
       <c r="F13" s="0">
         <v>7.641641447510608</v>
@@ -4466,10 +4547,10 @@
         <v>-0.93000000000000005</v>
       </c>
       <c r="D14" s="0">
-        <v>15.720000000000001</v>
+        <v>0.14004275607503866</v>
       </c>
       <c r="E14" s="0">
-        <v>14.891677000000001</v>
+        <v>201.42395724392495</v>
       </c>
       <c r="F14" s="0">
         <v>12.337546918468149</v>
@@ -4507,10 +4588,10 @@
         <v>-1.1524999999999999</v>
       </c>
       <c r="D15" s="0">
-        <v>16.609999999999999</v>
+        <v>0.14058197641794873</v>
       </c>
       <c r="E15" s="0">
-        <v>15.803814749999999</v>
+        <v>201.42341802358203</v>
       </c>
       <c r="F15" s="0">
         <v>13.274377458548344</v>
@@ -4548,10 +4629,10 @@
         <v>-1.2149999999999999</v>
       </c>
       <c r="D16" s="0">
-        <v>16.859999999999999</v>
+        <v>0.14525521938983624</v>
       </c>
       <c r="E16" s="0">
-        <v>16.062288500000001</v>
+        <v>201.41874478061015</v>
       </c>
       <c r="F16" s="0">
         <v>13.539189242529687</v>
@@ -4589,10 +4670,10 @@
         <v>-0.38</v>
       </c>
       <c r="D17" s="0">
-        <v>13.52</v>
+        <v>0.14885002167590358</v>
       </c>
       <c r="E17" s="0">
-        <v>12.692612</v>
+        <v>201.41514997832408</v>
       </c>
       <c r="F17" s="0">
         <v>10.061837498180125</v>
@@ -4630,10 +4711,10 @@
         <v>-0.81999999999999995</v>
       </c>
       <c r="D18" s="0">
-        <v>15.279999999999999</v>
+        <v>0.14938924201881371</v>
       </c>
       <c r="E18" s="0">
-        <v>14.445572</v>
+        <v>201.41461075798117</v>
       </c>
       <c r="F18" s="0">
         <v>11.87791546682945</v>
@@ -4671,10 +4752,10 @@
         <v>-0.33499999999999996</v>
       </c>
       <c r="D19" s="0">
-        <v>13.34</v>
+        <v>0.15208534373336416</v>
       </c>
       <c r="E19" s="0">
-        <v>12.517342500000002</v>
+        <v>201.41191465626662</v>
       </c>
       <c r="F19" s="0">
         <v>9.8789114760173788</v>
@@ -4712,10 +4793,10 @@
         <v>-0.055000000000000007</v>
       </c>
       <c r="D20" s="0">
-        <v>12.219999999999999</v>
+        <v>0.15406248499070119</v>
       </c>
       <c r="E20" s="0">
-        <v>11.436142500000003</v>
+        <v>201.40993751500929</v>
       </c>
       <c r="F20" s="0">
         <v>8.7470738431297548</v>
@@ -4753,10 +4834,10 @@
         <v>-0.51333333333333331</v>
       </c>
       <c r="D21" s="0">
-        <v>14.053333333333333</v>
+        <v>0.1560396262480383</v>
       </c>
       <c r="E21" s="0">
-        <v>13.218681333333336</v>
+        <v>201.40796037375196</v>
       </c>
       <c r="F21" s="0">
         <v>10.608540144371696</v>
@@ -4794,10 +4875,10 @@
         <v>-1.1200000000000001</v>
       </c>
       <c r="D22" s="0">
-        <v>16.479999999999997</v>
+        <v>0.16826195402066721</v>
       </c>
       <c r="E22" s="0">
-        <v>15.670269000000001</v>
+        <v>201.39573804597933</v>
       </c>
       <c r="F22" s="0">
         <v>13.137309567155825</v>
@@ -4835,10 +4916,10 @@
         <v>-1.52</v>
       </c>
       <c r="D23" s="0">
-        <v>18.079999999999998</v>
+        <v>0.17167701619243128</v>
       </c>
       <c r="E23" s="0">
-        <v>17.347588999999999</v>
+        <v>201.39232298380756</v>
       </c>
       <c r="F23" s="0">
         <v>14.849442836112132</v>
@@ -4876,10 +4957,10 @@
         <v>-0.68999999999999995</v>
       </c>
       <c r="D24" s="0">
-        <v>14.76</v>
+        <v>0.17599077893571205</v>
       </c>
       <c r="E24" s="0">
-        <v>13.922413000000001</v>
+        <v>201.38800922106429</v>
       </c>
       <c r="F24" s="0">
         <v>11.337630947867581</v>
@@ -4917,10 +4998,10 @@
         <v>-1.0750000000000002</v>
       </c>
       <c r="D25" s="0">
-        <v>16.300000000000001</v>
+        <v>0.21234619175508065</v>
       </c>
       <c r="E25" s="0">
-        <v>15.484560500000001</v>
+        <v>201.35165380824492</v>
       </c>
       <c r="F25" s="0">
         <v>12.946935517037133</v>
@@ -4958,10 +5039,10 @@
         <v>-1.78</v>
       </c>
       <c r="D26" s="0">
-        <v>19.120000000000001</v>
+        <v>0.21321871787094013</v>
       </c>
       <c r="E26" s="0">
-        <v>18.444931999999998</v>
+        <v>201.35078128212905</v>
       </c>
       <c r="F26" s="0">
         <v>15.967633206778771</v>
@@ -4999,10 +5080,10 @@
         <v>-1.74</v>
       </c>
       <c r="D27" s="0">
-        <v>18.960000000000001</v>
+        <v>0.21601833800389364</v>
       </c>
       <c r="E27" s="0">
-        <v>18.273508</v>
+        <v>201.3479816619961</v>
       </c>
       <c r="F27" s="0">
         <v>15.793620200498367</v>
@@ -5040,10 +5121,10 @@
         <v>-0.51500000000000001</v>
       </c>
       <c r="D28" s="0">
-        <v>14.059999999999999</v>
+        <v>0.22826667608556503</v>
       </c>
       <c r="E28" s="0">
-        <v>13.252012499999999</v>
+        <v>201.33573332391444</v>
       </c>
       <c r="F28" s="0">
         <v>10.634192748418059</v>
@@ -5081,10 +5162,10 @@
         <v>-1.1900000000000002</v>
       </c>
       <c r="D29" s="0">
-        <v>16.760000000000002</v>
+        <v>0.25171349469905036</v>
       </c>
       <c r="E29" s="0">
-        <v>15.963717666666666</v>
+        <v>201.31228650530093</v>
       </c>
       <c r="F29" s="0">
         <v>13.436837603717587</v>
@@ -5122,10 +5203,10 @@
         <v>-0.89000000000000001</v>
       </c>
       <c r="D30" s="0">
-        <v>15.56</v>
+        <v>0.27568524208746442</v>
       </c>
       <c r="E30" s="0">
-        <v>14.729092999999999</v>
+        <v>201.28831475791253</v>
       </c>
       <c r="F30" s="0">
         <v>12.170145189025618</v>
@@ -5163,10 +5244,10 @@
         <v>-1.52</v>
       </c>
       <c r="D31" s="0">
-        <v>18.079999999999998</v>
+        <v>0.27743500467056026</v>
       </c>
       <c r="E31" s="0">
-        <v>17.338111999999999</v>
+        <v>201.28656499532943</v>
       </c>
       <c r="F31" s="0">
         <v>14.842256400772555</v>
@@ -5204,10 +5285,10 @@
         <v>-1.4099999999999999</v>
       </c>
       <c r="D32" s="0">
-        <v>17.640000000000001</v>
+        <v>0.31715154688078667</v>
       </c>
       <c r="E32" s="0">
-        <v>16.875132999999998</v>
+        <v>201.24684845311921</v>
       </c>
       <c r="F32" s="0">
         <v>14.370162821689803</v>
@@ -5245,10 +5326,10 @@
         <v>-2.0499999999999998</v>
       </c>
       <c r="D33" s="0">
-        <v>20.199999999999999</v>
+        <v>0.3317449808455657</v>
       </c>
       <c r="E33" s="0">
-        <v>19.612924999999997</v>
+        <v>201.23225501915442</v>
       </c>
       <c r="F33" s="0">
         <v>17.150686939033335</v>
@@ -5286,10 +5367,10 @@
         <v>-1.6349999999999998</v>
       </c>
       <c r="D34" s="0">
-        <v>18.539999999999999</v>
+        <v>0.36056239475069901</v>
       </c>
       <c r="E34" s="0">
-        <v>17.845782499999999</v>
+        <v>201.20343760524929</v>
       </c>
       <c r="F34" s="0">
         <v>15.353876808663273</v>
@@ -5327,10 +5408,10 @@
         <v>-1.79</v>
       </c>
       <c r="D35" s="0">
-        <v>19.16</v>
+        <v>0.36795147523919464</v>
       </c>
       <c r="E35" s="0">
-        <v>18.487852999999998</v>
+        <v>201.19604852476081</v>
       </c>
       <c r="F35" s="0">
         <v>16.011186695302456</v>
@@ -5368,10 +5449,10 @@
         <v>-1.4879999999999998</v>
       </c>
       <c r="D36" s="0">
-        <v>17.952000000000002</v>
+        <v>0.37404746664220362</v>
       </c>
       <c r="E36" s="0">
-        <v>17.2080968</v>
+        <v>201.1899525333578</v>
       </c>
       <c r="F36" s="0">
         <v>14.708481014018593</v>

--- a/Trudgill_et_al_202X/Data/TJ_d18O_d13C.xlsx
+++ b/Trudgill_et_al_202X/Data/TJ_d18O_d13C.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="340">
   <si>
     <t>Height</t>
   </si>
@@ -795,6 +795,132 @@
   </si>
   <si>
     <t>anderson_arthur_temperature</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
+    <t>oneil_temperature</t>
+  </si>
+  <si>
+    <t>kim_oneil_temperature</t>
+  </si>
+  <si>
+    <t>hansen_temperature</t>
+  </si>
+  <si>
+    <t>anderson_arthur_temperature</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d13C_uncertainty</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
+    <t>d18O_uncertainty</t>
+  </si>
+  <si>
+    <t>oneil_temperature</t>
+  </si>
+  <si>
+    <t>oneil_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>kim_oneil_temperature</t>
+  </si>
+  <si>
+    <t>kim_oneil_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>hansen_temperature</t>
+  </si>
+  <si>
+    <t>hansen_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>anderson_arthur_temperature</t>
+  </si>
+  <si>
+    <t>anderson_arthur_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d13C_uncertainty</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
+    <t>d18O_uncertainty</t>
+  </si>
+  <si>
+    <t>delta_temperature</t>
+  </si>
+  <si>
+    <t>delta_temperature_uncertainty</t>
   </si>
   <si>
     <t>m</t>
@@ -956,7 +1082,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1018,11 +1144,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1080,6 +1215,15 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5850,7 +5994,7 @@
     <col min="3" max="3" width="4.7109375" customWidth="true"/>
     <col min="4" max="4" width="5.37890625" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="5.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="9.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
@@ -5858,54 +6002,54 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="0" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">
@@ -5928,7 +6072,7 @@
         <v>10.121146595580001</v>
       </c>
       <c r="G3" s="0">
-        <v>13.68</v>
+        <v>22.693090909090909</v>
       </c>
       <c r="H3" s="0">
         <v>12.849891999999999</v>
@@ -5954,7 +6098,7 @@
         <v>6.2581917692353386</v>
       </c>
       <c r="G4" s="0">
-        <v>10.16</v>
+        <v>19.173090909090909</v>
       </c>
       <c r="H4" s="0">
         <v>9.4858280000000015</v>
@@ -5980,7 +6124,7 @@
         <v>9.9876404466590998</v>
       </c>
       <c r="G5" s="0">
-        <v>13.56</v>
+        <v>22.573090909090908</v>
       </c>
       <c r="H5" s="0">
         <v>12.731892999999999</v>
@@ -6006,7 +6150,7 @@
         <v>9.0567208156062975</v>
       </c>
       <c r="G6" s="0">
-        <v>12.720000000000001</v>
+        <v>21.733090909090908</v>
       </c>
       <c r="H6" s="0">
         <v>11.912452</v>
@@ -6032,7 +6176,7 @@
         <v>8.6596860360670576</v>
       </c>
       <c r="G7" s="0">
-        <v>12.359999999999999</v>
+        <v>21.373090909090909</v>
       </c>
       <c r="H7" s="0">
         <v>11.564773000000002</v>
@@ -6058,7 +6202,7 @@
         <v>8.7919028052227759</v>
       </c>
       <c r="G8" s="0">
-        <v>12.48</v>
+        <v>21.49309090909091</v>
       </c>
       <c r="H8" s="0">
         <v>11.680432</v>
@@ -6084,7 +6228,7 @@
         <v>4.4525766425982169</v>
       </c>
       <c r="G9" s="0">
-        <v>8.4800000000000004</v>
+        <v>17.49309090909091</v>
       </c>
       <c r="H9" s="0">
         <v>7.9512320000000001</v>
@@ -6110,7 +6254,7 @@
         <v>8.7037440711314389</v>
       </c>
       <c r="G10" s="0">
-        <v>12.4</v>
+        <v>21.413090909090911</v>
       </c>
       <c r="H10" s="0">
         <v>11.603300000000001</v>
@@ -6136,7 +6280,7 @@
         <v>9.7654185162721774</v>
       </c>
       <c r="G11" s="0">
-        <v>13.359999999999999</v>
+        <v>22.373090909090909</v>
       </c>
       <c r="H11" s="0">
         <v>12.535748</v>
@@ -6162,7 +6306,7 @@
         <v>4.1113777368287856</v>
       </c>
       <c r="G12" s="0">
-        <v>8.1600000000000001</v>
+        <v>17.173090909090909</v>
       </c>
       <c r="H12" s="0">
         <v>7.6641280000000007</v>
@@ -6188,7 +6332,7 @@
         <v>5.869235598726732</v>
       </c>
       <c r="G13" s="0">
-        <v>9.8000000000000007</v>
+        <v>18.81309090909091</v>
       </c>
       <c r="H13" s="0">
         <v>9.1531250000000011</v>
@@ -6214,7 +6358,7 @@
         <v>7.4318061575210663</v>
       </c>
       <c r="G14" s="0">
-        <v>11.24</v>
+        <v>20.253090909090908</v>
       </c>
       <c r="H14" s="0">
         <v>10.496573</v>
@@ -6240,7 +6384,7 @@
         <v>8.7919028052227759</v>
       </c>
       <c r="G15" s="0">
-        <v>12.48</v>
+        <v>21.49309090909091</v>
       </c>
       <c r="H15" s="0">
         <v>11.680432</v>
@@ -6266,7 +6410,7 @@
         <v>1.3291863169953899</v>
       </c>
       <c r="G16" s="0">
-        <v>5.5199999999999996</v>
+        <v>14.533090909090909</v>
       </c>
       <c r="H16" s="0">
         <v>5.3590120000000008</v>
@@ -6292,7 +6436,7 @@
         <v>8.0882223861275406</v>
       </c>
       <c r="G17" s="0">
-        <v>11.84</v>
+        <v>20.853090909090909</v>
       </c>
       <c r="H17" s="0">
         <v>11.066288</v>
@@ -6318,7 +6462,7 @@
         <v>10.433166728444291</v>
       </c>
       <c r="G18" s="0">
-        <v>13.960000000000001</v>
+        <v>22.97309090909091</v>
       </c>
       <c r="H18" s="0">
         <v>13.126133000000001</v>
@@ -6344,7 +6488,7 @@
         <v>6.7351055745222652</v>
       </c>
       <c r="G19" s="0">
-        <v>10.6</v>
+        <v>19.613090909090911</v>
       </c>
       <c r="H19" s="0">
         <v>9.8953250000000015</v>
@@ -6370,7 +6514,7 @@
         <v>7.9128682990457833</v>
       </c>
       <c r="G20" s="0">
-        <v>11.68</v>
+        <v>20.693090909090909</v>
       </c>
       <c r="H20" s="0">
         <v>10.913792000000001</v>
@@ -6396,7 +6540,7 @@
         <v>8.4835959484826731</v>
       </c>
       <c r="G21" s="0">
-        <v>12.199999999999999</v>
+        <v>21.213090909090909</v>
       </c>
       <c r="H21" s="0">
         <v>11.410925000000001</v>
@@ -6422,7 +6566,7 @@
         <v>8.4835959484826731</v>
       </c>
       <c r="G22" s="0">
-        <v>12.199999999999999</v>
+        <v>21.213090909090909</v>
       </c>
       <c r="H22" s="0">
         <v>11.410925000000001</v>
@@ -6448,7 +6592,7 @@
         <v>8.4835959484826731</v>
       </c>
       <c r="G23" s="0">
-        <v>12.199999999999999</v>
+        <v>21.213090909090909</v>
       </c>
       <c r="H23" s="0">
         <v>11.410925000000001</v>
@@ -6474,7 +6618,7 @@
         <v>8.4835959484826731</v>
       </c>
       <c r="G24" s="0">
-        <v>12.199999999999999</v>
+        <v>21.213090909090909</v>
       </c>
       <c r="H24" s="0">
         <v>11.410925000000001</v>
@@ -6500,7 +6644,7 @@
         <v>7.5191455463768762</v>
       </c>
       <c r="G25" s="0">
-        <v>11.32</v>
+        <v>20.33309090909091</v>
       </c>
       <c r="H25" s="0">
         <v>10.572197000000001</v>
@@ -6526,7 +6670,7 @@
         <v>8.1759841408550642</v>
       </c>
       <c r="G26" s="0">
-        <v>11.92</v>
+        <v>20.933090909090907</v>
       </c>
       <c r="H26" s="0">
         <v>11.142692</v>
@@ -6552,7 +6696,7 @@
         <v>11.868623742659679</v>
       </c>
       <c r="G27" s="0">
-        <v>15.24</v>
+        <v>24.253090909090908</v>
       </c>
       <c r="H27" s="0">
         <v>14.405173000000001</v>
@@ -6578,7 +6722,7 @@
         <v>11.149025847176517</v>
       </c>
       <c r="G28" s="0">
-        <v>14.6</v>
+        <v>23.613090909090907</v>
       </c>
       <c r="H28" s="0">
         <v>13.762325000000001</v>
@@ -6604,7 +6748,7 @@
         <v>12.81881913113574</v>
       </c>
       <c r="G29" s="0">
-        <v>16.079999999999998</v>
+        <v>25.093090909090911</v>
       </c>
       <c r="H29" s="0">
         <v>15.259012</v>
@@ -6630,7 +6774,7 @@
         <v>9.8542640828106869</v>
       </c>
       <c r="G30" s="0">
-        <v>13.44</v>
+        <v>22.453090909090911</v>
       </c>
       <c r="H30" s="0">
         <v>12.614128000000001</v>
@@ -6656,7 +6800,7 @@
         <v>12.139442842778919</v>
       </c>
       <c r="G31" s="0">
-        <v>15.48</v>
+        <v>24.49309090909091</v>
       </c>
       <c r="H31" s="0">
         <v>14.647957000000002</v>
@@ -6682,7 +6826,7 @@
         <v>11.823538785435005</v>
       </c>
       <c r="G32" s="0">
-        <v>15.199999999999999</v>
+        <v>24.213090909090909</v>
       </c>
       <c r="H32" s="0">
         <v>14.364800000000001</v>
@@ -6708,7 +6852,7 @@
         <v>11.823538785435005</v>
       </c>
       <c r="G33" s="0">
-        <v>15.199999999999999</v>
+        <v>24.213090909090909</v>
       </c>
       <c r="H33" s="0">
         <v>14.364800000000001</v>
@@ -6734,7 +6878,7 @@
         <v>11.193890877900003</v>
       </c>
       <c r="G34" s="0">
-        <v>14.640000000000001</v>
+        <v>23.65309090909091</v>
       </c>
       <c r="H34" s="0">
         <v>13.802308</v>
@@ -6760,7 +6904,7 @@
         <v>9.7654185162721774</v>
       </c>
       <c r="G35" s="0">
-        <v>13.359999999999999</v>
+        <v>22.373090909090909</v>
       </c>
       <c r="H35" s="0">
         <v>12.535748</v>
@@ -6786,7 +6930,7 @@
         <v>10.388549007356119</v>
       </c>
       <c r="G36" s="0">
-        <v>13.92</v>
+        <v>22.933090909090907</v>
       </c>
       <c r="H36" s="0">
         <v>13.086592000000001</v>
@@ -6812,7 +6956,7 @@
         <v>13.000550249830894</v>
       </c>
       <c r="G37" s="0">
-        <v>16.240000000000002</v>
+        <v>25.253090909090908</v>
       </c>
       <c r="H37" s="0">
         <v>15.422948000000002</v>
@@ -6838,7 +6982,7 @@
         <v>7.300902216570023</v>
       </c>
       <c r="G38" s="0">
-        <v>11.119999999999999</v>
+        <v>20.13309090909091</v>
       </c>
       <c r="H38" s="0">
         <v>10.383332000000001</v>
@@ -6864,7 +7008,7 @@
         <v>12.410793396579948</v>
       </c>
       <c r="G39" s="0">
-        <v>15.720000000000001</v>
+        <v>24.733090909090912</v>
       </c>
       <c r="H39" s="0">
         <v>14.891677000000001</v>
@@ -6890,7 +7034,7 @@
         <v>13.501541569385154</v>
       </c>
       <c r="G40" s="0">
-        <v>16.68</v>
+        <v>25.693090909090909</v>
       </c>
       <c r="H40" s="0">
         <v>15.875916999999999</v>
@@ -6916,7 +7060,7 @@
         <v>13.501541569385154</v>
       </c>
       <c r="G41" s="0">
-        <v>16.68</v>
+        <v>25.693090909090909</v>
       </c>
       <c r="H41" s="0">
         <v>15.875916999999999</v>
@@ -6942,7 +7086,7 @@
         <v>13.137005023359677</v>
       </c>
       <c r="G42" s="0">
-        <v>16.359999999999999</v>
+        <v>25.373090909090909</v>
       </c>
       <c r="H42" s="0">
         <v>15.546173000000001</v>
@@ -6968,7 +7112,7 @@
         <v>13.547175978628218</v>
       </c>
       <c r="G43" s="0">
-        <v>16.719999999999999</v>
+        <v>25.733090909090908</v>
       </c>
       <c r="H43" s="0">
         <v>15.917252</v>
@@ -6994,7 +7138,7 @@
         <v>13.867036956401535</v>
       </c>
       <c r="G44" s="0">
-        <v>17</v>
+        <v>26.013090909090909</v>
       </c>
       <c r="H44" s="0">
         <v>16.207325000000001</v>
@@ -7020,7 +7164,7 @@
         <v>13.547175978628218</v>
       </c>
       <c r="G45" s="0">
-        <v>16.719999999999999</v>
+        <v>25.733090909090908</v>
       </c>
       <c r="H45" s="0">
         <v>15.917252</v>
@@ -7046,7 +7190,7 @@
         <v>9.9431672474979109</v>
       </c>
       <c r="G46" s="0">
-        <v>13.52</v>
+        <v>22.533090909090909</v>
       </c>
       <c r="H46" s="0">
         <v>12.692612</v>
@@ -7072,7 +7216,7 @@
         <v>9.9431672474979109</v>
       </c>
       <c r="G47" s="0">
-        <v>13.52</v>
+        <v>22.533090909090909</v>
       </c>
       <c r="H47" s="0">
         <v>12.692612</v>
@@ -7098,7 +7242,7 @@
         <v>11.91372341913177</v>
       </c>
       <c r="G48" s="0">
-        <v>15.279999999999999</v>
+        <v>24.293090909090907</v>
       </c>
       <c r="H48" s="0">
         <v>14.445572</v>
@@ -7124,7 +7268,7 @@
         <v>10.165677519104634</v>
       </c>
       <c r="G49" s="0">
-        <v>13.720000000000001</v>
+        <v>22.733090909090908</v>
       </c>
       <c r="H49" s="0">
         <v>12.889277</v>
@@ -7150,7 +7294,7 @@
         <v>9.3220526992475925</v>
       </c>
       <c r="G50" s="0">
-        <v>12.960000000000001</v>
+        <v>21.97309090909091</v>
       </c>
       <c r="H50" s="0">
         <v>12.145408000000002</v>
@@ -7176,7 +7320,7 @@
         <v>9.4549118113342843</v>
       </c>
       <c r="G51" s="0">
-        <v>13.08</v>
+        <v>22.093090909090911</v>
       </c>
       <c r="H51" s="0">
         <v>12.262237000000001</v>
@@ -7202,7 +7346,7 @@
         <v>7.5628362895495798</v>
       </c>
       <c r="G52" s="0">
-        <v>11.359999999999999</v>
+        <v>20.373090909090909</v>
       </c>
       <c r="H52" s="0">
         <v>10.610048000000003</v>
@@ -7228,7 +7372,7 @@
         <v>10.299357009765174</v>
       </c>
       <c r="G53" s="0">
-        <v>13.84</v>
+        <v>22.853090909090909</v>
       </c>
       <c r="H53" s="0">
         <v>13.007588</v>
@@ -7254,7 +7398,7 @@
         <v>10.656472839284788</v>
       </c>
       <c r="G54" s="0">
-        <v>14.16</v>
+        <v>23.173090909090909</v>
       </c>
       <c r="H54" s="0">
         <v>13.324228000000002</v>
@@ -7280,7 +7424,7 @@
         <v>10.656472839284788</v>
       </c>
       <c r="G55" s="0">
-        <v>14.16</v>
+        <v>23.173090909090909</v>
       </c>
       <c r="H55" s="0">
         <v>13.324228000000002</v>
@@ -7306,7 +7450,7 @@
         <v>13.59282537712113</v>
       </c>
       <c r="G56" s="0">
-        <v>16.759999999999998</v>
+        <v>25.773090909090911</v>
       </c>
       <c r="H56" s="0">
         <v>15.958613</v>
@@ -7332,7 +7476,7 @@
         <v>12.955095137022226</v>
       </c>
       <c r="G57" s="0">
-        <v>16.199999999999999</v>
+        <v>25.213090909090909</v>
       </c>
       <c r="H57" s="0">
         <v>15.381925000000001</v>
@@ -7358,7 +7502,7 @@
         <v>16.359501785799466</v>
       </c>
       <c r="G58" s="0">
-        <v>19.16</v>
+        <v>28.173090909090909</v>
       </c>
       <c r="H58" s="0">
         <v>18.487852999999998</v>
@@ -7384,7 +7528,7 @@
         <v>13.867036956401535</v>
       </c>
       <c r="G59" s="0">
-        <v>17</v>
+        <v>26.013090909090909</v>
       </c>
       <c r="H59" s="0">
         <v>16.207325000000001</v>
@@ -7410,7 +7554,7 @@
         <v>11.328573668453544</v>
       </c>
       <c r="G60" s="0">
-        <v>14.76</v>
+        <v>23.773090909090911</v>
       </c>
       <c r="H60" s="0">
         <v>13.922413000000001</v>
@@ -7436,7 +7580,7 @@
         <v>13.137005023359677</v>
       </c>
       <c r="G61" s="0">
-        <v>16.359999999999999</v>
+        <v>25.373090909090909</v>
       </c>
       <c r="H61" s="0">
         <v>15.546173000000001</v>
@@ -7462,7 +7606,7 @@
         <v>13.000550249830894</v>
       </c>
       <c r="G62" s="0">
-        <v>16.240000000000002</v>
+        <v>25.253090909090908</v>
       </c>
       <c r="H62" s="0">
         <v>15.422948000000002</v>
@@ -7488,7 +7632,7 @@
         <v>16.312939334260875</v>
       </c>
       <c r="G63" s="0">
-        <v>19.120000000000001</v>
+        <v>28.13309090909091</v>
       </c>
       <c r="H63" s="0">
         <v>18.444931999999998</v>
@@ -7514,7 +7658,7 @@
         <v>16.126843864334433</v>
       </c>
       <c r="G64" s="0">
-        <v>18.960000000000001</v>
+        <v>27.97309090909091</v>
       </c>
       <c r="H64" s="0">
         <v>18.273508</v>
@@ -7540,7 +7684,7 @@
         <v>12.591989791107039</v>
       </c>
       <c r="G65" s="0">
-        <v>15.879999999999999</v>
+        <v>24.893090909090908</v>
       </c>
       <c r="H65" s="0">
         <v>15.054677</v>
@@ -7566,7 +7710,7 @@
         <v>8.5275971762246741</v>
       </c>
       <c r="G66" s="0">
-        <v>12.24</v>
+        <v>21.253090909090908</v>
       </c>
       <c r="H66" s="0">
         <v>11.449348000000001</v>
@@ -7592,7 +7736,7 @@
         <v>12.682676970470027</v>
       </c>
       <c r="G67" s="0">
-        <v>15.960000000000001</v>
+        <v>24.97309090909091</v>
       </c>
       <c r="H67" s="0">
         <v>15.136332999999999</v>
@@ -7618,7 +7762,7 @@
         <v>14.831052186376382</v>
       </c>
       <c r="G68" s="0">
-        <v>17.84</v>
+        <v>26.853090909090909</v>
       </c>
       <c r="H68" s="0">
         <v>17.085187999999999</v>
@@ -7644,7 +7788,7 @@
         <v>13.273594103638004</v>
       </c>
       <c r="G69" s="0">
-        <v>16.48</v>
+        <v>25.49309090909091</v>
       </c>
       <c r="H69" s="0">
         <v>15.669632000000002</v>
@@ -7670,7 +7814,7 @@
         <v>12.229833899742857</v>
       </c>
       <c r="G70" s="0">
-        <v>15.56</v>
+        <v>24.573090909090908</v>
       </c>
       <c r="H70" s="0">
         <v>14.729092999999999</v>
@@ -7696,7 +7840,7 @@
         <v>15.107713110195107</v>
       </c>
       <c r="G71" s="0">
-        <v>18.079999999999998</v>
+        <v>27.093090909090911</v>
       </c>
       <c r="H71" s="0">
         <v>17.338111999999999</v>
@@ -7722,7 +7866,7 @@
         <v>14.600919430280271</v>
       </c>
       <c r="G72" s="0">
-        <v>17.640000000000001</v>
+        <v>26.65309090909091</v>
       </c>
       <c r="H72" s="0">
         <v>16.875132999999998</v>
@@ -7748,7 +7892,7 @@
         <v>17.575570711350906</v>
       </c>
       <c r="G73" s="0">
-        <v>20.199999999999999</v>
+        <v>29.213090909090909</v>
       </c>
       <c r="H73" s="0">
         <v>19.612924999999997</v>
@@ -7774,7 +7918,7 @@
         <v>17.481653076924601</v>
       </c>
       <c r="G74" s="0">
-        <v>20.119999999999997</v>
+        <v>29.13309090909091</v>
       </c>
       <c r="H74" s="0">
         <v>19.525756999999999</v>
@@ -7800,7 +7944,7 @@
         <v>13.82129746708523</v>
       </c>
       <c r="G75" s="0">
-        <v>16.960000000000001</v>
+        <v>25.97309090909091</v>
       </c>
       <c r="H75" s="0">
         <v>16.165808000000002</v>
@@ -7826,7 +7970,7 @@
         <v>16.359501785799466</v>
       </c>
       <c r="G76" s="0">
-        <v>19.16</v>
+        <v>28.173090909090909</v>
       </c>
       <c r="H76" s="0">
         <v>18.487852999999998</v>
@@ -7852,7 +7996,7 @@
         <v>16.779259978342679</v>
       </c>
       <c r="G77" s="0">
-        <v>19.52</v>
+        <v>28.533090909090909</v>
       </c>
       <c r="H77" s="0">
         <v>18.875312000000001</v>
@@ -7878,7 +8022,7 @@
         <v>14.508972503349014</v>
       </c>
       <c r="G78" s="0">
-        <v>17.559999999999999</v>
+        <v>26.573090909090908</v>
       </c>
       <c r="H78" s="0">
         <v>16.791293</v>
@@ -7904,7 +8048,7 @@
         <v>14.508972503349014</v>
       </c>
       <c r="G79" s="0">
-        <v>17.559999999999999</v>
+        <v>26.573090909090908</v>
       </c>
       <c r="H79" s="0">
         <v>16.791293</v>
@@ -7930,7 +8074,7 @@
         <v>14.508972503349014</v>
       </c>
       <c r="G80" s="0">
-        <v>17.559999999999999</v>
+        <v>26.573090909090908</v>
       </c>
       <c r="H80" s="0">
         <v>16.791293</v>
@@ -7956,7 +8100,7 @@
         <v>14.508972503349014</v>
       </c>
       <c r="G81" s="0">
-        <v>17.559999999999999</v>
+        <v>26.573090909090908</v>
       </c>
       <c r="H81" s="0">
         <v>16.791293</v>
@@ -7995,90 +8139,90 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="0" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">
@@ -8113,10 +8257,10 @@
         <v>1.7953739105371873</v>
       </c>
       <c r="K3" s="0">
-        <v>12.529999999999999</v>
+        <v>21.543090909090907</v>
       </c>
       <c r="L3" s="0">
-        <v>1.6367040050051813</v>
+        <v>1.6367040050051809</v>
       </c>
       <c r="M3" s="0">
         <v>11.745016250000001</v>
@@ -8157,7 +8301,7 @@
         <v>2.3225707626472936</v>
       </c>
       <c r="K4" s="0">
-        <v>11.005714285714285</v>
+        <v>20.018805194805193</v>
       </c>
       <c r="L4" s="0">
         <v>2.1379652097485677</v>
@@ -8201,7 +8345,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K5" s="0">
-        <v>10.27</v>
+        <v>19.283090909090909</v>
       </c>
       <c r="L5" s="0">
         <v>3.2068884192209333</v>
@@ -8245,10 +8389,10 @@
         <v>2.6149241191808139</v>
       </c>
       <c r="K6" s="0">
-        <v>12.280000000000001</v>
+        <v>21.29309090909091</v>
       </c>
       <c r="L6" s="0">
-        <v>2.3758787847868006</v>
+        <v>2.3758787847867993</v>
       </c>
       <c r="M6" s="0">
         <v>11.510729000000001</v>
@@ -8289,7 +8433,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K7" s="0">
-        <v>11.68</v>
+        <v>20.693090909090909</v>
       </c>
       <c r="L7" s="0">
         <v>3.2068884192209333</v>
@@ -8333,7 +8477,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K8" s="0">
-        <v>12.199999999999999</v>
+        <v>21.213090909090909</v>
       </c>
       <c r="L8" s="0">
         <v>3.2068884192209333</v>
@@ -8377,10 +8521,10 @@
         <v>0.46445502430056751</v>
       </c>
       <c r="K9" s="0">
-        <v>11.620000000000001</v>
+        <v>20.63309090909091</v>
       </c>
       <c r="L9" s="0">
-        <v>0.42426406871192823</v>
+        <v>0.42426406871192701</v>
       </c>
       <c r="M9" s="0">
         <v>10.8574445</v>
@@ -8421,10 +8565,10 @@
         <v>1.2493845657916447</v>
       </c>
       <c r="K10" s="0">
-        <v>14.84</v>
+        <v>23.853090909090909</v>
       </c>
       <c r="L10" s="0">
-        <v>1.112834219459484</v>
+        <v>1.1128342194594845</v>
       </c>
       <c r="M10" s="0">
         <v>14.0101595</v>
@@ -8465,7 +8609,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K11" s="0">
-        <v>15.48</v>
+        <v>24.49309090909091</v>
       </c>
       <c r="L11" s="0">
         <v>3.2068884192209333</v>
@@ -8509,10 +8653,10 @@
         <v>1.151575452677519</v>
       </c>
       <c r="K12" s="0">
-        <v>14.76</v>
+        <v>23.773090909090907</v>
       </c>
       <c r="L12" s="0">
-        <v>1.0254364924265185</v>
+        <v>1.0254364924265176</v>
       </c>
       <c r="M12" s="0">
         <v>13.929532666666667</v>
@@ -8553,7 +8697,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K13" s="0">
-        <v>11.119999999999999</v>
+        <v>20.13309090909091</v>
       </c>
       <c r="L13" s="0">
         <v>3.2068884192209333</v>
@@ -8597,7 +8741,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K14" s="0">
-        <v>15.720000000000001</v>
+        <v>24.733090909090912</v>
       </c>
       <c r="L14" s="0">
         <v>3.2068884192209333</v>
@@ -8641,7 +8785,7 @@
         <v>0.19108876600858454</v>
       </c>
       <c r="K15" s="0">
-        <v>16.609999999999999</v>
+        <v>25.623090909090909</v>
       </c>
       <c r="L15" s="0">
         <v>0.1677299416721216</v>
@@ -8685,7 +8829,7 @@
         <v>0.22617586642047185</v>
       </c>
       <c r="K16" s="0">
-        <v>16.859999999999999</v>
+        <v>25.873090909090909</v>
       </c>
       <c r="L16" s="0">
         <v>0.1979898987322341</v>
@@ -8729,7 +8873,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K17" s="0">
-        <v>13.52</v>
+        <v>22.533090909090909</v>
       </c>
       <c r="L17" s="0">
         <v>3.2068884192209333</v>
@@ -8773,7 +8917,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K18" s="0">
-        <v>15.279999999999999</v>
+        <v>24.293090909090907</v>
       </c>
       <c r="L18" s="0">
         <v>3.2068884192209333</v>
@@ -8817,10 +8961,10 @@
         <v>0.59653283089819331</v>
       </c>
       <c r="K19" s="0">
-        <v>13.34</v>
+        <v>22.353090909090909</v>
       </c>
       <c r="L19" s="0">
-        <v>0.53740115370177599</v>
+        <v>0.53740115370177477</v>
       </c>
       <c r="M19" s="0">
         <v>12.517342500000002</v>
@@ -8861,10 +9005,10 @@
         <v>1.3378994319710398</v>
       </c>
       <c r="K20" s="0">
-        <v>12.219999999999999</v>
+        <v>21.233090909090912</v>
       </c>
       <c r="L20" s="0">
-        <v>1.2162236636408621</v>
+        <v>1.2162236636408634</v>
       </c>
       <c r="M20" s="0">
         <v>11.436142500000003</v>
@@ -8905,7 +9049,7 @@
         <v>0.20618092030502574</v>
       </c>
       <c r="K21" s="0">
-        <v>14.053333333333333</v>
+        <v>23.066424242424244</v>
       </c>
       <c r="L21" s="0">
         <v>0.18475208614068039</v>
@@ -8949,10 +9093,10 @@
         <v>0.45094337734165996</v>
       </c>
       <c r="K22" s="0">
-        <v>16.479999999999997</v>
+        <v>25.49309090909091</v>
       </c>
       <c r="L22" s="0">
-        <v>0.39597979746446571</v>
+        <v>0.39597979746446821</v>
       </c>
       <c r="M22" s="0">
         <v>15.670269000000001</v>
@@ -8993,7 +9137,7 @@
         <v>1.7624387827362489</v>
       </c>
       <c r="K23" s="0">
-        <v>18.079999999999998</v>
+        <v>27.093090909090911</v>
       </c>
       <c r="L23" s="0">
         <v>1.5273506473629428</v>
@@ -9037,7 +9181,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K24" s="0">
-        <v>14.76</v>
+        <v>23.773090909090911</v>
       </c>
       <c r="L24" s="0">
         <v>3.2068884192209333</v>
@@ -9081,10 +9225,10 @@
         <v>0.096488095687476974</v>
       </c>
       <c r="K25" s="0">
-        <v>16.300000000000001</v>
+        <v>25.31309090909091</v>
       </c>
       <c r="L25" s="0">
-        <v>0.08485281374238389</v>
+        <v>0.084852813742386402</v>
       </c>
       <c r="M25" s="0">
         <v>15.484560500000001</v>
@@ -9125,7 +9269,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K26" s="0">
-        <v>19.120000000000001</v>
+        <v>28.13309090909091</v>
       </c>
       <c r="L26" s="0">
         <v>3.2068884192209333</v>
@@ -9169,7 +9313,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K27" s="0">
-        <v>18.960000000000001</v>
+        <v>27.97309090909091</v>
       </c>
       <c r="L27" s="0">
         <v>3.2068884192209333</v>
@@ -9213,10 +9357,10 @@
         <v>2.8739595793878441</v>
       </c>
       <c r="K28" s="0">
-        <v>14.059999999999999</v>
+        <v>23.073090909090908</v>
       </c>
       <c r="L28" s="0">
-        <v>2.5738686835190321</v>
+        <v>2.5738686835190334</v>
       </c>
       <c r="M28" s="0">
         <v>13.252012499999999</v>
@@ -9257,7 +9401,7 @@
         <v>1.1098329308263208</v>
       </c>
       <c r="K29" s="0">
-        <v>16.760000000000002</v>
+        <v>25.773090909090911</v>
       </c>
       <c r="L29" s="0">
         <v>0.9707728879609272</v>
@@ -9301,7 +9445,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K30" s="0">
-        <v>15.56</v>
+        <v>24.573090909090908</v>
       </c>
       <c r="L30" s="0">
         <v>3.2068884192209333</v>
@@ -9345,7 +9489,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K31" s="0">
-        <v>18.079999999999998</v>
+        <v>27.093090909090911</v>
       </c>
       <c r="L31" s="0">
         <v>3.2068884192209333</v>
@@ -9389,7 +9533,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K32" s="0">
-        <v>17.640000000000001</v>
+        <v>26.65309090909091</v>
       </c>
       <c r="L32" s="0">
         <v>3.2068884192209333</v>
@@ -9433,7 +9577,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K33" s="0">
-        <v>20.199999999999999</v>
+        <v>29.213090909090909</v>
       </c>
       <c r="L33" s="0">
         <v>3.2068884192209333</v>
@@ -9477,10 +9621,10 @@
         <v>2.5882622732716398</v>
       </c>
       <c r="K34" s="0">
-        <v>18.539999999999999</v>
+        <v>27.553090909090912</v>
       </c>
       <c r="L34" s="0">
-        <v>2.2344574285494878</v>
+        <v>2.2344574285494905</v>
       </c>
       <c r="M34" s="0">
         <v>17.845782499999999</v>
@@ -9521,7 +9665,7 @@
         <v>3.4326203083304709</v>
       </c>
       <c r="K35" s="0">
-        <v>19.16</v>
+        <v>28.173090909090909</v>
       </c>
       <c r="L35" s="0">
         <v>3.2068884192209333</v>
@@ -9565,7 +9709,7 @@
         <v>1.015303424510438</v>
       </c>
       <c r="K36" s="0">
-        <v>17.952000000000002</v>
+        <v>26.965090909090907</v>
       </c>
       <c r="L36" s="0">
         <v>0.87653864717991792</v>
@@ -9599,54 +9743,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
@@ -9672,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="0">
-        <v>1.6367040050051813</v>
+        <v>1.6367040050051809</v>
       </c>
     </row>
     <row r="4">
@@ -9721,7 +9865,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G5" s="0">
-        <v>-2.2599999999999998</v>
+        <v>-2.259999999999998</v>
       </c>
       <c r="H5" s="0">
         <v>3.2068884192209333</v>
@@ -9747,10 +9891,10 @@
         <v>0.59396969619669993</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.24999999999999822</v>
+        <v>-0.24999999999999645</v>
       </c>
       <c r="H6" s="0">
-        <v>2.3758787847868006</v>
+        <v>2.3758787847867993</v>
       </c>
     </row>
     <row r="7">
@@ -9773,7 +9917,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.84999999999999964</v>
+        <v>-0.84999999999999787</v>
       </c>
       <c r="H7" s="0">
         <v>3.2068884192209333</v>
@@ -9799,7 +9943,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.33000000000000007</v>
+        <v>-0.32999999999999829</v>
       </c>
       <c r="H8" s="0">
         <v>3.2068884192209333</v>
@@ -9825,10 +9969,10 @@
         <v>0.10606601717798214</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.90999999999999837</v>
+        <v>-0.90999999999999659</v>
       </c>
       <c r="H9" s="0">
-        <v>0.42426406871192823</v>
+        <v>0.42426406871192701</v>
       </c>
     </row>
     <row r="10">
@@ -9851,10 +9995,10 @@
         <v>0.27820855486487112</v>
       </c>
       <c r="G10" s="0">
-        <v>2.3100000000000005</v>
+        <v>2.3100000000000023</v>
       </c>
       <c r="H10" s="0">
-        <v>1.112834219459484</v>
+        <v>1.1128342194594845</v>
       </c>
     </row>
     <row r="11">
@@ -9877,7 +10021,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G11" s="0">
-        <v>2.9500000000000011</v>
+        <v>2.9500000000000028</v>
       </c>
       <c r="H11" s="0">
         <v>3.2068884192209333</v>
@@ -9906,7 +10050,7 @@
         <v>2.2300000000000004</v>
       </c>
       <c r="H12" s="0">
-        <v>1.0254364924265185</v>
+        <v>1.0254364924265176</v>
       </c>
     </row>
     <row r="13">
@@ -9929,7 +10073,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G13" s="0">
-        <v>-1.4100000000000001</v>
+        <v>-1.4099999999999966</v>
       </c>
       <c r="H13" s="0">
         <v>3.2068884192209333</v>
@@ -9955,7 +10099,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G14" s="0">
-        <v>3.1900000000000013</v>
+        <v>3.1900000000000048</v>
       </c>
       <c r="H14" s="0">
         <v>3.2068884192209333</v>
@@ -9981,7 +10125,7 @@
         <v>0.041932485418030345</v>
       </c>
       <c r="G15" s="0">
-        <v>4.0800000000000001</v>
+        <v>4.0800000000000018</v>
       </c>
       <c r="H15" s="0">
         <v>0.1677299416721216</v>
@@ -10007,7 +10151,7 @@
         <v>0.049497474683058366</v>
       </c>
       <c r="G16" s="0">
-        <v>4.3300000000000001</v>
+        <v>4.3300000000000018</v>
       </c>
       <c r="H16" s="0">
         <v>0.1979898987322341</v>
@@ -10033,7 +10177,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G17" s="0">
-        <v>0.99000000000000021</v>
+        <v>0.99000000000000199</v>
       </c>
       <c r="H17" s="0">
         <v>3.2068884192209333</v>
@@ -10085,10 +10229,10 @@
         <v>0.13435028842544403</v>
       </c>
       <c r="G19" s="0">
-        <v>0.8100000000000005</v>
+        <v>0.81000000000000227</v>
       </c>
       <c r="H19" s="0">
-        <v>0.53740115370177599</v>
+        <v>0.53740115370177477</v>
       </c>
     </row>
     <row r="20">
@@ -10111,10 +10255,10 @@
         <v>0.30405591591021547</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.3100000000000005</v>
+        <v>-0.30999999999999517</v>
       </c>
       <c r="H20" s="0">
-        <v>1.2162236636408621</v>
+        <v>1.2162236636408634</v>
       </c>
     </row>
     <row r="21">
@@ -10137,7 +10281,7 @@
         <v>0.046188021535170071</v>
       </c>
       <c r="G21" s="0">
-        <v>1.5233333333333334</v>
+        <v>1.523333333333337</v>
       </c>
       <c r="H21" s="0">
         <v>0.18475208614068039</v>
@@ -10163,10 +10307,10 @@
         <v>0.09899494936611658</v>
       </c>
       <c r="G22" s="0">
-        <v>3.9499999999999975</v>
+        <v>3.9500000000000028</v>
       </c>
       <c r="H22" s="0">
-        <v>0.39597979746446571</v>
+        <v>0.39597979746446821</v>
       </c>
     </row>
     <row r="23">
@@ -10189,7 +10333,7 @@
         <v>0.3818376618407357</v>
       </c>
       <c r="G23" s="0">
-        <v>5.5499999999999989</v>
+        <v>5.5500000000000043</v>
       </c>
       <c r="H23" s="0">
         <v>1.5273506473629428</v>
@@ -10215,7 +10359,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G24" s="0">
-        <v>2.2300000000000004</v>
+        <v>2.230000000000004</v>
       </c>
       <c r="H24" s="0">
         <v>3.2068884192209333</v>
@@ -10241,10 +10385,10 @@
         <v>0.021213203435596444</v>
       </c>
       <c r="G25" s="0">
-        <v>3.7700000000000014</v>
+        <v>3.7700000000000031</v>
       </c>
       <c r="H25" s="0">
-        <v>0.08485281374238389</v>
+        <v>0.084852813742386402</v>
       </c>
     </row>
     <row r="26">
@@ -10267,7 +10411,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G26" s="0">
-        <v>6.5900000000000016</v>
+        <v>6.5900000000000034</v>
       </c>
       <c r="H26" s="0">
         <v>3.2068884192209333</v>
@@ -10293,7 +10437,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G27" s="0">
-        <v>6.4300000000000015</v>
+        <v>6.4300000000000033</v>
       </c>
       <c r="H27" s="0">
         <v>3.2068884192209333</v>
@@ -10319,10 +10463,10 @@
         <v>0.64346717087975824</v>
       </c>
       <c r="G28" s="0">
-        <v>1.5299999999999994</v>
+        <v>1.5300000000000011</v>
       </c>
       <c r="H28" s="0">
-        <v>2.5738686835190321</v>
+        <v>2.5738686835190334</v>
       </c>
     </row>
     <row r="29">
@@ -10345,7 +10489,7 @@
         <v>0.24269322199023194</v>
       </c>
       <c r="G29" s="0">
-        <v>4.2300000000000022</v>
+        <v>4.230000000000004</v>
       </c>
       <c r="H29" s="0">
         <v>0.9707728879609272</v>
@@ -10397,7 +10541,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G31" s="0">
-        <v>5.5499999999999989</v>
+        <v>5.5500000000000043</v>
       </c>
       <c r="H31" s="0">
         <v>3.2068884192209333</v>
@@ -10423,7 +10567,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G32" s="0">
-        <v>5.1100000000000012</v>
+        <v>5.110000000000003</v>
       </c>
       <c r="H32" s="0">
         <v>3.2068884192209333</v>
@@ -10449,7 +10593,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G33" s="0">
-        <v>7.6699999999999999</v>
+        <v>7.6700000000000017</v>
       </c>
       <c r="H33" s="0">
         <v>3.2068884192209333</v>
@@ -10475,10 +10619,10 @@
         <v>0.5586143571373724</v>
       </c>
       <c r="G34" s="0">
-        <v>6.0099999999999998</v>
+        <v>6.0100000000000051</v>
       </c>
       <c r="H34" s="0">
-        <v>2.2344574285494878</v>
+        <v>2.2344574285494905</v>
       </c>
     </row>
     <row r="35">
@@ -10501,7 +10645,7 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G35" s="0">
-        <v>6.6300000000000008</v>
+        <v>6.6300000000000026</v>
       </c>
       <c r="H35" s="0">
         <v>3.2068884192209333</v>
@@ -10527,7 +10671,7 @@
         <v>0.2191346617949794</v>
       </c>
       <c r="G36" s="0">
-        <v>5.4220000000000024</v>
+        <v>5.4220000000000006</v>
       </c>
       <c r="H36" s="0">
         <v>0.87653864717991792</v>

--- a/Trudgill_et_al_202X/Data/TJ_d18O_d13C.xlsx
+++ b/Trudgill_et_al_202X/Data/TJ_d18O_d13C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ross\Documents\Work\Postdoc\St_Andrews\Output\Private_Papers\Trudgill_et_al_202X\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F44C4DA-0AAF-4E79-96FF-6E7BB2E5B1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1598FA2-4B3B-4CEF-B6E4-B44E94D7DF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="With_Age" sheetId="5" r:id="rId3"/>
     <sheet name="Temperature_Calibrations" sheetId="6" r:id="rId4"/>
     <sheet name="Averaged" sheetId="4" r:id="rId5"/>
-    <sheet name="Delta_Temperature" sheetId="7" r:id="rId13"/>
+    <sheet name="Delta_Temperature" sheetId="7" r:id="rId6"/>
+    <sheet name="Reaveraged" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="188">
   <si>
     <t>Height</t>
   </si>
@@ -107,21 +108,81 @@
     <t>height</t>
   </si>
   <si>
+    <t>age</t>
+  </si>
+  <si>
     <t>d13C</t>
   </si>
   <si>
     <t>d18O</t>
   </si>
   <si>
-    <t>relative_age</t>
-  </si>
-  <si>
-    <t>absolute_age</t>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d18O</t>
   </si>
   <si>
     <t>oneil_temperature</t>
   </si>
   <si>
+    <t>kim_oneil_temperature</t>
+  </si>
+  <si>
+    <t>hansen_temperature</t>
+  </si>
+  <si>
+    <t>anderson_arthur_temperature</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d13C_uncertainty</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
+    <t>d18O_uncertainty</t>
+  </si>
+  <si>
+    <t>oneil_temperature</t>
+  </si>
+  <si>
     <t>oneil_temperature_uncertainty</t>
   </si>
   <si>
@@ -146,15 +207,48 @@
     <t>m</t>
   </si>
   <si>
+    <t>Ma</t>
+  </si>
+  <si>
     <t>‰</t>
   </si>
   <si>
-    <t>Myr</t>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d13C_uncertainty</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
+    <t>d18O_uncertainty</t>
+  </si>
+  <si>
+    <t>delta_temperature</t>
+  </si>
+  <si>
+    <t>delta_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
   <si>
     <t>Ma</t>
   </si>
   <si>
+    <t>‰</t>
+  </si>
+  <si>
     <t>°C</t>
   </si>
   <si>
@@ -170,6 +264,18 @@
     <t>d18O</t>
   </si>
   <si>
+    <t>oneil_temperature</t>
+  </si>
+  <si>
+    <t>kim_oneil_temperature</t>
+  </si>
+  <si>
+    <t>hansen_temperature</t>
+  </si>
+  <si>
+    <t>anderson_arthur_temperature</t>
+  </si>
+  <si>
     <t>m</t>
   </si>
   <si>
@@ -179,6 +285,9 @@
     <t>‰</t>
   </si>
   <si>
+    <t>°C</t>
+  </si>
+  <si>
     <t>height</t>
   </si>
   <si>
@@ -188,21 +297,39 @@
     <t>d13C</t>
   </si>
   <si>
+    <t>d13C_uncertainty</t>
+  </si>
+  <si>
     <t>d18O</t>
   </si>
   <si>
+    <t>d18O_uncertainty</t>
+  </si>
+  <si>
     <t>oneil_temperature</t>
   </si>
   <si>
+    <t>oneil_temperature_uncertainty</t>
+  </si>
+  <si>
     <t>kim_oneil_temperature</t>
   </si>
   <si>
+    <t>kim_oneil_temperature_uncertainty</t>
+  </si>
+  <si>
     <t>hansen_temperature</t>
   </si>
   <si>
+    <t>hansen_temperature_uncertainty</t>
+  </si>
+  <si>
     <t>anderson_arthur_temperature</t>
   </si>
   <si>
+    <t>anderson_arthur_temperature_uncertainty</t>
+  </si>
+  <si>
     <t>m</t>
   </si>
   <si>
@@ -224,9 +351,60 @@
     <t>d13C</t>
   </si>
   <si>
+    <t>d13C_uncertainty</t>
+  </si>
+  <si>
     <t>d18O</t>
   </si>
   <si>
+    <t>d18O_uncertainty</t>
+  </si>
+  <si>
+    <t>delta_temperature</t>
+  </si>
+  <si>
+    <t>delta_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>hansen_temperature</t>
+  </si>
+  <si>
+    <t>hansen_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
     <t>oneil_temperature</t>
   </si>
   <si>
@@ -332,21 +510,39 @@
     <t>d13C</t>
   </si>
   <si>
+    <t>d13C_uncertainty</t>
+  </si>
+  <si>
     <t>d18O</t>
   </si>
   <si>
+    <t>d18O_uncertainty</t>
+  </si>
+  <si>
     <t>oneil_temperature</t>
   </si>
   <si>
+    <t>oneil_temperature_uncertainty</t>
+  </si>
+  <si>
     <t>kim_oneil_temperature</t>
   </si>
   <si>
+    <t>kim_oneil_temperature_uncertainty</t>
+  </si>
+  <si>
     <t>hansen_temperature</t>
   </si>
   <si>
+    <t>hansen_temperature_uncertainty</t>
+  </si>
+  <si>
     <t>anderson_arthur_temperature</t>
   </si>
   <si>
+    <t>anderson_arthur_temperature_uncertainty</t>
+  </si>
+  <si>
     <t>m</t>
   </si>
   <si>
@@ -368,19 +564,34 @@
     <t>d13C</t>
   </si>
   <si>
+    <t>d13C_uncertainty</t>
+  </si>
+  <si>
     <t>d18O</t>
   </si>
   <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>oneil_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature_uncertainty</t>
+    <t>d18O_uncertainty</t>
+  </si>
+  <si>
+    <t>delta_temperature</t>
+  </si>
+  <si>
+    <t>delta_temperature_uncertainty</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
   <si>
     <t>hansen_temperature</t>
@@ -389,673 +600,7 @@
     <t>hansen_temperature_uncertainty</t>
   </si>
   <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>hansen_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>oneil_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>hansen_temperature</t>
-  </si>
-  <si>
-    <t>hansen_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>delta_temperature</t>
-  </si>
-  <si>
-    <t>delta_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>hansen_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d13C_uncertainty</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>d18O_uncertainty</t>
-  </si>
-  <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>oneil_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>hansen_temperature</t>
-  </si>
-  <si>
-    <t>hansen_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d13C_uncertainty</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>d18O_uncertainty</t>
-  </si>
-  <si>
-    <t>delta_temperature</t>
-  </si>
-  <si>
-    <t>delta_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>hansen_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d13C_uncertainty</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>d18O_uncertainty</t>
-  </si>
-  <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>oneil_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>hansen_temperature</t>
-  </si>
-  <si>
-    <t>hansen_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d13C_uncertainty</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>d18O_uncertainty</t>
-  </si>
-  <si>
-    <t>delta_temperature</t>
-  </si>
-  <si>
-    <t>delta_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>hansen_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>hansen_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d13C_uncertainty</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>d18O_uncertainty</t>
-  </si>
-  <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>oneil_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>hansen_temperature</t>
-  </si>
-  <si>
-    <t>hansen_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d13C_uncertainty</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>d18O_uncertainty</t>
-  </si>
-  <si>
-    <t>delta_temperature</t>
-  </si>
-  <si>
-    <t>delta_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>hansen_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d13C_uncertainty</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>d18O_uncertainty</t>
-  </si>
-  <si>
-    <t>oneil_temperature</t>
-  </si>
-  <si>
-    <t>oneil_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature</t>
-  </si>
-  <si>
-    <t>kim_oneil_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>hansen_temperature</t>
-  </si>
-  <si>
-    <t>hansen_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature</t>
-  </si>
-  <si>
-    <t>anderson_arthur_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>d13C</t>
-  </si>
-  <si>
-    <t>d13C_uncertainty</t>
-  </si>
-  <si>
-    <t>d18O</t>
-  </si>
-  <si>
-    <t>d18O_uncertainty</t>
-  </si>
-  <si>
-    <t>delta_temperature</t>
-  </si>
-  <si>
-    <t>delta_temperature_uncertainty</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>‰</t>
   </si>
   <si>
     <t>°C</t>
@@ -1082,7 +627,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1120,44 +665,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1191,39 +703,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1544,14 +1023,14 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="19.5546875" customWidth="true"/>
-    <col min="5" max="5" width="22.21875" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="19.54296875" customWidth="true"/>
+    <col min="5" max="5" width="22.1796875" customWidth="true"/>
+    <col min="7" max="7" width="15.81640625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1562,7 +1041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.3">
+    <row r="2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1588,7 +1067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.3">
+    <row r="3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1603,7 +1082,7 @@
         <v>201564</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.3">
+    <row r="4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1614,7 +1093,7 @@
         <v>-178.84615384615384</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.3">
+    <row r="5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1625,7 +1104,7 @@
         <v>-107.69230769230769</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.3">
+    <row r="6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>15</v>
       </c>
@@ -1636,7 +1115,7 @@
         <v>41.025641025641015</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.3">
+    <row r="7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1647,7 +1126,7 @@
         <v>134.99999999999997</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.3">
+    <row r="8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>25</v>
       </c>
@@ -1658,7 +1137,7 @@
         <v>229.48717948717947</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.3">
+    <row r="9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>30</v>
       </c>
@@ -1669,7 +1148,7 @@
         <v>329.23976608187138</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.3">
+    <row r="12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.3">
+    <row r="13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>36</v>
       </c>
@@ -1724,7 +1203,7 @@
         <v>201.52877606837606</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.3">
+    <row r="14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>36</v>
       </c>
@@ -1753,7 +1232,7 @@
         <v>201.52877606837606</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.3">
+    <row r="15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>36</v>
       </c>
@@ -1782,7 +1261,7 @@
         <v>201.52877606837606</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.3">
+    <row r="16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>36</v>
       </c>
@@ -1811,7 +1290,7 @@
         <v>201.52877606837606</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.3">
+    <row r="17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>91</v>
       </c>
@@ -1840,7 +1319,7 @@
         <v>201.51313156729483</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.3">
+    <row r="18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>91</v>
       </c>
@@ -1869,7 +1348,7 @@
         <v>201.51313156729483</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.3">
+    <row r="19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>91</v>
       </c>
@@ -1898,7 +1377,7 @@
         <v>201.51313156729483</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.3">
+    <row r="20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>91</v>
       </c>
@@ -1927,7 +1406,7 @@
         <v>201.51313156729483</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.3">
+    <row r="21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>91</v>
       </c>
@@ -1956,7 +1435,7 @@
         <v>201.51313156729483</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.3">
+    <row r="22" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>91</v>
       </c>
@@ -1985,7 +1464,7 @@
         <v>201.51313156729483</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.3">
+    <row r="23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>91</v>
       </c>
@@ -2014,7 +1493,7 @@
         <v>201.51313156729483</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.3">
+    <row r="24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>171</v>
       </c>
@@ -2043,7 +1522,7 @@
         <v>201.49037592935846</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.3">
+    <row r="25" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>171</v>
       </c>
@@ -2072,7 +1551,7 @@
         <v>201.49037592935846</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.3">
+    <row r="26" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>171</v>
       </c>
@@ -2101,7 +1580,7 @@
         <v>201.49037592935846</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.3">
+    <row r="27" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>171</v>
       </c>
@@ -2130,7 +1609,7 @@
         <v>201.49037592935846</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.3">
+    <row r="28" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>275</v>
       </c>
@@ -2159,7 +1638,7 @@
         <v>201.4607936000412</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.3">
+    <row r="29" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>275</v>
       </c>
@@ -2188,7 +1667,7 @@
         <v>201.4607936000412</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.3">
+    <row r="30" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>285</v>
       </c>
@@ -2217,7 +1696,7 @@
         <v>201.45794914529915</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.3">
+    <row r="31" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>290</v>
       </c>
@@ -2246,7 +1725,7 @@
         <v>201.45652691792813</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.3">
+    <row r="32" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>290</v>
       </c>
@@ -2275,7 +1754,7 @@
         <v>201.45652691792813</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.3">
+    <row r="33" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>290</v>
       </c>
@@ -2304,7 +1783,7 @@
         <v>201.45652691792813</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.3">
+    <row r="34" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>290</v>
       </c>
@@ -2333,7 +1812,7 @@
         <v>201.45652691792813</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.3">
+    <row r="35" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>303</v>
       </c>
@@ -2362,7 +1841,7 @@
         <v>201.45282912676348</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.3">
+    <row r="36" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>303</v>
       </c>
@@ -2391,7 +1870,7 @@
         <v>201.45282912676348</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.3">
+    <row r="37" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>332</v>
       </c>
@@ -2420,7 +1899,7 @@
         <v>201.44480709710638</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.3">
+    <row r="38" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>332</v>
       </c>
@@ -2449,7 +1928,7 @@
         <v>201.44480709710638</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.3">
+    <row r="39" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>332</v>
       </c>
@@ -2478,7 +1957,7 @@
         <v>201.44480709710638</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.3">
+    <row r="40" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>332</v>
       </c>
@@ -2507,7 +1986,7 @@
         <v>201.44480709710638</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.3">
+    <row r="41" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>362</v>
       </c>
@@ -2536,7 +2015,7 @@
         <v>201.43941489367728</v>
       </c>
     </row>
-    <row r="42" x14ac:dyDescent="0.3">
+    <row r="42" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>403</v>
       </c>
@@ -2565,7 +2044,7 @@
         <v>201.43204554899083</v>
       </c>
     </row>
-    <row r="43" x14ac:dyDescent="0.3">
+    <row r="43" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>403</v>
       </c>
@@ -2594,7 +2073,7 @@
         <v>201.43204554899083</v>
       </c>
     </row>
-    <row r="44" x14ac:dyDescent="0.3">
+    <row r="44" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>403</v>
       </c>
@@ -2623,7 +2102,7 @@
         <v>201.43204554899083</v>
       </c>
     </row>
-    <row r="45" x14ac:dyDescent="0.3">
+    <row r="45" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>403</v>
       </c>
@@ -2652,7 +2131,7 @@
         <v>201.43204554899083</v>
       </c>
     </row>
-    <row r="46" x14ac:dyDescent="0.3">
+    <row r="46" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>403</v>
       </c>
@@ -2681,7 +2160,7 @@
         <v>201.43204554899083</v>
       </c>
     </row>
-    <row r="47" x14ac:dyDescent="0.3">
+    <row r="47" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>403</v>
       </c>
@@ -2710,7 +2189,7 @@
         <v>201.43204554899083</v>
       </c>
     </row>
-    <row r="48" x14ac:dyDescent="0.3">
+    <row r="48" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>425</v>
       </c>
@@ -2739,7 +2218,7 @@
         <v>201.42809126647617</v>
       </c>
     </row>
-    <row r="49" x14ac:dyDescent="0.3">
+    <row r="49" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>448</v>
       </c>
@@ -2768,7 +2247,7 @@
         <v>201.42395724384718</v>
       </c>
     </row>
-    <row r="50" x14ac:dyDescent="0.3">
+    <row r="50" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>451</v>
       </c>
@@ -2797,7 +2276,7 @@
         <v>201.4234180235043</v>
       </c>
     </row>
-    <row r="51" x14ac:dyDescent="0.3">
+    <row r="51" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>451</v>
       </c>
@@ -2826,7 +2305,7 @@
         <v>201.4234180235043</v>
       </c>
     </row>
-    <row r="52" x14ac:dyDescent="0.3">
+    <row r="52" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>451</v>
       </c>
@@ -2855,7 +2334,7 @@
         <v>201.4234180235043</v>
       </c>
     </row>
-    <row r="53" x14ac:dyDescent="0.3">
+    <row r="53" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>451</v>
       </c>
@@ -2884,7 +2363,7 @@
         <v>201.4234180235043</v>
       </c>
     </row>
-    <row r="54" x14ac:dyDescent="0.3">
+    <row r="54" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>477</v>
       </c>
@@ -2913,7 +2392,7 @@
         <v>201.41874478053236</v>
       </c>
     </row>
-    <row r="55" x14ac:dyDescent="0.3">
+    <row r="55" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>477</v>
       </c>
@@ -2942,7 +2421,7 @@
         <v>201.41874478053236</v>
       </c>
     </row>
-    <row r="56" x14ac:dyDescent="0.3">
+    <row r="56" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>497</v>
       </c>
@@ -2971,7 +2450,7 @@
         <v>201.41514997824632</v>
       </c>
     </row>
-    <row r="57" x14ac:dyDescent="0.3">
+    <row r="57" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>497</v>
       </c>
@@ -3000,7 +2479,7 @@
         <v>201.41514997824632</v>
       </c>
     </row>
-    <row r="58" x14ac:dyDescent="0.3">
+    <row r="58" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>500</v>
       </c>
@@ -3029,7 +2508,7 @@
         <v>201.4146107579034</v>
       </c>
     </row>
-    <row r="59" x14ac:dyDescent="0.3">
+    <row r="59" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>515</v>
       </c>
@@ -3058,7 +2537,7 @@
         <v>201.41191465618886</v>
       </c>
     </row>
-    <row r="60" x14ac:dyDescent="0.3">
+    <row r="60" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>515</v>
       </c>
@@ -3087,7 +2566,7 @@
         <v>201.41191465618886</v>
       </c>
     </row>
-    <row r="61" x14ac:dyDescent="0.3">
+    <row r="61" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>526</v>
       </c>
@@ -3116,7 +2595,7 @@
         <v>201.40993751493153</v>
       </c>
     </row>
-    <row r="62" x14ac:dyDescent="0.3">
+    <row r="62" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>526</v>
       </c>
@@ -3145,7 +2624,7 @@
         <v>201.40993751493153</v>
       </c>
     </row>
-    <row r="63" x14ac:dyDescent="0.3">
+    <row r="63" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>537</v>
       </c>
@@ -3174,7 +2653,7 @@
         <v>201.40796037367417</v>
       </c>
     </row>
-    <row r="64" x14ac:dyDescent="0.3">
+    <row r="64" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>537</v>
       </c>
@@ -3203,7 +2682,7 @@
         <v>201.40796037367417</v>
       </c>
     </row>
-    <row r="65" x14ac:dyDescent="0.3">
+    <row r="65" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>537</v>
       </c>
@@ -3232,7 +2711,7 @@
         <v>201.40796037367417</v>
       </c>
     </row>
-    <row r="66" x14ac:dyDescent="0.3">
+    <row r="66" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>605</v>
       </c>
@@ -3261,7 +2740,7 @@
         <v>201.39573804590157</v>
       </c>
     </row>
-    <row r="67" x14ac:dyDescent="0.3">
+    <row r="67" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>605</v>
       </c>
@@ -3290,7 +2769,7 @@
         <v>201.39573804590157</v>
       </c>
     </row>
-    <row r="68" x14ac:dyDescent="0.3">
+    <row r="68" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>624</v>
       </c>
@@ -3319,7 +2798,7 @@
         <v>201.3923229837298</v>
       </c>
     </row>
-    <row r="69" x14ac:dyDescent="0.3">
+    <row r="69" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>624</v>
       </c>
@@ -3348,7 +2827,7 @@
         <v>201.3923229837298</v>
       </c>
     </row>
-    <row r="70" x14ac:dyDescent="0.3">
+    <row r="70" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>648</v>
       </c>
@@ -3377,7 +2856,7 @@
         <v>201.3880092209865</v>
       </c>
     </row>
-    <row r="71" x14ac:dyDescent="0.3">
+    <row r="71" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>877</v>
       </c>
@@ -3406,7 +2885,7 @@
         <v>201.35165380816716</v>
       </c>
     </row>
-    <row r="72" x14ac:dyDescent="0.3">
+    <row r="72" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>877</v>
       </c>
@@ -3435,7 +2914,7 @@
         <v>201.35165380816716</v>
       </c>
     </row>
-    <row r="73" x14ac:dyDescent="0.3">
+    <row r="73" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>882</v>
       </c>
@@ -3464,7 +2943,7 @@
         <v>201.35078128205129</v>
       </c>
     </row>
-    <row r="74" x14ac:dyDescent="0.3">
+    <row r="74" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>898</v>
       </c>
@@ -3493,7 +2972,7 @@
         <v>201.34798166191834</v>
       </c>
     </row>
-    <row r="75" x14ac:dyDescent="0.3">
+    <row r="75" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>968</v>
       </c>
@@ -3522,7 +3001,7 @@
         <v>201.33573332383668</v>
       </c>
     </row>
-    <row r="76" x14ac:dyDescent="0.3">
+    <row r="76" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>968</v>
       </c>
@@ -3551,7 +3030,7 @@
         <v>201.33573332383668</v>
       </c>
     </row>
-    <row r="77" x14ac:dyDescent="0.3">
+    <row r="77" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1102</v>
       </c>
@@ -3580,7 +3059,7 @@
         <v>201.31228650522317</v>
       </c>
     </row>
-    <row r="78" x14ac:dyDescent="0.3">
+    <row r="78" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1102</v>
       </c>
@@ -3609,7 +3088,7 @@
         <v>201.31228650522317</v>
       </c>
     </row>
-    <row r="79" x14ac:dyDescent="0.3">
+    <row r="79" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1102</v>
       </c>
@@ -3638,7 +3117,7 @@
         <v>201.31228650522317</v>
       </c>
     </row>
-    <row r="80" x14ac:dyDescent="0.3">
+    <row r="80" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1239</v>
       </c>
@@ -3667,7 +3146,7 @@
         <v>201.28831475783477</v>
       </c>
     </row>
-    <row r="81" x14ac:dyDescent="0.3">
+    <row r="81" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1249</v>
       </c>
@@ -3696,7 +3175,7 @@
         <v>201.28656499525167</v>
       </c>
     </row>
-    <row r="82" x14ac:dyDescent="0.3">
+    <row r="82" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1473</v>
       </c>
@@ -3725,7 +3204,7 @@
         <v>201.24684845304142</v>
       </c>
     </row>
-    <row r="83" x14ac:dyDescent="0.3">
+    <row r="83" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1552</v>
       </c>
@@ -3754,7 +3233,7 @@
         <v>201.23225501907666</v>
       </c>
     </row>
-    <row r="84" x14ac:dyDescent="0.3">
+    <row r="84" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1708</v>
       </c>
@@ -3783,7 +3262,7 @@
         <v>201.20343760517153</v>
       </c>
     </row>
-    <row r="85" x14ac:dyDescent="0.3">
+    <row r="85" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1708</v>
       </c>
@@ -3812,7 +3291,7 @@
         <v>201.20343760517153</v>
       </c>
     </row>
-    <row r="86" x14ac:dyDescent="0.3">
+    <row r="86" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1748</v>
       </c>
@@ -3841,7 +3320,7 @@
         <v>201.19604852468302</v>
       </c>
     </row>
-    <row r="87" x14ac:dyDescent="0.3">
+    <row r="87" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1781</v>
       </c>
@@ -3870,7 +3349,7 @@
         <v>201.18995253328001</v>
       </c>
     </row>
-    <row r="88" x14ac:dyDescent="0.3">
+    <row r="88" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1781</v>
       </c>
@@ -3899,15 +3378,15 @@
         <v>201.18995253328001</v>
       </c>
     </row>
-    <row r="89" x14ac:dyDescent="0.3">
+    <row r="89" x14ac:dyDescent="0.35">
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" x14ac:dyDescent="0.3">
+    <row r="90" x14ac:dyDescent="0.35">
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" x14ac:dyDescent="0.3">
+    <row r="91" x14ac:dyDescent="0.35">
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
@@ -3924,14 +3403,14 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true"/>
-    <col min="2" max="2" width="4.6640625" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="11.6328125" customWidth="true"/>
+    <col min="2" max="2" width="4.6328125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.36328125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3942,7 +3421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.3">
+    <row r="2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3953,7 +3432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.3">
+    <row r="3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>12.190000000000001</v>
       </c>
@@ -3964,7 +3443,7 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.3">
+    <row r="4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>12.190000000000001</v>
       </c>
@@ -3975,7 +3454,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.3">
+    <row r="5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12.190000000000001</v>
       </c>
@@ -3986,7 +3465,7 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.3">
+    <row r="6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>12.190000000000001</v>
       </c>
@@ -3997,7 +3476,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.3">
+    <row r="7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>12.715978915662649</v>
       </c>
@@ -4008,7 +3487,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.3">
+    <row r="8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>12.715978915662649</v>
       </c>
@@ -4019,7 +3498,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.3">
+    <row r="9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>12.715978915662649</v>
       </c>
@@ -4030,7 +3509,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.3">
+    <row r="10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>12.715978915662649</v>
       </c>
@@ -4041,7 +3520,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.3">
+    <row r="11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>12.715978915662649</v>
       </c>
@@ -4052,7 +3531,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.3">
+    <row r="12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12.715978915662649</v>
       </c>
@@ -4063,7 +3542,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.3">
+    <row r="13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12.715978915662649</v>
       </c>
@@ -4074,7 +3553,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.3">
+    <row r="14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13.481039156626506</v>
       </c>
@@ -4085,7 +3564,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.3">
+    <row r="15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13.481039156626506</v>
       </c>
@@ -4096,7 +3575,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.3">
+    <row r="16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>13.481039156626506</v>
       </c>
@@ -4107,7 +3586,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.3">
+    <row r="17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>13.481039156626506</v>
       </c>
@@ -4118,7 +3597,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.3">
+    <row r="18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>14.475617469879518</v>
       </c>
@@ -4129,7 +3608,7 @@
         <v>-0.49</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.3">
+    <row r="19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>14.475617469879518</v>
       </c>
@@ -4140,7 +3619,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.3">
+    <row r="20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>14.571249999999999</v>
       </c>
@@ -4151,7 +3630,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.3">
+    <row r="21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>14.619066265060242</v>
       </c>
@@ -4162,7 +3641,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.3">
+    <row r="22" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>14.619066265060242</v>
       </c>
@@ -4173,7 +3652,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.3">
+    <row r="23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>14.619066265060242</v>
       </c>
@@ -4184,7 +3663,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.3">
+    <row r="24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>14.619066265060242</v>
       </c>
@@ -4195,7 +3674,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.3">
+    <row r="25" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>14.743388554216867</v>
       </c>
@@ -4206,7 +3685,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.3">
+    <row r="26" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>14.743388554216867</v>
       </c>
@@ -4217,7 +3696,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.3">
+    <row r="27" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>15.020722891566265</v>
       </c>
@@ -4228,7 +3707,7 @@
         <v>-0.81</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.3">
+    <row r="28" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>15.020722891566265</v>
       </c>
@@ -4239,7 +3718,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.3">
+    <row r="29" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>15.020722891566265</v>
       </c>
@@ -4250,7 +3729,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.3">
+    <row r="30" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>15.020722891566265</v>
       </c>
@@ -4261,7 +3740,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.3">
+    <row r="31" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>15.30762048192771</v>
       </c>
@@ -4272,7 +3751,7 @@
         <v>-0.87</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.3">
+    <row r="32" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>15.699713855421688</v>
       </c>
@@ -4283,7 +3762,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.3">
+    <row r="33" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>15.699713855421688</v>
       </c>
@@ -4294,7 +3773,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.3">
+    <row r="34" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>15.699713855421688</v>
       </c>
@@ -4305,7 +3784,7 @@
         <v>-0.66</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.3">
+    <row r="35" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>15.699713855421688</v>
       </c>
@@ -4316,7 +3795,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.3">
+    <row r="36" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>15.699713855421688</v>
       </c>
@@ -4327,7 +3806,7 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.3">
+    <row r="37" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>15.699713855421688</v>
       </c>
@@ -4338,7 +3817,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.3">
+    <row r="38" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>15.910105421686747</v>
       </c>
@@ -4349,7 +3828,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.3">
+    <row r="39" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>16.130060240963857</v>
       </c>
@@ -4360,7 +3839,7 @@
         <v>-0.93</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.3">
+    <row r="40" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>16.158750000000001</v>
       </c>
@@ -4371,7 +3850,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.3">
+    <row r="41" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>16.158750000000001</v>
       </c>
@@ -4382,7 +3861,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="42" x14ac:dyDescent="0.3">
+    <row r="42" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>16.158750000000001</v>
       </c>
@@ -4393,7 +3872,7 @@
         <v>-1.0900000000000001</v>
       </c>
     </row>
-    <row r="43" x14ac:dyDescent="0.3">
+    <row r="43" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>16.158750000000001</v>
       </c>
@@ -4404,7 +3883,7 @@
         <v>-1.18</v>
       </c>
     </row>
-    <row r="44" x14ac:dyDescent="0.3">
+    <row r="44" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>16.407394578313252</v>
       </c>
@@ -4415,7 +3894,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="45" x14ac:dyDescent="0.3">
+    <row r="45" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>16.407394578313252</v>
       </c>
@@ -4426,7 +3905,7 @@
         <v>-1.18</v>
       </c>
     </row>
-    <row r="46" x14ac:dyDescent="0.3">
+    <row r="46" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>16.598659638554217</v>
       </c>
@@ -4437,7 +3916,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="47" x14ac:dyDescent="0.3">
+    <row r="47" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>16.598659638554217</v>
       </c>
@@ -4448,7 +3927,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="48" x14ac:dyDescent="0.3">
+    <row r="48" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>16.627349397590361</v>
       </c>
@@ -4459,7 +3938,7 @@
         <v>-0.82</v>
       </c>
     </row>
-    <row r="49" x14ac:dyDescent="0.3">
+    <row r="49" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>16.770798192771082</v>
       </c>
@@ -4470,7 +3949,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="50" x14ac:dyDescent="0.3">
+    <row r="50" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>16.770798192771082</v>
       </c>
@@ -4481,7 +3960,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="51" x14ac:dyDescent="0.3">
+    <row r="51" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>16.875993975903611</v>
       </c>
@@ -4492,7 +3971,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="52" x14ac:dyDescent="0.3">
+    <row r="52" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>16.875993975903611</v>
       </c>
@@ -4503,7 +3982,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="53" x14ac:dyDescent="0.3">
+    <row r="53" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>16.981189759036145</v>
       </c>
@@ -4514,7 +3993,7 @@
         <v>-0.46</v>
       </c>
     </row>
-    <row r="54" x14ac:dyDescent="0.3">
+    <row r="54" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>16.981189759036145</v>
       </c>
@@ -4525,7 +4004,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="55" x14ac:dyDescent="0.3">
+    <row r="55" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>16.981189759036145</v>
       </c>
@@ -4536,7 +4015,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="56" x14ac:dyDescent="0.3">
+    <row r="56" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>17.63149096385542</v>
       </c>
@@ -4547,7 +4026,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="57" x14ac:dyDescent="0.3">
+    <row r="57" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>17.63149096385542</v>
       </c>
@@ -4558,7 +4037,7 @@
         <v>-1.05</v>
       </c>
     </row>
-    <row r="58" x14ac:dyDescent="0.3">
+    <row r="58" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>17.813192771084339</v>
       </c>
@@ -4569,7 +4048,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="59" x14ac:dyDescent="0.3">
+    <row r="59" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>17.813192771084339</v>
       </c>
@@ -4580,7 +4059,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="60" x14ac:dyDescent="0.3">
+    <row r="60" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>18.042710843373495</v>
       </c>
@@ -4591,7 +4070,7 @@
         <v>-0.69</v>
       </c>
     </row>
-    <row r="61" x14ac:dyDescent="0.3">
+    <row r="61" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>19.977037037037036</v>
       </c>
@@ -4602,7 +4081,7 @@
         <v>-1.0900000000000001</v>
       </c>
     </row>
-    <row r="62" x14ac:dyDescent="0.3">
+    <row r="62" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>19.977037037037036</v>
       </c>
@@ -4613,7 +4092,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="63" x14ac:dyDescent="0.3">
+    <row r="63" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>20.023333333333333</v>
       </c>
@@ -4624,7 +4103,7 @@
         <v>-1.78</v>
       </c>
     </row>
-    <row r="64" x14ac:dyDescent="0.3">
+    <row r="64" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>20.171481481481482</v>
       </c>
@@ -4635,7 +4114,7 @@
         <v>-1.74</v>
       </c>
     </row>
-    <row r="65" x14ac:dyDescent="0.3">
+    <row r="65" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>20.819629629629631</v>
       </c>
@@ -4646,7 +4125,7 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="66" x14ac:dyDescent="0.3">
+    <row r="66" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>20.819629629629631</v>
       </c>
@@ -4657,7 +4136,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="67" x14ac:dyDescent="0.3">
+    <row r="67" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>22.060370370370372</v>
       </c>
@@ -4668,7 +4147,7 @@
         <v>-0.99</v>
       </c>
     </row>
-    <row r="68" x14ac:dyDescent="0.3">
+    <row r="68" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>22.060370370370372</v>
       </c>
@@ -4679,7 +4158,7 @@
         <v>-1.46</v>
       </c>
     </row>
-    <row r="69" x14ac:dyDescent="0.3">
+    <row r="69" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>22.060370370370372</v>
       </c>
@@ -4690,7 +4169,7 @@
         <v>-1.1200000000000001</v>
       </c>
     </row>
-    <row r="70" x14ac:dyDescent="0.3">
+    <row r="70" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>23.328888888888891</v>
       </c>
@@ -4701,7 +4180,7 @@
         <v>-0.89</v>
       </c>
     </row>
-    <row r="71" x14ac:dyDescent="0.3">
+    <row r="71" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>23.421481481481482</v>
       </c>
@@ -4712,7 +4191,7 @@
         <v>-1.52</v>
       </c>
     </row>
-    <row r="72" x14ac:dyDescent="0.3">
+    <row r="72" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>25.495555555555555</v>
       </c>
@@ -4723,7 +4202,7 @@
         <v>-1.41</v>
       </c>
     </row>
-    <row r="73" x14ac:dyDescent="0.3">
+    <row r="73" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>26.227037037037036</v>
       </c>
@@ -4734,7 +4213,7 @@
         <v>-2.0499999999999998</v>
       </c>
     </row>
-    <row r="74" x14ac:dyDescent="0.3">
+    <row r="74" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>27.671481481481486</v>
       </c>
@@ -4745,7 +4224,7 @@
         <v>-2.0299999999999998</v>
       </c>
     </row>
-    <row r="75" x14ac:dyDescent="0.3">
+    <row r="75" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>27.671481481481486</v>
       </c>
@@ -4756,7 +4235,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="76" x14ac:dyDescent="0.3">
+    <row r="76" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>28.041851851851852</v>
       </c>
@@ -4767,7 +4246,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="77" x14ac:dyDescent="0.3">
+    <row r="77" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>28.34740740740741</v>
       </c>
@@ -4778,7 +4257,7 @@
         <v>-1.88</v>
       </c>
     </row>
-    <row r="78" x14ac:dyDescent="0.3">
+    <row r="78" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>28.34740740740741</v>
       </c>
@@ -4789,7 +4268,7 @@
         <v>-1.39</v>
       </c>
     </row>
-    <row r="79" x14ac:dyDescent="0.3">
+    <row r="79" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>28.34740740740741</v>
       </c>
@@ -4800,7 +4279,7 @@
         <v>-1.39</v>
       </c>
     </row>
-    <row r="80" x14ac:dyDescent="0.3">
+    <row r="80" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>28.34740740740741</v>
       </c>
@@ -4811,7 +4290,7 @@
         <v>-1.39</v>
       </c>
     </row>
-    <row r="81" x14ac:dyDescent="0.3">
+    <row r="81" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>28.34740740740741</v>
       </c>
@@ -4836,42 +4315,42 @@
       <selection activeCell="L11" sqref="L11:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" customWidth="true"/>
-    <col min="3" max="3" width="4.6640625" customWidth="true"/>
-    <col min="4" max="4" width="5.33203125" customWidth="true"/>
+    <col min="1" max="2" width="11.6328125" customWidth="true"/>
+    <col min="3" max="3" width="4.6328125" customWidth="true"/>
+    <col min="4" max="4" width="5.36328125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>12.190000000000001</v>
       </c>
@@ -4885,7 +4364,7 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.3">
+    <row r="4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>12.190000000000001</v>
       </c>
@@ -4899,7 +4378,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.3">
+    <row r="5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12.190000000000001</v>
       </c>
@@ -4913,7 +4392,7 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.3">
+    <row r="6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>12.190000000000001</v>
       </c>
@@ -4927,7 +4406,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.3">
+    <row r="7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>12.715978915662649</v>
       </c>
@@ -4941,7 +4420,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.3">
+    <row r="8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>12.715978915662649</v>
       </c>
@@ -4955,7 +4434,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.3">
+    <row r="9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>12.715978915662649</v>
       </c>
@@ -4969,7 +4448,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.3">
+    <row r="10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>12.715978915662649</v>
       </c>
@@ -4983,7 +4462,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.3">
+    <row r="11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>12.715978915662649</v>
       </c>
@@ -4997,7 +4476,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.3">
+    <row r="12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12.715978915662649</v>
       </c>
@@ -5011,7 +4490,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.3">
+    <row r="13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12.715978915662649</v>
       </c>
@@ -5025,7 +4504,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.3">
+    <row r="14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13.481039156626506</v>
       </c>
@@ -5039,7 +4518,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.3">
+    <row r="15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13.481039156626506</v>
       </c>
@@ -5053,7 +4532,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.3">
+    <row r="16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>13.481039156626506</v>
       </c>
@@ -5067,7 +4546,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.3">
+    <row r="17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>13.481039156626506</v>
       </c>
@@ -5081,7 +4560,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.3">
+    <row r="18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>14.475617469879518</v>
       </c>
@@ -5095,7 +4574,7 @@
         <v>-0.49</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.3">
+    <row r="19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>14.475617469879518</v>
       </c>
@@ -5109,7 +4588,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.3">
+    <row r="20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>14.571249999999999</v>
       </c>
@@ -5123,7 +4602,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.3">
+    <row r="21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>14.619066265060242</v>
       </c>
@@ -5137,7 +4616,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.3">
+    <row r="22" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>14.619066265060242</v>
       </c>
@@ -5151,7 +4630,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.3">
+    <row r="23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>14.619066265060242</v>
       </c>
@@ -5165,7 +4644,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.3">
+    <row r="24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>14.619066265060242</v>
       </c>
@@ -5179,7 +4658,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.3">
+    <row r="25" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>14.743388554216867</v>
       </c>
@@ -5193,7 +4672,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.3">
+    <row r="26" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>14.743388554216867</v>
       </c>
@@ -5207,7 +4686,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.3">
+    <row r="27" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>15.020722891566265</v>
       </c>
@@ -5221,7 +4700,7 @@
         <v>-0.81</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.3">
+    <row r="28" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>15.020722891566265</v>
       </c>
@@ -5235,7 +4714,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.3">
+    <row r="29" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>15.020722891566265</v>
       </c>
@@ -5249,7 +4728,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.3">
+    <row r="30" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>15.020722891566265</v>
       </c>
@@ -5263,7 +4742,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.3">
+    <row r="31" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>15.30762048192771</v>
       </c>
@@ -5277,7 +4756,7 @@
         <v>-0.87</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.3">
+    <row r="32" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>15.699713855421688</v>
       </c>
@@ -5291,7 +4770,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.3">
+    <row r="33" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>15.699713855421688</v>
       </c>
@@ -5305,7 +4784,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.3">
+    <row r="34" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>15.699713855421688</v>
       </c>
@@ -5319,7 +4798,7 @@
         <v>-0.66</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.3">
+    <row r="35" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>15.699713855421688</v>
       </c>
@@ -5333,7 +4812,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.3">
+    <row r="36" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>15.699713855421688</v>
       </c>
@@ -5347,7 +4826,7 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.3">
+    <row r="37" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>15.699713855421688</v>
       </c>
@@ -5361,7 +4840,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.3">
+    <row r="38" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>15.910105421686747</v>
       </c>
@@ -5375,7 +4854,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.3">
+    <row r="39" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>16.130060240963857</v>
       </c>
@@ -5389,7 +4868,7 @@
         <v>-0.93</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.3">
+    <row r="40" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>16.158750000000001</v>
       </c>
@@ -5403,7 +4882,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.3">
+    <row r="41" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>16.158750000000001</v>
       </c>
@@ -5417,7 +4896,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="42" x14ac:dyDescent="0.3">
+    <row r="42" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>16.158750000000001</v>
       </c>
@@ -5431,7 +4910,7 @@
         <v>-1.0900000000000001</v>
       </c>
     </row>
-    <row r="43" x14ac:dyDescent="0.3">
+    <row r="43" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>16.158750000000001</v>
       </c>
@@ -5445,7 +4924,7 @@
         <v>-1.18</v>
       </c>
     </row>
-    <row r="44" x14ac:dyDescent="0.3">
+    <row r="44" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>16.407394578313252</v>
       </c>
@@ -5459,7 +4938,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="45" x14ac:dyDescent="0.3">
+    <row r="45" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>16.407394578313252</v>
       </c>
@@ -5473,7 +4952,7 @@
         <v>-1.18</v>
       </c>
     </row>
-    <row r="46" x14ac:dyDescent="0.3">
+    <row r="46" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>16.598659638554217</v>
       </c>
@@ -5487,7 +4966,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="47" x14ac:dyDescent="0.3">
+    <row r="47" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>16.598659638554217</v>
       </c>
@@ -5501,7 +4980,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="48" x14ac:dyDescent="0.3">
+    <row r="48" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>16.627349397590361</v>
       </c>
@@ -5515,7 +4994,7 @@
         <v>-0.82</v>
       </c>
     </row>
-    <row r="49" x14ac:dyDescent="0.3">
+    <row r="49" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>16.770798192771082</v>
       </c>
@@ -5529,7 +5008,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="50" x14ac:dyDescent="0.3">
+    <row r="50" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>16.770798192771082</v>
       </c>
@@ -5543,7 +5022,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="51" x14ac:dyDescent="0.3">
+    <row r="51" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>16.875993975903611</v>
       </c>
@@ -5557,7 +5036,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="52" x14ac:dyDescent="0.3">
+    <row r="52" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>16.875993975903611</v>
       </c>
@@ -5571,7 +5050,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="53" x14ac:dyDescent="0.3">
+    <row r="53" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>16.981189759036145</v>
       </c>
@@ -5585,7 +5064,7 @@
         <v>-0.46</v>
       </c>
     </row>
-    <row r="54" x14ac:dyDescent="0.3">
+    <row r="54" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>16.981189759036145</v>
       </c>
@@ -5599,7 +5078,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="55" x14ac:dyDescent="0.3">
+    <row r="55" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>16.981189759036145</v>
       </c>
@@ -5613,7 +5092,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="56" x14ac:dyDescent="0.3">
+    <row r="56" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>17.63149096385542</v>
       </c>
@@ -5627,7 +5106,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="57" x14ac:dyDescent="0.3">
+    <row r="57" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>17.63149096385542</v>
       </c>
@@ -5641,7 +5120,7 @@
         <v>-1.05</v>
       </c>
     </row>
-    <row r="58" x14ac:dyDescent="0.3">
+    <row r="58" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>17.813192771084339</v>
       </c>
@@ -5655,7 +5134,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="59" x14ac:dyDescent="0.3">
+    <row r="59" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>17.813192771084339</v>
       </c>
@@ -5669,7 +5148,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="60" x14ac:dyDescent="0.3">
+    <row r="60" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>18.042710843373495</v>
       </c>
@@ -5683,7 +5162,7 @@
         <v>-0.69</v>
       </c>
     </row>
-    <row r="61" x14ac:dyDescent="0.3">
+    <row r="61" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>19.977037037037036</v>
       </c>
@@ -5697,7 +5176,7 @@
         <v>-1.0900000000000001</v>
       </c>
     </row>
-    <row r="62" x14ac:dyDescent="0.3">
+    <row r="62" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>19.977037037037036</v>
       </c>
@@ -5711,7 +5190,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="63" x14ac:dyDescent="0.3">
+    <row r="63" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>20.023333333333333</v>
       </c>
@@ -5725,7 +5204,7 @@
         <v>-1.78</v>
       </c>
     </row>
-    <row r="64" x14ac:dyDescent="0.3">
+    <row r="64" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>20.171481481481482</v>
       </c>
@@ -5739,7 +5218,7 @@
         <v>-1.74</v>
       </c>
     </row>
-    <row r="65" x14ac:dyDescent="0.3">
+    <row r="65" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>20.819629629629631</v>
       </c>
@@ -5753,7 +5232,7 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="66" x14ac:dyDescent="0.3">
+    <row r="66" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>20.819629629629631</v>
       </c>
@@ -5767,7 +5246,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="67" x14ac:dyDescent="0.3">
+    <row r="67" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>22.060370370370372</v>
       </c>
@@ -5781,7 +5260,7 @@
         <v>-0.99</v>
       </c>
     </row>
-    <row r="68" x14ac:dyDescent="0.3">
+    <row r="68" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>22.060370370370372</v>
       </c>
@@ -5795,7 +5274,7 @@
         <v>-1.46</v>
       </c>
     </row>
-    <row r="69" x14ac:dyDescent="0.3">
+    <row r="69" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>22.060370370370372</v>
       </c>
@@ -5809,7 +5288,7 @@
         <v>-1.1200000000000001</v>
       </c>
     </row>
-    <row r="70" x14ac:dyDescent="0.3">
+    <row r="70" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>23.328888888888891</v>
       </c>
@@ -5823,7 +5302,7 @@
         <v>-0.89</v>
       </c>
     </row>
-    <row r="71" x14ac:dyDescent="0.3">
+    <row r="71" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>23.421481481481482</v>
       </c>
@@ -5837,7 +5316,7 @@
         <v>-1.52</v>
       </c>
     </row>
-    <row r="72" x14ac:dyDescent="0.3">
+    <row r="72" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>25.495555555555555</v>
       </c>
@@ -5851,7 +5330,7 @@
         <v>-1.41</v>
       </c>
     </row>
-    <row r="73" x14ac:dyDescent="0.3">
+    <row r="73" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>26.227037037037036</v>
       </c>
@@ -5865,7 +5344,7 @@
         <v>-2.0499999999999998</v>
       </c>
     </row>
-    <row r="74" x14ac:dyDescent="0.3">
+    <row r="74" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>27.671481481481486</v>
       </c>
@@ -5879,7 +5358,7 @@
         <v>-2.0299999999999998</v>
       </c>
     </row>
-    <row r="75" x14ac:dyDescent="0.3">
+    <row r="75" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>27.671481481481486</v>
       </c>
@@ -5893,7 +5372,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="76" x14ac:dyDescent="0.3">
+    <row r="76" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>28.041851851851852</v>
       </c>
@@ -5907,7 +5386,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="77" x14ac:dyDescent="0.3">
+    <row r="77" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>28.34740740740741</v>
       </c>
@@ -5921,7 +5400,7 @@
         <v>-1.88</v>
       </c>
     </row>
-    <row r="78" x14ac:dyDescent="0.3">
+    <row r="78" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>28.34740740740741</v>
       </c>
@@ -5935,7 +5414,7 @@
         <v>-1.39</v>
       </c>
     </row>
-    <row r="79" x14ac:dyDescent="0.3">
+    <row r="79" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>28.34740740740741</v>
       </c>
@@ -5949,7 +5428,7 @@
         <v>-1.39</v>
       </c>
     </row>
-    <row r="80" x14ac:dyDescent="0.3">
+    <row r="80" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>28.34740740740741</v>
       </c>
@@ -5963,7 +5442,7 @@
         <v>-1.39</v>
       </c>
     </row>
-    <row r="81" x14ac:dyDescent="0.3">
+    <row r="81" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>28.34740740740741</v>
       </c>
@@ -5986,73 +5465,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="4.7109375" customWidth="true"/>
-    <col min="4" max="4" width="5.37890625" customWidth="true"/>
+    <col min="4" max="4" width="5.34765625" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="9.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0" t="s">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>299</v>
+        <v>142</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>300</v>
+        <v>143</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>301</v>
+        <v>144</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>303</v>
+        <v>146</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>304</v>
+        <v>147</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.35">
       <c r="A2" s="0" t="s">
-        <v>306</v>
+        <v>149</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>309</v>
+        <v>152</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>309</v>
+        <v>152</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>309</v>
+        <v>152</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.35">
       <c r="A3" s="0">
         <v>12.190000000000001</v>
       </c>
@@ -6066,19 +5545,19 @@
         <v>-0.41999999999999998</v>
       </c>
       <c r="E3" s="0">
-        <v>10.22546992837573</v>
+        <v>19.898627281176573</v>
       </c>
       <c r="F3" s="0">
-        <v>10.121146595580001</v>
+        <v>20.491046567127796</v>
       </c>
       <c r="G3" s="0">
-        <v>22.693090909090909</v>
+        <v>22.670379746835444</v>
       </c>
       <c r="H3" s="0">
-        <v>12.849891999999999</v>
-      </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.3">
+        <v>22.355841574747636</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.35">
       <c r="A4" s="0">
         <v>12.190000000000001</v>
       </c>
@@ -6092,19 +5571,19 @@
         <v>0.46000000000000002</v>
       </c>
       <c r="E4" s="0">
-        <v>6.691185771382834</v>
+        <v>15.994963471884205</v>
       </c>
       <c r="F4" s="0">
-        <v>6.2581917692353386</v>
+        <v>16.342158463364001</v>
       </c>
       <c r="G4" s="0">
-        <v>19.173090909090909</v>
+        <v>19.150379746835441</v>
       </c>
       <c r="H4" s="0">
-        <v>9.4858280000000015</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.3">
+        <v>18.477527853228647</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.35">
       <c r="A5" s="0">
         <v>12.190000000000001</v>
       </c>
@@ -6118,19 +5597,19 @@
         <v>-0.39000000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>10.102718416113191</v>
+        <v>19.762877363608084</v>
       </c>
       <c r="F5" s="0">
-        <v>9.9876404466590998</v>
+        <v>20.347589277526708</v>
       </c>
       <c r="G5" s="0">
-        <v>22.573090909090908</v>
+        <v>22.550379746835443</v>
       </c>
       <c r="H5" s="0">
-        <v>12.731892999999999</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.3">
+        <v>22.220311334241309</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.35">
       <c r="A6" s="0">
         <v>12.190000000000001</v>
       </c>
@@ -6144,19 +5623,19 @@
         <v>-0.17999999999999999</v>
       </c>
       <c r="E6" s="0">
-        <v>9.2480034143312082</v>
+        <v>18.817993876248465</v>
       </c>
       <c r="F6" s="0">
-        <v>9.0567208156062975</v>
+        <v>19.347419320922427</v>
       </c>
       <c r="G6" s="0">
-        <v>21.733090909090908</v>
+        <v>21.710379746835443</v>
       </c>
       <c r="H6" s="0">
-        <v>11.912452</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.3">
+        <v>21.278151650697001</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.35">
       <c r="A7" s="0">
         <v>12.715978915662649</v>
       </c>
@@ -6170,19 +5649,19 @@
         <v>-0.089999999999999997</v>
       </c>
       <c r="E7" s="0">
-        <v>8.8841125786477733</v>
+        <v>18.415893794042631</v>
       </c>
       <c r="F7" s="0">
-        <v>8.6596860360670576</v>
+        <v>18.920922650869898</v>
       </c>
       <c r="G7" s="0">
-        <v>21.373090909090909</v>
+        <v>21.350379746835443</v>
       </c>
       <c r="H7" s="0">
-        <v>11.564773000000002</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.3">
+        <v>20.877878929178017</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.35">
       <c r="A8" s="0">
         <v>12.715978915662649</v>
       </c>
@@ -6196,19 +5675,19 @@
         <v>-0.12</v>
       </c>
       <c r="E8" s="0">
-        <v>9.0052495419909633</v>
+        <v>18.549738488034905</v>
       </c>
       <c r="F8" s="0">
-        <v>8.7919028052227759</v>
+        <v>19.062945680526525</v>
       </c>
       <c r="G8" s="0">
-        <v>21.49309090909091</v>
+        <v>21.470379746835441</v>
       </c>
       <c r="H8" s="0">
-        <v>11.680432</v>
-      </c>
-    </row>
-    <row r="9" x14ac:dyDescent="0.3">
+        <v>21.011069169684344</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.35">
       <c r="A9" s="0">
         <v>12.715978915662649</v>
       </c>
@@ -6222,19 +5701,19 @@
         <v>0.88</v>
       </c>
       <c r="E9" s="0">
-        <v>5.051396199287467</v>
+        <v>14.187195555992787</v>
       </c>
       <c r="F9" s="0">
-        <v>4.4525766425982169</v>
+        <v>14.404312527545358</v>
       </c>
       <c r="G9" s="0">
-        <v>17.49309090909091</v>
+        <v>17.470379746835441</v>
       </c>
       <c r="H9" s="0">
-        <v>7.9512320000000001</v>
-      </c>
-    </row>
-    <row r="10" x14ac:dyDescent="0.3">
+        <v>16.697494486140037</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.35">
       <c r="A10" s="0">
         <v>12.715978915662649</v>
       </c>
@@ -6248,19 +5727,19 @@
         <v>-0.10000000000000001</v>
       </c>
       <c r="E10" s="0">
-        <v>8.9244738252274942</v>
+        <v>18.460487772579995</v>
       </c>
       <c r="F10" s="0">
-        <v>8.7037440711314389</v>
+        <v>18.968247845587086</v>
       </c>
       <c r="G10" s="0">
-        <v>21.413090909090911</v>
+        <v>21.390379746835443</v>
       </c>
       <c r="H10" s="0">
-        <v>11.603300000000001</v>
-      </c>
-    </row>
-    <row r="11" x14ac:dyDescent="0.3">
+        <v>20.922249676013458</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.35">
       <c r="A11" s="0">
         <v>12.715978915662649</v>
       </c>
@@ -6274,19 +5753,19 @@
         <v>-0.34000000000000002</v>
       </c>
       <c r="E11" s="0">
-        <v>9.8984947355855866</v>
+        <v>19.53705514979265</v>
       </c>
       <c r="F11" s="0">
-        <v>9.7654185162721774</v>
+        <v>20.10881457981526</v>
       </c>
       <c r="G11" s="0">
-        <v>22.373090909090909</v>
+        <v>22.350379746835443</v>
       </c>
       <c r="H11" s="0">
-        <v>12.535748</v>
-      </c>
-    </row>
-    <row r="12" x14ac:dyDescent="0.3">
+        <v>21.994947600064091</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.35">
       <c r="A12" s="0">
         <v>12.715978915662649</v>
       </c>
@@ -6300,19 +5779,19 @@
         <v>0.95999999999999996</v>
       </c>
       <c r="E12" s="0">
-        <v>4.7423882445851859</v>
+        <v>13.846772467329288</v>
       </c>
       <c r="F12" s="0">
-        <v>4.1113777368287856</v>
+        <v>14.038228079835051</v>
       </c>
       <c r="G12" s="0">
-        <v>17.173090909090909</v>
+        <v>17.150379746835441</v>
       </c>
       <c r="H12" s="0">
-        <v>7.6641280000000007</v>
-      </c>
-    </row>
-    <row r="13" x14ac:dyDescent="0.3">
+        <v>16.363640511456495</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.35">
       <c r="A13" s="0">
         <v>12.715978915662649</v>
       </c>
@@ -6326,19 +5805,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="0">
-        <v>6.337303419268153</v>
+        <v>15.604648470210975</v>
       </c>
       <c r="F13" s="0">
-        <v>5.869235598726732</v>
+        <v>15.924641441208678</v>
       </c>
       <c r="G13" s="0">
-        <v>18.81309090909091</v>
+        <v>18.790379746835441</v>
       </c>
       <c r="H13" s="0">
-        <v>9.1531250000000011</v>
-      </c>
-    </row>
-    <row r="14" x14ac:dyDescent="0.3">
+        <v>18.092231131709656</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.35">
       <c r="A14" s="0">
         <v>13.481039156626506</v>
       </c>
@@ -6352,19 +5831,19 @@
         <v>0.19</v>
       </c>
       <c r="E14" s="0">
-        <v>7.7611467341893103</v>
+        <v>17.175687925465184</v>
       </c>
       <c r="F14" s="0">
-        <v>7.4318061575210663</v>
+        <v>17.602205059404696</v>
       </c>
       <c r="G14" s="0">
-        <v>20.253090909090908</v>
+        <v>20.230379746835442</v>
       </c>
       <c r="H14" s="0">
-        <v>10.496573</v>
-      </c>
-    </row>
-    <row r="15" x14ac:dyDescent="0.3">
+        <v>19.646054017785609</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.35">
       <c r="A15" s="0">
         <v>13.481039156626506</v>
       </c>
@@ -6378,19 +5857,19 @@
         <v>-0.12</v>
       </c>
       <c r="E15" s="0">
-        <v>9.0052495419909633</v>
+        <v>18.549738488034905</v>
       </c>
       <c r="F15" s="0">
-        <v>8.7919028052227759</v>
+        <v>19.062945680526525</v>
       </c>
       <c r="G15" s="0">
-        <v>21.49309090909091</v>
+        <v>21.470379746835441</v>
       </c>
       <c r="H15" s="0">
-        <v>11.680432</v>
-      </c>
-    </row>
-    <row r="16" x14ac:dyDescent="0.3">
+        <v>21.011069169684344</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.35">
       <c r="A16" s="0">
         <v>13.481039156626506</v>
       </c>
@@ -6404,19 +5883,19 @@
         <v>1.6200000000000001</v>
       </c>
       <c r="E16" s="0">
-        <v>2.2326717403818179</v>
+        <v>11.08469835526779</v>
       </c>
       <c r="F16" s="0">
-        <v>1.3291863169953899</v>
+        <v>11.054319448619481</v>
       </c>
       <c r="G16" s="0">
-        <v>14.533090909090909</v>
+        <v>14.510379746835442</v>
       </c>
       <c r="H16" s="0">
-        <v>5.3590120000000008</v>
-      </c>
-    </row>
-    <row r="17" x14ac:dyDescent="0.3">
+        <v>13.672837220317255</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.35">
       <c r="A17" s="0">
         <v>13.481039156626506</v>
       </c>
@@ -6430,19 +5909,19 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="E17" s="0">
-        <v>8.3610245670220706</v>
+        <v>17.838067872095962</v>
       </c>
       <c r="F17" s="0">
-        <v>8.0882223861275406</v>
+        <v>18.307130461411759</v>
       </c>
       <c r="G17" s="0">
-        <v>20.853090909090909</v>
+        <v>20.83037974683544</v>
       </c>
       <c r="H17" s="0">
-        <v>11.066288</v>
-      </c>
-    </row>
-    <row r="18" x14ac:dyDescent="0.3">
+        <v>20.303425220317255</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.35">
       <c r="A18" s="0">
         <v>14.475617469879518</v>
       </c>
@@ -6456,19 +5935,19 @@
         <v>-0.48999999999999999</v>
       </c>
       <c r="E18" s="0">
-        <v>10.51252626289903</v>
+        <v>20.216128420956295</v>
       </c>
       <c r="F18" s="0">
-        <v>10.433166728444291</v>
+        <v>20.826343032719365</v>
       </c>
       <c r="G18" s="0">
-        <v>22.97309090909091</v>
+        <v>22.950379746835441</v>
       </c>
       <c r="H18" s="0">
-        <v>13.126133000000001</v>
-      </c>
-    </row>
-    <row r="19" x14ac:dyDescent="0.3">
+        <v>22.672988802595736</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.35">
       <c r="A19" s="0">
         <v>14.475617469879518</v>
       </c>
@@ -6482,19 +5961,19 @@
         <v>0.34999999999999998</v>
       </c>
       <c r="E19" s="0">
-        <v>7.1255831733357127</v>
+        <v>16.474219536785199</v>
       </c>
       <c r="F19" s="0">
-        <v>6.7351055745222652</v>
+        <v>16.85414906349439</v>
       </c>
       <c r="G19" s="0">
-        <v>19.613090909090911</v>
+        <v>19.590379746835442</v>
       </c>
       <c r="H19" s="0">
-        <v>9.8953250000000015</v>
-      </c>
-    </row>
-    <row r="20" x14ac:dyDescent="0.3">
+        <v>18.951306068418521</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.35">
       <c r="A20" s="0">
         <v>14.571249999999999</v>
       </c>
@@ -6508,19 +5987,19 @@
         <v>0.080000000000000002</v>
       </c>
       <c r="E20" s="0">
-        <v>8.200672657266864</v>
+        <v>17.660980310404966</v>
       </c>
       <c r="F20" s="0">
-        <v>7.9128682990457833</v>
+        <v>18.118805999727044</v>
       </c>
       <c r="G20" s="0">
-        <v>20.693090909090909</v>
+        <v>20.670379746835444</v>
       </c>
       <c r="H20" s="0">
-        <v>10.913792000000001</v>
-      </c>
-    </row>
-    <row r="21" x14ac:dyDescent="0.3">
+        <v>20.127554232975484</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.35">
       <c r="A21" s="0">
         <v>14.619066265060242</v>
       </c>
@@ -6534,19 +6013,19 @@
         <v>-0.050000000000000003</v>
       </c>
       <c r="E21" s="0">
-        <v>8.722844702912198</v>
+        <v>18.237726695114702</v>
       </c>
       <c r="F21" s="0">
-        <v>8.4835959484826731</v>
+        <v>18.731779838866203</v>
       </c>
       <c r="G21" s="0">
-        <v>21.213090909090909</v>
+        <v>21.190379746835443</v>
       </c>
       <c r="H21" s="0">
-        <v>11.410925000000001</v>
-      </c>
-    </row>
-    <row r="22" x14ac:dyDescent="0.3">
+        <v>20.700655941836242</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.35">
       <c r="A22" s="0">
         <v>14.619066265060242</v>
       </c>
@@ -6560,19 +6039,19 @@
         <v>-0.050000000000000003</v>
       </c>
       <c r="E22" s="0">
-        <v>8.722844702912198</v>
+        <v>18.237726695114702</v>
       </c>
       <c r="F22" s="0">
-        <v>8.4835959484826731</v>
+        <v>18.731779838866203</v>
       </c>
       <c r="G22" s="0">
-        <v>21.213090909090909</v>
+        <v>21.190379746835443</v>
       </c>
       <c r="H22" s="0">
-        <v>11.410925000000001</v>
-      </c>
-    </row>
-    <row r="23" x14ac:dyDescent="0.3">
+        <v>20.700655941836242</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.35">
       <c r="A23" s="0">
         <v>14.619066265060242</v>
       </c>
@@ -6586,19 +6065,19 @@
         <v>-0.050000000000000003</v>
       </c>
       <c r="E23" s="0">
-        <v>8.722844702912198</v>
+        <v>18.237726695114702</v>
       </c>
       <c r="F23" s="0">
-        <v>8.4835959484826731</v>
+        <v>18.731779838866203</v>
       </c>
       <c r="G23" s="0">
-        <v>21.213090909090909</v>
+        <v>21.190379746835443</v>
       </c>
       <c r="H23" s="0">
-        <v>11.410925000000001</v>
-      </c>
-    </row>
-    <row r="24" x14ac:dyDescent="0.3">
+        <v>20.700655941836242</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.35">
       <c r="A24" s="0">
         <v>14.619066265060242</v>
       </c>
@@ -6612,19 +6091,19 @@
         <v>-0.050000000000000003</v>
       </c>
       <c r="E24" s="0">
-        <v>8.722844702912198</v>
+        <v>18.237726695114702</v>
       </c>
       <c r="F24" s="0">
-        <v>8.4835959484826731</v>
+        <v>18.731779838866203</v>
       </c>
       <c r="G24" s="0">
-        <v>21.213090909090909</v>
+        <v>21.190379746835443</v>
       </c>
       <c r="H24" s="0">
-        <v>11.410925000000001</v>
-      </c>
-    </row>
-    <row r="25" x14ac:dyDescent="0.3">
+        <v>20.700655941836242</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.35">
       <c r="A25" s="0">
         <v>14.743388554216867</v>
       </c>
@@ -6638,19 +6117,19 @@
         <v>0.17000000000000001</v>
       </c>
       <c r="E25" s="0">
-        <v>7.8409037411564668</v>
+        <v>17.263738243310058</v>
       </c>
       <c r="F25" s="0">
-        <v>7.5191455463768762</v>
+        <v>17.69599193542598</v>
       </c>
       <c r="G25" s="0">
-        <v>20.33309090909091</v>
+        <v>20.310379746835441</v>
       </c>
       <c r="H25" s="0">
-        <v>10.572197000000001</v>
-      </c>
-    </row>
-    <row r="26" x14ac:dyDescent="0.3">
+        <v>19.733365511456494</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.35">
       <c r="A26" s="0">
         <v>14.743388554216867</v>
       </c>
@@ -6664,19 +6143,19 @@
         <v>0.02</v>
       </c>
       <c r="E26" s="0">
-        <v>8.4413058137607777</v>
+        <v>17.926735716203439</v>
       </c>
       <c r="F26" s="0">
-        <v>8.1759841408550642</v>
+        <v>18.401386873337515</v>
       </c>
       <c r="G26" s="0">
-        <v>20.933090909090907</v>
+        <v>20.910379746835442</v>
       </c>
       <c r="H26" s="0">
-        <v>11.142692</v>
-      </c>
-    </row>
-    <row r="27" x14ac:dyDescent="0.3">
+        <v>20.391516713988143</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.35">
       <c r="A27" s="0">
         <v>15.020722891566265</v>
       </c>
@@ -6690,19 +6169,19 @@
         <v>-0.81000000000000005</v>
       </c>
       <c r="E27" s="0">
-        <v>11.836243288323772</v>
+        <v>21.681106403572642</v>
       </c>
       <c r="F27" s="0">
-        <v>11.868623742659679</v>
+        <v>22.369231872139665</v>
       </c>
       <c r="G27" s="0">
-        <v>24.253090909090908</v>
+        <v>24.230379746835442</v>
       </c>
       <c r="H27" s="0">
-        <v>14.405173000000001</v>
-      </c>
-    </row>
-    <row r="28" x14ac:dyDescent="0.3">
+        <v>24.139028701329913</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.35">
       <c r="A28" s="0">
         <v>15.020722891566265</v>
       </c>
@@ -6716,19 +6195,19 @@
         <v>-0.65000000000000002</v>
       </c>
       <c r="E28" s="0">
-        <v>11.172020760493297</v>
+        <v>20.945822254179802</v>
       </c>
       <c r="F28" s="0">
-        <v>11.149025847176517</v>
+        <v>21.595706592980207</v>
       </c>
       <c r="G28" s="0">
-        <v>23.613090909090907</v>
+        <v>23.590379746835442</v>
       </c>
       <c r="H28" s="0">
-        <v>13.762325000000001</v>
-      </c>
-    </row>
-    <row r="29" x14ac:dyDescent="0.3">
+        <v>23.402680751962826</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.35">
       <c r="A29" s="0">
         <v>15.020722891566265</v>
       </c>
@@ -6742,19 +6221,19 @@
         <v>-1.02</v>
       </c>
       <c r="E29" s="0">
-        <v>12.715305342560441</v>
+        <v>22.654770494397667</v>
       </c>
       <c r="F29" s="0">
-        <v>12.81881913113574</v>
+        <v>23.390856336588911</v>
       </c>
       <c r="G29" s="0">
-        <v>25.093090909090911</v>
+        <v>25.070379746835442</v>
       </c>
       <c r="H29" s="0">
-        <v>15.259012</v>
-      </c>
-    </row>
-    <row r="30" x14ac:dyDescent="0.3">
+        <v>25.115586384874216</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.35">
       <c r="A30" s="0">
         <v>15.020722891566265</v>
       </c>
@@ -6768,19 +6247,19 @@
         <v>-0.35999999999999999</v>
       </c>
       <c r="E30" s="0">
-        <v>9.9801299616367487</v>
+        <v>19.627319988669001</v>
       </c>
       <c r="F30" s="0">
-        <v>9.8542640828106869</v>
+        <v>20.20427638960507</v>
       </c>
       <c r="G30" s="0">
-        <v>22.453090909090911</v>
+        <v>22.430379746835442</v>
       </c>
       <c r="H30" s="0">
-        <v>12.614128000000001</v>
-      </c>
-    </row>
-    <row r="31" x14ac:dyDescent="0.3">
+        <v>22.085015093734977</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.35">
       <c r="A31" s="0">
         <v>15.30762048192771</v>
       </c>
@@ -6794,19 +6273,19 @@
         <v>-0.87</v>
       </c>
       <c r="E31" s="0">
-        <v>12.086557187173639</v>
+        <v>21.95829375657263</v>
       </c>
       <c r="F31" s="0">
-        <v>12.139442842778919</v>
+        <v>22.660383696106862</v>
       </c>
       <c r="G31" s="0">
-        <v>24.49309090909091</v>
+        <v>24.470379746835441</v>
       </c>
       <c r="H31" s="0">
-        <v>14.647957000000002</v>
-      </c>
-    </row>
-    <row r="32" x14ac:dyDescent="0.3">
+        <v>24.416875182342572</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.35">
       <c r="A32" s="0">
         <v>15.699713855421688</v>
       </c>
@@ -6820,19 +6299,19 @@
         <v>-0.80000000000000004</v>
       </c>
       <c r="E32" s="0">
-        <v>11.794589799157166</v>
+        <v>21.634986019827409</v>
       </c>
       <c r="F32" s="0">
-        <v>11.823538785435005</v>
+        <v>22.320763977833167</v>
       </c>
       <c r="G32" s="0">
-        <v>24.213090909090909</v>
+        <v>24.190379746835443</v>
       </c>
       <c r="H32" s="0">
-        <v>14.364800000000001</v>
-      </c>
-    </row>
-    <row r="33" x14ac:dyDescent="0.3">
+        <v>24.092811954494469</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.35">
       <c r="A33" s="0">
         <v>15.699713855421688</v>
       </c>
@@ -6846,19 +6325,19 @@
         <v>-0.80000000000000004</v>
       </c>
       <c r="E33" s="0">
-        <v>11.794589799157166</v>
+        <v>21.634986019827409</v>
       </c>
       <c r="F33" s="0">
-        <v>11.823538785435005</v>
+        <v>22.320763977833167</v>
       </c>
       <c r="G33" s="0">
-        <v>24.213090909090909</v>
+        <v>24.190379746835443</v>
       </c>
       <c r="H33" s="0">
-        <v>14.364800000000001</v>
-      </c>
-    </row>
-    <row r="34" x14ac:dyDescent="0.3">
+        <v>24.092811954494469</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.35">
       <c r="A34" s="0">
         <v>15.699713855421688</v>
       </c>
@@ -6872,19 +6351,19 @@
         <v>-0.66000000000000003</v>
       </c>
       <c r="E34" s="0">
-        <v>11.213395570240493</v>
+        <v>20.991612999666643</v>
       </c>
       <c r="F34" s="0">
-        <v>11.193890877900003</v>
+        <v>21.643929647975995</v>
       </c>
       <c r="G34" s="0">
-        <v>23.65309090909091</v>
+        <v>23.630379746835445</v>
       </c>
       <c r="H34" s="0">
-        <v>13.802308</v>
-      </c>
-    </row>
-    <row r="35" x14ac:dyDescent="0.3">
+        <v>23.448507498798268</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.35">
       <c r="A35" s="0">
         <v>15.699713855421688</v>
       </c>
@@ -6898,19 +6377,19 @@
         <v>-0.34000000000000002</v>
       </c>
       <c r="E35" s="0">
-        <v>9.8984947355855866</v>
+        <v>19.53705514979265</v>
       </c>
       <c r="F35" s="0">
-        <v>9.7654185162721774</v>
+        <v>20.10881457981526</v>
       </c>
       <c r="G35" s="0">
-        <v>22.373090909090909</v>
+        <v>22.350379746835443</v>
       </c>
       <c r="H35" s="0">
-        <v>12.535748</v>
-      </c>
-    </row>
-    <row r="36" x14ac:dyDescent="0.3">
+        <v>21.994947600064091</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.35">
       <c r="A36" s="0">
         <v>15.699713855421688</v>
       </c>
@@ -6924,19 +6403,19 @@
         <v>-0.47999999999999998</v>
       </c>
       <c r="E36" s="0">
-        <v>10.471463568314391</v>
+        <v>20.17070656324745</v>
       </c>
       <c r="F36" s="0">
-        <v>10.388549007356119</v>
+        <v>20.778395225500788</v>
       </c>
       <c r="G36" s="0">
-        <v>22.933090909090907</v>
+        <v>22.910379746835442</v>
       </c>
       <c r="H36" s="0">
-        <v>13.086592000000001</v>
-      </c>
-    </row>
-    <row r="37" x14ac:dyDescent="0.3">
+        <v>22.627604055760294</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.35">
       <c r="A37" s="0">
         <v>15.699713855421688</v>
       </c>
@@ -6950,19 +6429,19 @@
         <v>-1.0600000000000001</v>
       </c>
       <c r="E37" s="0">
-        <v>12.88369096451629</v>
+        <v>22.841349739757618</v>
       </c>
       <c r="F37" s="0">
-        <v>13.000550249830894</v>
+        <v>23.586277328791766</v>
       </c>
       <c r="G37" s="0">
-        <v>25.253090909090908</v>
+        <v>25.230379746835442</v>
       </c>
       <c r="H37" s="0">
-        <v>15.422948000000002</v>
-      </c>
-    </row>
-    <row r="38" x14ac:dyDescent="0.3">
+        <v>25.302897372215988</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.35">
       <c r="A38" s="0">
         <v>15.910105421686747</v>
       </c>
@@ -6976,19 +6455,19 @@
         <v>0.22</v>
       </c>
       <c r="E38" s="0">
-        <v>7.641641447510608</v>
+        <v>17.043765779507112</v>
       </c>
       <c r="F38" s="0">
-        <v>7.300902216570023</v>
+        <v>17.461641612546146</v>
       </c>
       <c r="G38" s="0">
-        <v>20.13309090909091</v>
+        <v>20.110379746835441</v>
       </c>
       <c r="H38" s="0">
-        <v>10.383332000000001</v>
-      </c>
-    </row>
-    <row r="39" x14ac:dyDescent="0.3">
+        <v>19.515281777279281</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.35">
       <c r="A39" s="0">
         <v>16.130060240963857</v>
       </c>
@@ -7002,19 +6481,19 @@
         <v>-0.93000000000000005</v>
       </c>
       <c r="E39" s="0">
-        <v>12.337546918468149</v>
+        <v>22.236281097735002</v>
       </c>
       <c r="F39" s="0">
-        <v>12.410793396579948</v>
+        <v>22.952127320383909</v>
       </c>
       <c r="G39" s="0">
-        <v>24.733090909090912</v>
+        <v>24.710379746835443</v>
       </c>
       <c r="H39" s="0">
-        <v>14.891677000000001</v>
-      </c>
-    </row>
-    <row r="40" x14ac:dyDescent="0.3">
+        <v>24.695657663355231</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.35">
       <c r="A40" s="0">
         <v>16.158750000000001</v>
       </c>
@@ -7028,19 +6507,19 @@
         <v>-1.1699999999999999</v>
       </c>
       <c r="E40" s="0">
-        <v>13.348325128248916</v>
+        <v>23.356307533440656</v>
       </c>
       <c r="F40" s="0">
-        <v>13.501541569385154</v>
+        <v>24.125056065621152</v>
       </c>
       <c r="G40" s="0">
-        <v>25.693090909090909</v>
+        <v>25.670379746835444</v>
       </c>
       <c r="H40" s="0">
-        <v>15.875916999999999</v>
-      </c>
-    </row>
-    <row r="41" x14ac:dyDescent="0.3">
+        <v>25.820147587405863</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.35">
       <c r="A41" s="0">
         <v>16.158750000000001</v>
       </c>
@@ -7054,19 +6533,19 @@
         <v>-1.1699999999999999</v>
       </c>
       <c r="E41" s="0">
-        <v>13.348325128248916</v>
+        <v>23.356307533440656</v>
       </c>
       <c r="F41" s="0">
-        <v>13.501541569385154</v>
+        <v>24.125056065621152</v>
       </c>
       <c r="G41" s="0">
-        <v>25.693090909090909</v>
+        <v>25.670379746835444</v>
       </c>
       <c r="H41" s="0">
-        <v>15.875916999999999</v>
-      </c>
-    </row>
-    <row r="42" x14ac:dyDescent="0.3">
+        <v>25.820147587405863</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.35">
       <c r="A42" s="0">
         <v>16.158750000000001</v>
       </c>
@@ -7080,19 +6559,19 @@
         <v>-1.0900000000000001</v>
       </c>
       <c r="E42" s="0">
-        <v>13.010180069557975</v>
+        <v>22.981521012533278</v>
       </c>
       <c r="F42" s="0">
-        <v>13.137005023359677</v>
+        <v>23.733017327743426</v>
       </c>
       <c r="G42" s="0">
-        <v>25.373090909090909</v>
+        <v>25.350379746835443</v>
       </c>
       <c r="H42" s="0">
-        <v>15.546173000000001</v>
-      </c>
-    </row>
-    <row r="43" x14ac:dyDescent="0.3">
+        <v>25.443653612722319</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.35">
       <c r="A43" s="0">
         <v>16.158750000000001</v>
       </c>
@@ -7106,19 +6585,19 @@
         <v>-1.1799999999999999</v>
       </c>
       <c r="E43" s="0">
-        <v>13.390679508137566</v>
+        <v>23.403258087425911</v>
       </c>
       <c r="F43" s="0">
-        <v>13.547175978628218</v>
+        <v>24.174135931937599</v>
       </c>
       <c r="G43" s="0">
-        <v>25.733090909090908</v>
+        <v>25.710379746835443</v>
       </c>
       <c r="H43" s="0">
-        <v>15.917252</v>
-      </c>
-    </row>
-    <row r="44" x14ac:dyDescent="0.3">
+        <v>25.867326334241305</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.35">
       <c r="A44" s="0">
         <v>16.407394578313252</v>
       </c>
@@ -7132,19 +6611,19 @@
         <v>-1.25</v>
       </c>
       <c r="E44" s="0">
-        <v>13.687698976921808</v>
+        <v>23.732550855515399</v>
       </c>
       <c r="F44" s="0">
-        <v>13.867036956401535</v>
+        <v>24.518163085076594</v>
       </c>
       <c r="G44" s="0">
-        <v>26.013090909090909</v>
+        <v>25.990379746835444</v>
       </c>
       <c r="H44" s="0">
-        <v>16.207325000000001</v>
-      </c>
-    </row>
-    <row r="45" x14ac:dyDescent="0.3">
+        <v>26.198305562089406</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.35">
       <c r="A45" s="0">
         <v>16.407394578313252</v>
       </c>
@@ -7158,19 +6637,19 @@
         <v>-1.1799999999999999</v>
       </c>
       <c r="E45" s="0">
-        <v>13.390679508137566</v>
+        <v>23.403258087425911</v>
       </c>
       <c r="F45" s="0">
-        <v>13.547175978628218</v>
+        <v>24.174135931937599</v>
       </c>
       <c r="G45" s="0">
-        <v>25.733090909090908</v>
+        <v>25.710379746835443</v>
       </c>
       <c r="H45" s="0">
-        <v>15.917252</v>
-      </c>
-    </row>
-    <row r="46" x14ac:dyDescent="0.3">
+        <v>25.867326334241305</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.35">
       <c r="A46" s="0">
         <v>16.598659638554217</v>
       </c>
@@ -7184,19 +6663,19 @@
         <v>-0.38</v>
       </c>
       <c r="E46" s="0">
-        <v>10.061837498180125</v>
+        <v>19.717670200731902</v>
       </c>
       <c r="F46" s="0">
-        <v>9.9431672474979109</v>
+        <v>20.29980228102869</v>
       </c>
       <c r="G46" s="0">
-        <v>22.533090909090909</v>
+        <v>22.51037974683544</v>
       </c>
       <c r="H46" s="0">
-        <v>12.692612</v>
-      </c>
-    </row>
-    <row r="47" x14ac:dyDescent="0.3">
+        <v>22.175186587405861</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.35">
       <c r="A47" s="0">
         <v>16.598659638554217</v>
       </c>
@@ -7210,19 +6689,19 @@
         <v>-0.38</v>
       </c>
       <c r="E47" s="0">
-        <v>10.061837498180125</v>
+        <v>19.717670200731902</v>
       </c>
       <c r="F47" s="0">
-        <v>9.9431672474979109</v>
+        <v>20.29980228102869</v>
       </c>
       <c r="G47" s="0">
-        <v>22.533090909090909</v>
+        <v>22.51037974683544</v>
       </c>
       <c r="H47" s="0">
-        <v>12.692612</v>
-      </c>
-    </row>
-    <row r="48" x14ac:dyDescent="0.3">
+        <v>22.175186587405861</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.35">
       <c r="A48" s="0">
         <v>16.627349397590361</v>
       </c>
@@ -7236,19 +6715,19 @@
         <v>-0.81999999999999995</v>
       </c>
       <c r="E48" s="0">
-        <v>11.87791546682945</v>
+        <v>21.727248903198301</v>
       </c>
       <c r="F48" s="0">
-        <v>11.91372341913177</v>
+        <v>22.41771615534401</v>
       </c>
       <c r="G48" s="0">
-        <v>24.293090909090907</v>
+        <v>24.270379746835442</v>
       </c>
       <c r="H48" s="0">
-        <v>14.445572</v>
-      </c>
-    </row>
-    <row r="49" x14ac:dyDescent="0.3">
+        <v>24.185271448165356</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.35">
       <c r="A49" s="0">
         <v>16.770798192771082</v>
       </c>
@@ -7262,19 +6741,19 @@
         <v>-0.42999999999999999</v>
       </c>
       <c r="E49" s="0">
-        <v>10.266423396423988</v>
+        <v>19.943920119443021</v>
       </c>
       <c r="F49" s="0">
-        <v>10.165677519104634</v>
+        <v>20.538897790663043</v>
       </c>
       <c r="G49" s="0">
-        <v>22.733090909090908</v>
+        <v>22.710379746835443</v>
       </c>
       <c r="H49" s="0">
-        <v>12.889277</v>
-      </c>
-    </row>
-    <row r="50" x14ac:dyDescent="0.3">
+        <v>22.401070321583077</v>
+      </c>
+    </row>
+    <row r="50" x14ac:dyDescent="0.35">
       <c r="A50" s="0">
         <v>16.770798192771082</v>
       </c>
@@ -7288,19 +6767,19 @@
         <v>-0.23999999999999999</v>
       </c>
       <c r="E50" s="0">
-        <v>9.4913995556107693</v>
+        <v>19.087006879690136</v>
       </c>
       <c r="F50" s="0">
-        <v>9.3220526992475925</v>
+        <v>19.632464501622621</v>
       </c>
       <c r="G50" s="0">
-        <v>21.97309090909091</v>
+        <v>21.950379746835441</v>
       </c>
       <c r="H50" s="0">
-        <v>12.145408000000002</v>
-      </c>
-    </row>
-    <row r="51" x14ac:dyDescent="0.3">
+        <v>21.546170131709658</v>
+      </c>
+    </row>
+    <row r="51" x14ac:dyDescent="0.35">
       <c r="A51" s="0">
         <v>16.875993975903611</v>
       </c>
@@ -7314,19 +6793,19 @@
         <v>-0.27000000000000002</v>
       </c>
       <c r="E51" s="0">
-        <v>9.6133393591768481</v>
+        <v>19.22179859816049</v>
       </c>
       <c r="F51" s="0">
-        <v>9.4549118113342843</v>
+        <v>19.77520195827816</v>
       </c>
       <c r="G51" s="0">
-        <v>22.093090909090911</v>
+        <v>22.070379746835442</v>
       </c>
       <c r="H51" s="0">
-        <v>12.262237000000001</v>
-      </c>
-    </row>
-    <row r="52" x14ac:dyDescent="0.3">
+        <v>21.680530372215991</v>
+      </c>
+    </row>
+    <row r="52" x14ac:dyDescent="0.35">
       <c r="A52" s="0">
         <v>16.875993975903611</v>
       </c>
@@ -7340,19 +6819,19 @@
         <v>0.16</v>
       </c>
       <c r="E52" s="0">
-        <v>7.8808083270826614</v>
+        <v>17.307794115739398</v>
       </c>
       <c r="F52" s="0">
-        <v>7.5628362895495798</v>
+        <v>17.742908770202177</v>
       </c>
       <c r="G52" s="0">
-        <v>20.373090909090909</v>
+        <v>20.350379746835443</v>
       </c>
       <c r="H52" s="0">
-        <v>10.610048000000003</v>
-      </c>
-    </row>
-    <row r="53" x14ac:dyDescent="0.3">
+        <v>19.777060258291939</v>
+      </c>
+    </row>
+    <row r="53" x14ac:dyDescent="0.35">
       <c r="A53" s="0">
         <v>16.981189759036145</v>
       </c>
@@ -7366,19 +6845,19 @@
         <v>-0.46000000000000002</v>
       </c>
       <c r="E53" s="0">
-        <v>10.38939287962603</v>
+        <v>20.079927467599418</v>
       </c>
       <c r="F53" s="0">
-        <v>10.299357009765174</v>
+        <v>20.682547955681912</v>
       </c>
       <c r="G53" s="0">
-        <v>22.853090909090909</v>
+        <v>22.83037974683544</v>
       </c>
       <c r="H53" s="0">
-        <v>13.007588</v>
-      </c>
-    </row>
-    <row r="54" x14ac:dyDescent="0.3">
+        <v>22.536912562089409</v>
+      </c>
+    </row>
+    <row r="54" x14ac:dyDescent="0.35">
       <c r="A54" s="0">
         <v>16.981189759036145</v>
       </c>
@@ -7392,19 +6871,19 @@
         <v>-0.54000000000000004</v>
       </c>
       <c r="E54" s="0">
-        <v>10.718113776744531</v>
+        <v>20.443561488028024</v>
       </c>
       <c r="F54" s="0">
-        <v>10.656472839284788</v>
+        <v>21.066324117402246</v>
       </c>
       <c r="G54" s="0">
-        <v>23.173090909090909</v>
+        <v>23.150379746835441</v>
       </c>
       <c r="H54" s="0">
-        <v>13.324228000000002</v>
-      </c>
-    </row>
-    <row r="55" x14ac:dyDescent="0.3">
+        <v>22.900302536772951</v>
+      </c>
+    </row>
+    <row r="55" x14ac:dyDescent="0.35">
       <c r="A55" s="0">
         <v>16.981189759036145</v>
       </c>
@@ -7418,19 +6897,19 @@
         <v>-0.54000000000000004</v>
       </c>
       <c r="E55" s="0">
-        <v>10.718113776744531</v>
+        <v>20.443561488028024</v>
       </c>
       <c r="F55" s="0">
-        <v>10.656472839284788</v>
+        <v>21.066324117402246</v>
       </c>
       <c r="G55" s="0">
-        <v>23.173090909090909</v>
+        <v>23.150379746835441</v>
       </c>
       <c r="H55" s="0">
-        <v>13.324228000000002</v>
-      </c>
-    </row>
-    <row r="56" x14ac:dyDescent="0.3">
+        <v>22.900302536772951</v>
+      </c>
+    </row>
+    <row r="56" x14ac:dyDescent="0.35">
       <c r="A56" s="0">
         <v>17.63149096385542</v>
       </c>
@@ -7444,19 +6923,19 @@
         <v>-1.1899999999999999</v>
       </c>
       <c r="E56" s="0">
-        <v>13.433053102246276</v>
+        <v>23.450231422156548</v>
       </c>
       <c r="F56" s="0">
-        <v>13.59282537712113</v>
+        <v>24.223232498646325</v>
       </c>
       <c r="G56" s="0">
-        <v>25.773090909090911</v>
+        <v>25.750379746835442</v>
       </c>
       <c r="H56" s="0">
-        <v>15.958613</v>
-      </c>
-    </row>
-    <row r="57" x14ac:dyDescent="0.3">
+        <v>25.914531081076749</v>
+      </c>
+    </row>
+    <row r="57" x14ac:dyDescent="0.35">
       <c r="A57" s="0">
         <v>17.63149096385542</v>
       </c>
@@ -7470,19 +6949,19 @@
         <v>-1.05</v>
       </c>
       <c r="E57" s="0">
-        <v>12.841566032065373</v>
+        <v>22.794671130487529</v>
       </c>
       <c r="F57" s="0">
-        <v>12.955095137022226</v>
+        <v>23.537397204103854</v>
       </c>
       <c r="G57" s="0">
-        <v>25.213090909090909</v>
+        <v>25.190379746835443</v>
       </c>
       <c r="H57" s="0">
-        <v>15.381925000000001</v>
-      </c>
-    </row>
-    <row r="58" x14ac:dyDescent="0.3">
+        <v>25.256030625380546</v>
+      </c>
+    </row>
+    <row r="58" x14ac:dyDescent="0.35">
       <c r="A58" s="0">
         <v>17.813192771084339</v>
       </c>
@@ -7496,19 +6975,19 @@
         <v>-1.79</v>
       </c>
       <c r="E58" s="0">
-        <v>16.011186695302456</v>
+        <v>26.311026209255203</v>
       </c>
       <c r="F58" s="0">
-        <v>16.359501785799466</v>
+        <v>27.19991401294368</v>
       </c>
       <c r="G58" s="0">
-        <v>28.173090909090909</v>
+        <v>28.150379746835441</v>
       </c>
       <c r="H58" s="0">
-        <v>18.487852999999998</v>
-      </c>
-    </row>
-    <row r="59" x14ac:dyDescent="0.3">
+        <v>28.794395891203333</v>
+      </c>
+    </row>
+    <row r="59" x14ac:dyDescent="0.35">
       <c r="A59" s="0">
         <v>17.813192771084339</v>
       </c>
@@ -7522,19 +7001,19 @@
         <v>-1.25</v>
       </c>
       <c r="E59" s="0">
-        <v>13.687698976921808</v>
+        <v>23.732550855515399</v>
       </c>
       <c r="F59" s="0">
-        <v>13.867036956401535</v>
+        <v>24.518163085076594</v>
       </c>
       <c r="G59" s="0">
-        <v>26.013090909090909</v>
+        <v>25.990379746835444</v>
       </c>
       <c r="H59" s="0">
-        <v>16.207325000000001</v>
-      </c>
-    </row>
-    <row r="60" x14ac:dyDescent="0.3">
+        <v>26.198305562089406</v>
+      </c>
+    </row>
+    <row r="60" x14ac:dyDescent="0.35">
       <c r="A60" s="0">
         <v>18.042710843373495</v>
       </c>
@@ -7548,19 +7027,19 @@
         <v>-0.68999999999999995</v>
       </c>
       <c r="E60" s="0">
-        <v>11.337630947867581</v>
+        <v>21.129116429817657</v>
       </c>
       <c r="F60" s="0">
-        <v>11.328573668453544</v>
+        <v>21.788696434843985</v>
       </c>
       <c r="G60" s="0">
-        <v>23.773090909090911</v>
+        <v>23.750379746835442</v>
       </c>
       <c r="H60" s="0">
-        <v>13.922413000000001</v>
-      </c>
-    </row>
-    <row r="61" x14ac:dyDescent="0.3">
+        <v>23.586143739304596</v>
+      </c>
+    </row>
+    <row r="61" x14ac:dyDescent="0.35">
       <c r="A61" s="0">
         <v>19.977037037037036</v>
       </c>
@@ -7574,19 +7053,19 @@
         <v>-1.0900000000000001</v>
       </c>
       <c r="E61" s="0">
-        <v>13.010180069557975</v>
+        <v>22.981521012533278</v>
       </c>
       <c r="F61" s="0">
-        <v>13.137005023359677</v>
+        <v>23.733017327743426</v>
       </c>
       <c r="G61" s="0">
-        <v>25.373090909090909</v>
+        <v>25.350379746835443</v>
       </c>
       <c r="H61" s="0">
-        <v>15.546173000000001</v>
-      </c>
-    </row>
-    <row r="62" x14ac:dyDescent="0.3">
+        <v>25.443653612722319</v>
+      </c>
+    </row>
+    <row r="62" x14ac:dyDescent="0.35">
       <c r="A62" s="0">
         <v>19.977037037037036</v>
       </c>
@@ -7600,19 +7079,19 @@
         <v>-1.0600000000000001</v>
       </c>
       <c r="E62" s="0">
-        <v>12.88369096451629</v>
+        <v>22.841349739757618</v>
       </c>
       <c r="F62" s="0">
-        <v>13.000550249830894</v>
+        <v>23.586277328791766</v>
       </c>
       <c r="G62" s="0">
-        <v>25.253090909090908</v>
+        <v>25.230379746835442</v>
       </c>
       <c r="H62" s="0">
-        <v>15.422948000000002</v>
-      </c>
-    </row>
-    <row r="63" x14ac:dyDescent="0.3">
+        <v>25.302897372215988</v>
+      </c>
+    </row>
+    <row r="63" x14ac:dyDescent="0.35">
       <c r="A63" s="0">
         <v>20.023333333333333</v>
       </c>
@@ -7626,19 +7105,19 @@
         <v>-1.78</v>
       </c>
       <c r="E63" s="0">
-        <v>15.967633206778771</v>
+        <v>26.262651678764655</v>
       </c>
       <c r="F63" s="0">
-        <v>16.312939334260875</v>
+        <v>27.149799605148132</v>
       </c>
       <c r="G63" s="0">
-        <v>28.13309090909091</v>
+        <v>28.110379746835441</v>
       </c>
       <c r="H63" s="0">
-        <v>18.444931999999998</v>
-      </c>
-    </row>
-    <row r="64" x14ac:dyDescent="0.3">
+        <v>28.745631144367884</v>
+      </c>
+    </row>
+    <row r="64" x14ac:dyDescent="0.35">
       <c r="A64" s="0">
         <v>20.171481481481482</v>
       </c>
@@ -7652,19 +7131,19 @@
         <v>-1.74</v>
       </c>
       <c r="E64" s="0">
-        <v>15.793620200498367</v>
+        <v>26.069392558132108</v>
       </c>
       <c r="F64" s="0">
-        <v>16.126843864334433</v>
+        <v>26.949514110344012</v>
       </c>
       <c r="G64" s="0">
-        <v>27.97309090909091</v>
+        <v>27.950379746835441</v>
       </c>
       <c r="H64" s="0">
-        <v>18.273508</v>
-      </c>
-    </row>
-    <row r="65" x14ac:dyDescent="0.3">
+        <v>28.550832157026115</v>
+      </c>
+    </row>
+    <row r="65" x14ac:dyDescent="0.35">
       <c r="A65" s="0">
         <v>20.819629629629631</v>
       </c>
@@ -7678,19 +7157,19 @@
         <v>-0.96999999999999997</v>
       </c>
       <c r="E65" s="0">
-        <v>12.505250365780171</v>
+        <v>22.422052324958486</v>
       </c>
       <c r="F65" s="0">
-        <v>12.591989791107039</v>
+        <v>23.146952739755079</v>
       </c>
       <c r="G65" s="0">
-        <v>24.893090909090908</v>
+        <v>24.870379746835443</v>
       </c>
       <c r="H65" s="0">
-        <v>15.054677</v>
-      </c>
-    </row>
-    <row r="66" x14ac:dyDescent="0.3">
+        <v>24.882032650697003</v>
+      </c>
+    </row>
+    <row r="66" x14ac:dyDescent="0.35">
       <c r="A66" s="0">
         <v>20.819629629629631</v>
       </c>
@@ -7704,19 +7183,19 @@
         <v>-0.059999999999999998</v>
       </c>
       <c r="E66" s="0">
-        <v>8.7631351310559467</v>
+        <v>18.282237180028574</v>
       </c>
       <c r="F66" s="0">
-        <v>8.5275971762246741</v>
+        <v>18.779041862663064</v>
       </c>
       <c r="G66" s="0">
-        <v>21.253090909090908</v>
+        <v>21.230379746835442</v>
       </c>
       <c r="H66" s="0">
-        <v>11.449348000000001</v>
-      </c>
-    </row>
-    <row r="67" x14ac:dyDescent="0.3">
+        <v>20.744922688671686</v>
+      </c>
+    </row>
+    <row r="67" x14ac:dyDescent="0.35">
       <c r="A67" s="0">
         <v>22.060370370370372</v>
       </c>
@@ -7730,19 +7209,19 @@
         <v>-0.98999999999999999</v>
       </c>
       <c r="E67" s="0">
-        <v>12.589215515853766</v>
+        <v>22.51507226708469</v>
       </c>
       <c r="F67" s="0">
-        <v>12.682676970470027</v>
+        <v>23.244464551688623</v>
       </c>
       <c r="G67" s="0">
-        <v>24.97309090909091</v>
+        <v>24.950379746835441</v>
       </c>
       <c r="H67" s="0">
-        <v>15.136332999999999</v>
-      </c>
-    </row>
-    <row r="68" x14ac:dyDescent="0.3">
+        <v>24.975376144367885</v>
+      </c>
+    </row>
+    <row r="68" x14ac:dyDescent="0.35">
       <c r="A68" s="0">
         <v>22.060370370370372</v>
       </c>
@@ -7756,19 +7235,19 @@
         <v>-1.46</v>
       </c>
       <c r="E68" s="0">
-        <v>14.584456358617786</v>
+        <v>24.727190146680698</v>
       </c>
       <c r="F68" s="0">
-        <v>14.831052186376382</v>
+        <v>25.555183846998943</v>
       </c>
       <c r="G68" s="0">
-        <v>26.853090909090909</v>
+        <v>26.83037974683544</v>
       </c>
       <c r="H68" s="0">
-        <v>17.085187999999999</v>
-      </c>
-    </row>
-    <row r="69" x14ac:dyDescent="0.3">
+        <v>27.19888724563371</v>
+      </c>
+    </row>
+    <row r="69" x14ac:dyDescent="0.35">
       <c r="A69" s="0">
         <v>22.060370370370372</v>
       </c>
@@ -7782,19 +7261,19 @@
         <v>-1.1200000000000001</v>
       </c>
       <c r="E69" s="0">
-        <v>13.13684093668121</v>
+        <v>23.121895833692179</v>
       </c>
       <c r="F69" s="0">
-        <v>13.273594103638004</v>
+        <v>23.879906941838385</v>
       </c>
       <c r="G69" s="0">
-        <v>25.49309090909091</v>
+        <v>25.470379746835441</v>
       </c>
       <c r="H69" s="0">
-        <v>15.669632000000002</v>
-      </c>
-    </row>
-    <row r="70" x14ac:dyDescent="0.3">
+        <v>25.584643853228648</v>
+      </c>
+    </row>
+    <row r="70" x14ac:dyDescent="0.35">
       <c r="A70" s="0">
         <v>23.328888888888891</v>
       </c>
@@ -7808,19 +7287,19 @@
         <v>-0.89000000000000001</v>
       </c>
       <c r="E70" s="0">
-        <v>12.170145189025618</v>
+        <v>22.050867126951459</v>
       </c>
       <c r="F70" s="0">
-        <v>12.229833899742857</v>
+        <v>22.75756572620628</v>
       </c>
       <c r="G70" s="0">
-        <v>24.573090909090908</v>
+        <v>24.550379746835443</v>
       </c>
       <c r="H70" s="0">
-        <v>14.729092999999999</v>
-      </c>
-    </row>
-    <row r="71" x14ac:dyDescent="0.3">
+        <v>24.509698676013461</v>
+      </c>
+    </row>
+    <row r="71" x14ac:dyDescent="0.35">
       <c r="A71" s="0">
         <v>23.421481481481482</v>
       </c>
@@ -7834,19 +7313,19 @@
         <v>-1.52</v>
       </c>
       <c r="E71" s="0">
-        <v>14.842256400772555</v>
+        <v>25.013252694829248</v>
       </c>
       <c r="F71" s="0">
-        <v>15.107713110195107</v>
+        <v>25.852844240076422</v>
       </c>
       <c r="G71" s="0">
-        <v>27.093090909090911</v>
+        <v>27.070379746835442</v>
       </c>
       <c r="H71" s="0">
-        <v>17.338111999999999</v>
-      </c>
-    </row>
-    <row r="72" x14ac:dyDescent="0.3">
+        <v>27.486873726646369</v>
+      </c>
+    </row>
+    <row r="72" x14ac:dyDescent="0.35">
       <c r="A72" s="0">
         <v>25.495555555555555</v>
       </c>
@@ -7860,19 +7339,19 @@
         <v>-1.4099999999999999</v>
       </c>
       <c r="E72" s="0">
-        <v>14.370162821689803</v>
+        <v>24.489445686884096</v>
       </c>
       <c r="F72" s="0">
-        <v>14.600919430280271</v>
+        <v>25.307599487528535</v>
       </c>
       <c r="G72" s="0">
-        <v>26.65309090909091</v>
+        <v>26.630379746835441</v>
       </c>
       <c r="H72" s="0">
-        <v>16.875132999999998</v>
-      </c>
-    </row>
-    <row r="73" x14ac:dyDescent="0.3">
+        <v>26.959613511456492</v>
+      </c>
+    </row>
+    <row r="73" x14ac:dyDescent="0.35">
       <c r="A73" s="0">
         <v>26.227037037037036</v>
       </c>
@@ -7886,19 +7365,19 @@
         <v>-2.0499999999999998</v>
       </c>
       <c r="E73" s="0">
-        <v>17.150686939033335</v>
+        <v>27.577224681285429</v>
       </c>
       <c r="F73" s="0">
-        <v>17.575570711350906</v>
+        <v>28.508962951688659</v>
       </c>
       <c r="G73" s="0">
-        <v>29.213090909090909</v>
+        <v>29.19037974683544</v>
       </c>
       <c r="H73" s="0">
-        <v>19.612924999999997</v>
-      </c>
-    </row>
-    <row r="74" x14ac:dyDescent="0.3">
+        <v>30.071405308924852</v>
+      </c>
+    </row>
+    <row r="74" x14ac:dyDescent="0.35">
       <c r="A74" s="0">
         <v>27.671481481481486</v>
       </c>
@@ -7912,19 +7391,19 @@
         <v>-2.0299999999999998</v>
       </c>
       <c r="E74" s="0">
-        <v>17.062543824246234</v>
+        <v>27.479242302161822</v>
       </c>
       <c r="F74" s="0">
-        <v>17.481653076924601</v>
+        <v>28.407849747528928</v>
       </c>
       <c r="G74" s="0">
-        <v>29.13309090909091</v>
+        <v>29.110379746835441</v>
       </c>
       <c r="H74" s="0">
-        <v>19.525756999999999</v>
-      </c>
-    </row>
-    <row r="75" x14ac:dyDescent="0.3">
+        <v>29.972549815253963</v>
+      </c>
+    </row>
+    <row r="75" x14ac:dyDescent="0.35">
       <c r="A75" s="0">
         <v>27.671481481481486</v>
       </c>
@@ -7938,19 +7417,19 @@
         <v>-1.24</v>
       </c>
       <c r="E75" s="0">
-        <v>13.645209793080312</v>
+        <v>23.685440450132319</v>
       </c>
       <c r="F75" s="0">
-        <v>13.82129746708523</v>
+        <v>24.468966136732604</v>
       </c>
       <c r="G75" s="0">
-        <v>25.97309090909091</v>
+        <v>25.950379746835441</v>
       </c>
       <c r="H75" s="0">
-        <v>16.165808000000002</v>
-      </c>
-    </row>
-    <row r="76" x14ac:dyDescent="0.3">
+        <v>26.150944815253965</v>
+      </c>
+    </row>
+    <row r="76" x14ac:dyDescent="0.35">
       <c r="A76" s="0">
         <v>28.041851851851852</v>
       </c>
@@ -7964,19 +7443,19 @@
         <v>-1.79</v>
       </c>
       <c r="E76" s="0">
-        <v>16.011186695302456</v>
+        <v>26.311026209255203</v>
       </c>
       <c r="F76" s="0">
-        <v>16.359501785799466</v>
+        <v>27.19991401294368</v>
       </c>
       <c r="G76" s="0">
-        <v>28.173090909090909</v>
+        <v>28.150379746835441</v>
       </c>
       <c r="H76" s="0">
-        <v>18.487852999999998</v>
-      </c>
-    </row>
-    <row r="77" x14ac:dyDescent="0.3">
+        <v>28.794395891203333</v>
+      </c>
+    </row>
+    <row r="77" x14ac:dyDescent="0.35">
       <c r="A77" s="0">
         <v>28.34740740740741</v>
       </c>
@@ -7990,19 +7469,19 @@
         <v>-1.8799999999999999</v>
       </c>
       <c r="E77" s="0">
-        <v>16.40407560049232</v>
+        <v>26.747476622564704</v>
       </c>
       <c r="F77" s="0">
-        <v>16.779259978342679</v>
+        <v>27.651720164309836</v>
       </c>
       <c r="G77" s="0">
-        <v>28.533090909090909</v>
+        <v>28.51037974683544</v>
       </c>
       <c r="H77" s="0">
-        <v>18.875312000000001</v>
-      </c>
-    </row>
-    <row r="78" x14ac:dyDescent="0.3">
+        <v>29.234448612722318</v>
+      </c>
+    </row>
+    <row r="78" x14ac:dyDescent="0.35">
       <c r="A78" s="0">
         <v>28.34740740740741</v>
       </c>
@@ -8016,19 +7495,19 @@
         <v>-1.3899999999999999</v>
       </c>
       <c r="E78" s="0">
-        <v>14.284582367400162</v>
+        <v>24.394510492433028</v>
       </c>
       <c r="F78" s="0">
-        <v>14.508972503349014</v>
+        <v>25.208684090492511</v>
       </c>
       <c r="G78" s="0">
-        <v>26.573090909090908</v>
+        <v>26.550379746835443</v>
       </c>
       <c r="H78" s="0">
-        <v>16.791293</v>
-      </c>
-    </row>
-    <row r="79" x14ac:dyDescent="0.3">
+        <v>26.864086017785613</v>
+      </c>
+    </row>
+    <row r="79" x14ac:dyDescent="0.35">
       <c r="A79" s="0">
         <v>28.34740740740741</v>
       </c>
@@ -8042,19 +7521,19 @@
         <v>-1.3899999999999999</v>
       </c>
       <c r="E79" s="0">
-        <v>14.284582367400162</v>
+        <v>24.394510492433028</v>
       </c>
       <c r="F79" s="0">
-        <v>14.508972503349014</v>
+        <v>25.208684090492511</v>
       </c>
       <c r="G79" s="0">
-        <v>26.573090909090908</v>
+        <v>26.550379746835443</v>
       </c>
       <c r="H79" s="0">
-        <v>16.791293</v>
-      </c>
-    </row>
-    <row r="80" x14ac:dyDescent="0.3">
+        <v>26.864086017785613</v>
+      </c>
+    </row>
+    <row r="80" x14ac:dyDescent="0.35">
       <c r="A80" s="0">
         <v>28.34740740740741</v>
       </c>
@@ -8068,19 +7547,19 @@
         <v>-1.3899999999999999</v>
       </c>
       <c r="E80" s="0">
-        <v>14.284582367400162</v>
+        <v>24.394510492433028</v>
       </c>
       <c r="F80" s="0">
-        <v>14.508972503349014</v>
+        <v>25.208684090492511</v>
       </c>
       <c r="G80" s="0">
-        <v>26.573090909090908</v>
+        <v>26.550379746835443</v>
       </c>
       <c r="H80" s="0">
-        <v>16.791293</v>
-      </c>
-    </row>
-    <row r="81" x14ac:dyDescent="0.3">
+        <v>26.864086017785613</v>
+      </c>
+    </row>
+    <row r="81" x14ac:dyDescent="0.35">
       <c r="A81" s="0">
         <v>28.34740740740741</v>
       </c>
@@ -8094,16 +7573,16 @@
         <v>-1.3899999999999999</v>
       </c>
       <c r="E81" s="0">
-        <v>14.284582367400162</v>
+        <v>24.394510492433028</v>
       </c>
       <c r="F81" s="0">
-        <v>14.508972503349014</v>
+        <v>25.208684090492511</v>
       </c>
       <c r="G81" s="0">
-        <v>26.573090909090908</v>
+        <v>26.550379746835443</v>
       </c>
       <c r="H81" s="0">
-        <v>16.791293</v>
+        <v>26.864086017785613</v>
       </c>
     </row>
   </sheetData>
@@ -8119,12 +7598,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="14.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.37890625" customWidth="true"/>
+    <col min="5" max="5" width="13.34765625" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="13.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
@@ -8132,100 +7611,100 @@
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="13.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="13.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
-    <col min="14" max="14" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0" t="s">
-        <v>310</v>
+        <v>153</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>311</v>
+        <v>154</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>316</v>
+        <v>159</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>320</v>
+        <v>163</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>321</v>
+        <v>164</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.35">
       <c r="A2" s="0" t="s">
-        <v>324</v>
+        <v>167</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>325</v>
+        <v>168</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.35">
       <c r="A3" s="0">
         <v>12.190000000000001</v>
       </c>
@@ -8245,31 +7724,31 @@
         <v>0.40917600125129522</v>
       </c>
       <c r="G3" s="0">
-        <v>9.066844382550741</v>
+        <v>18.618615498229332</v>
       </c>
       <c r="H3" s="0">
-        <v>1.6423581217727818</v>
+        <v>0.90696688078131538</v>
       </c>
       <c r="I3" s="0">
-        <v>8.8559249067701842</v>
+        <v>19.132053407235233</v>
       </c>
       <c r="J3" s="0">
-        <v>1.7953739105371873</v>
+        <v>0.96411816941772466</v>
       </c>
       <c r="K3" s="0">
-        <v>21.543090909090907</v>
+        <v>21.520379746835442</v>
       </c>
       <c r="L3" s="0">
-        <v>1.6367040050051809</v>
+        <v>0.81835200250259121</v>
       </c>
       <c r="M3" s="0">
-        <v>11.745016250000001</v>
+        <v>21.082958103228648</v>
       </c>
       <c r="N3" s="0">
-        <v>1.5627585036237193</v>
-      </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.3">
+        <v>0.90093340545373268</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.35">
       <c r="A4" s="0">
         <v>12.715978915662649</v>
       </c>
@@ -8289,31 +7768,31 @@
         <v>0.53449130243714205</v>
       </c>
       <c r="G4" s="0">
-        <v>7.5490597920846607</v>
+        <v>16.943113099711891</v>
       </c>
       <c r="H4" s="0">
-        <v>2.1173310618299888</v>
+        <v>0.88311116370023679</v>
       </c>
       <c r="I4" s="0">
-        <v>7.1934202009781689</v>
+        <v>17.346873257912552</v>
       </c>
       <c r="J4" s="0">
-        <v>2.3225707626472936</v>
+        <v>0.94249228084593717</v>
       </c>
       <c r="K4" s="0">
-        <v>20.018805194805193</v>
+        <v>19.996094032549731</v>
       </c>
       <c r="L4" s="0">
-        <v>2.1379652097485677</v>
+        <v>0.80807489381467978</v>
       </c>
       <c r="M4" s="0">
-        <v>10.307534</v>
+        <v>19.422787357749446</v>
       </c>
       <c r="N4" s="0">
-        <v>1.9992440451913318</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.3">
+        <v>0.87369367364308514</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.35">
       <c r="A5" s="0">
         <v>13.481039156626506</v>
       </c>
@@ -8333,31 +7812,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G5" s="0">
-        <v>6.8400231458960405</v>
+        <v>16.16204816021596</v>
       </c>
       <c r="H5" s="0">
-        <v>3.1132944131159928</v>
+        <v>1.7155430090710877</v>
       </c>
       <c r="I5" s="0">
-        <v>6.4102794164666932</v>
+        <v>16.506650162490615</v>
       </c>
       <c r="J5" s="0">
-        <v>3.4326203083304709</v>
+        <v>1.8417502279966509</v>
       </c>
       <c r="K5" s="0">
-        <v>19.283090909090909</v>
+        <v>19.26037974683544</v>
       </c>
       <c r="L5" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.6034442096104662</v>
       </c>
       <c r="M5" s="0">
-        <v>9.6505762500000003</v>
+        <v>18.658346407026116</v>
       </c>
       <c r="N5" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.3">
+        <v>1.6850434434305694</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.35">
       <c r="A6" s="0">
         <v>14.475617469879518</v>
       </c>
@@ -8377,31 +7856,31 @@
         <v>0.59396969619669993</v>
       </c>
       <c r="G6" s="0">
-        <v>8.8190547181173713</v>
+        <v>18.345173978870747</v>
       </c>
       <c r="H6" s="0">
-        <v>2.3949304261231377</v>
+        <v>1.870954442085548</v>
       </c>
       <c r="I6" s="0">
-        <v>8.5841361514832784</v>
+        <v>18.840246048106877</v>
       </c>
       <c r="J6" s="0">
-        <v>2.6149241191808139</v>
+        <v>1.9860969846124872</v>
       </c>
       <c r="K6" s="0">
-        <v>21.29309090909091</v>
+        <v>21.270379746835442</v>
       </c>
       <c r="L6" s="0">
-        <v>2.3758787847867993</v>
+        <v>1.6799999999999995</v>
       </c>
       <c r="M6" s="0">
-        <v>11.510729000000001</v>
+        <v>20.812147435507129</v>
       </c>
       <c r="N6" s="0">
-        <v>2.284526245511747</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.3">
+        <v>1.8608413670886073</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.35">
       <c r="A7" s="0">
         <v>14.571249999999999</v>
       </c>
@@ -8421,31 +7900,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G7" s="0">
-        <v>8.200672657266864</v>
+        <v>17.660980310404966</v>
       </c>
       <c r="H7" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I7" s="0">
-        <v>7.9128682990457833</v>
+        <v>18.118805999727044</v>
       </c>
       <c r="J7" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K7" s="0">
-        <v>20.693090909090909</v>
+        <v>20.670379746835444</v>
       </c>
       <c r="L7" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M7" s="0">
-        <v>10.913792000000001</v>
+        <v>20.127554232975484</v>
       </c>
       <c r="N7" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.35">
       <c r="A8" s="0">
         <v>14.619066265060242</v>
       </c>
@@ -8465,31 +7944,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G8" s="0">
-        <v>8.722844702912198</v>
+        <v>18.237726695114702</v>
       </c>
       <c r="H8" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I8" s="0">
-        <v>8.4835959484826731</v>
+        <v>18.731779838866203</v>
       </c>
       <c r="J8" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K8" s="0">
-        <v>21.213090909090909</v>
+        <v>21.190379746835443</v>
       </c>
       <c r="L8" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M8" s="0">
-        <v>11.410925000000001</v>
+        <v>20.700655941836242</v>
       </c>
       <c r="N8" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="9" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.35">
       <c r="A9" s="0">
         <v>14.743388554216867</v>
       </c>
@@ -8509,31 +7988,31 @@
         <v>0.10606601717798214</v>
       </c>
       <c r="G9" s="0">
-        <v>8.1411047774586223</v>
+        <v>17.595236979756748</v>
       </c>
       <c r="H9" s="0">
-        <v>0.42454837697696607</v>
+        <v>0.33149873644669015</v>
       </c>
       <c r="I9" s="0">
-        <v>7.8475648436159702</v>
+        <v>18.048689404381747</v>
       </c>
       <c r="J9" s="0">
-        <v>0.46445502430056751</v>
+        <v>0.35269746895576753</v>
       </c>
       <c r="K9" s="0">
-        <v>20.63309090909091</v>
+        <v>20.610379746835441</v>
       </c>
       <c r="L9" s="0">
-        <v>0.42426406871192701</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="M9" s="0">
-        <v>10.8574445</v>
+        <v>20.062441112722318</v>
       </c>
       <c r="N9" s="0">
-        <v>0.40340088313301897</v>
-      </c>
-    </row>
-    <row r="10" x14ac:dyDescent="0.3">
+        <v>0.32907560126582425</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.35">
       <c r="A10" s="0">
         <v>15.020722891566265</v>
       </c>
@@ -8553,31 +8032,31 @@
         <v>0.27820855486487112</v>
       </c>
       <c r="G10" s="0">
-        <v>11.425924838253565</v>
+        <v>21.227254785204778</v>
       </c>
       <c r="H10" s="0">
-        <v>1.1526279280134011</v>
+        <v>0.63788570124100263</v>
       </c>
       <c r="I10" s="0">
-        <v>11.422683200945656</v>
+        <v>21.890017797828463</v>
       </c>
       <c r="J10" s="0">
-        <v>1.2493845657916447</v>
+        <v>0.67147261231966604</v>
       </c>
       <c r="K10" s="0">
-        <v>23.853090909090909</v>
+        <v>23.830379746835444</v>
       </c>
       <c r="L10" s="0">
-        <v>1.1128342194594845</v>
+        <v>0.55641710972974234</v>
       </c>
       <c r="M10" s="0">
-        <v>14.0101595</v>
+        <v>23.685577732975485</v>
       </c>
       <c r="N10" s="0">
-        <v>1.1144496579509546</v>
-      </c>
-    </row>
-    <row r="11" x14ac:dyDescent="0.3">
+        <v>0.63851220225911454</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.35">
       <c r="A11" s="0">
         <v>15.30762048192771</v>
       </c>
@@ -8597,31 +8076,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G11" s="0">
-        <v>12.086557187173639</v>
+        <v>21.95829375657263</v>
       </c>
       <c r="H11" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I11" s="0">
-        <v>12.139442842778919</v>
+        <v>22.660383696106862</v>
       </c>
       <c r="J11" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K11" s="0">
-        <v>24.49309090909091</v>
+        <v>24.470379746835441</v>
       </c>
       <c r="L11" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M11" s="0">
-        <v>14.647957000000002</v>
+        <v>24.416875182342572</v>
       </c>
       <c r="N11" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="12" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.35">
       <c r="A12" s="0">
         <v>15.699713855421688</v>
       </c>
@@ -8641,31 +8120,31 @@
         <v>0.25635912310662945</v>
       </c>
       <c r="G12" s="0">
-        <v>11.342704072828516</v>
+        <v>21.135116082019863</v>
       </c>
       <c r="H12" s="0">
-        <v>1.0625030197604086</v>
+        <v>0.48011980455920999</v>
       </c>
       <c r="I12" s="0">
-        <v>11.332581037038201</v>
+        <v>21.793157456291691</v>
       </c>
       <c r="J12" s="0">
-        <v>1.151575452677519</v>
+        <v>0.50533943739669396</v>
       </c>
       <c r="K12" s="0">
-        <v>23.773090909090907</v>
+        <v>23.750379746835446</v>
       </c>
       <c r="L12" s="0">
-        <v>1.0254364924265176</v>
+        <v>0.41863269501238587</v>
       </c>
       <c r="M12" s="0">
-        <v>13.929532666666667</v>
+        <v>23.593263405971268</v>
       </c>
       <c r="N12" s="0">
-        <v>1.0274799697447476</v>
-      </c>
-    </row>
-    <row r="13" x14ac:dyDescent="0.3">
+        <v>0.48062499144083198</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.35">
       <c r="A13" s="0">
         <v>15.910105421686747</v>
       </c>
@@ -8685,31 +8164,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G13" s="0">
-        <v>7.641641447510608</v>
+        <v>17.043765779507112</v>
       </c>
       <c r="H13" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I13" s="0">
-        <v>7.300902216570023</v>
+        <v>17.461641612546146</v>
       </c>
       <c r="J13" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K13" s="0">
-        <v>20.13309090909091</v>
+        <v>20.110379746835441</v>
       </c>
       <c r="L13" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M13" s="0">
-        <v>10.383332000000001</v>
+        <v>19.515281777279281</v>
       </c>
       <c r="N13" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="14" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.35">
       <c r="A14" s="0">
         <v>16.130060240963857</v>
       </c>
@@ -8729,31 +8208,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G14" s="0">
-        <v>12.337546918468149</v>
+        <v>22.236281097735002</v>
       </c>
       <c r="H14" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I14" s="0">
-        <v>12.410793396579948</v>
+        <v>22.952127320383909</v>
       </c>
       <c r="J14" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K14" s="0">
-        <v>24.733090909090912</v>
+        <v>24.710379746835443</v>
       </c>
       <c r="L14" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M14" s="0">
-        <v>14.891677000000001</v>
+        <v>24.695657663355231</v>
       </c>
       <c r="N14" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="15" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.35">
       <c r="A15" s="0">
         <v>16.158750000000001</v>
       </c>
@@ -8773,31 +8252,31 @@
         <v>0.041932485418030345</v>
       </c>
       <c r="G15" s="0">
-        <v>13.274377458548344</v>
+        <v>23.274348541710125</v>
       </c>
       <c r="H15" s="0">
-        <v>0.17725964270552574</v>
+        <v>0.098234492190641273</v>
       </c>
       <c r="I15" s="0">
-        <v>13.421816035189551</v>
+        <v>24.039316347730832</v>
       </c>
       <c r="J15" s="0">
-        <v>0.19108876600858454</v>
+        <v>0.1027529433393331</v>
       </c>
       <c r="K15" s="0">
-        <v>25.623090909090909</v>
+        <v>25.600379746835443</v>
       </c>
       <c r="L15" s="0">
-        <v>0.1677299416721216</v>
+        <v>0.083864970836060801</v>
       </c>
       <c r="M15" s="0">
-        <v>15.803814749999999</v>
+        <v>25.737818780443838</v>
       </c>
       <c r="N15" s="0">
-        <v>0.17286290323138453</v>
-      </c>
-    </row>
-    <row r="16" x14ac:dyDescent="0.3">
+        <v>0.098683592566855771</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.35">
       <c r="A16" s="0">
         <v>16.407394578313252</v>
       </c>
@@ -8817,31 +8296,31 @@
         <v>0.049497474683058366</v>
       </c>
       <c r="G16" s="0">
-        <v>13.539189242529687</v>
+        <v>23.567904471470655</v>
       </c>
       <c r="H16" s="0">
-        <v>0.21002448052176376</v>
+        <v>0.16464638404474383</v>
       </c>
       <c r="I16" s="0">
-        <v>13.707106467514876</v>
+        <v>24.346149508507096</v>
       </c>
       <c r="J16" s="0">
-        <v>0.22617586642047185</v>
+        <v>0.17201357656949764</v>
       </c>
       <c r="K16" s="0">
-        <v>25.873090909090909</v>
+        <v>25.850379746835443</v>
       </c>
       <c r="L16" s="0">
-        <v>0.1979898987322341</v>
+        <v>0.14000000000000054</v>
       </c>
       <c r="M16" s="0">
-        <v>16.062288500000001</v>
+        <v>26.032815948165357</v>
       </c>
       <c r="N16" s="0">
-        <v>0.20511258533912635</v>
-      </c>
-    </row>
-    <row r="17" x14ac:dyDescent="0.3">
+        <v>0.16548961392405023</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.35">
       <c r="A17" s="0">
         <v>16.598659638554217</v>
       </c>
@@ -8861,31 +8340,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G17" s="0">
-        <v>10.061837498180125</v>
+        <v>19.717670200731902</v>
       </c>
       <c r="H17" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I17" s="0">
-        <v>9.9431672474979109</v>
+        <v>20.29980228102869</v>
       </c>
       <c r="J17" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K17" s="0">
-        <v>22.533090909090909</v>
+        <v>22.51037974683544</v>
       </c>
       <c r="L17" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M17" s="0">
-        <v>12.692612</v>
+        <v>22.175186587405861</v>
       </c>
       <c r="N17" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="18" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.35">
       <c r="A18" s="0">
         <v>16.627349397590361</v>
       </c>
@@ -8905,31 +8384,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G18" s="0">
-        <v>11.87791546682945</v>
+        <v>21.727248903198301</v>
       </c>
       <c r="H18" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I18" s="0">
-        <v>11.91372341913177</v>
+        <v>22.41771615534401</v>
       </c>
       <c r="J18" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K18" s="0">
-        <v>24.293090909090907</v>
+        <v>24.270379746835442</v>
       </c>
       <c r="L18" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M18" s="0">
-        <v>14.445572</v>
+        <v>24.185271448165356</v>
       </c>
       <c r="N18" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="19" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.35">
       <c r="A19" s="0">
         <v>16.770798192771082</v>
       </c>
@@ -8949,31 +8428,31 @@
         <v>0.13435028842544403</v>
       </c>
       <c r="G19" s="0">
-        <v>9.8789114760173788</v>
+        <v>19.515463499566579</v>
       </c>
       <c r="H19" s="0">
-        <v>0.54802461342027053</v>
+        <v>0.42845661987644229</v>
       </c>
       <c r="I19" s="0">
-        <v>9.743865109176113</v>
+        <v>20.085681146142832</v>
       </c>
       <c r="J19" s="0">
-        <v>0.59653283089819331</v>
+        <v>0.45321664452021077</v>
       </c>
       <c r="K19" s="0">
-        <v>22.353090909090909</v>
+        <v>22.33037974683544</v>
       </c>
       <c r="L19" s="0">
-        <v>0.53740115370177477</v>
+        <v>0.38000000000000073</v>
       </c>
       <c r="M19" s="0">
-        <v>12.517342500000002</v>
+        <v>21.973620226646368</v>
       </c>
       <c r="N19" s="0">
-        <v>0.52599481421445471</v>
-      </c>
-    </row>
-    <row r="20" x14ac:dyDescent="0.3">
+        <v>0.42745009493670949</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.35">
       <c r="A20" s="0">
         <v>16.875993975903611</v>
       </c>
@@ -8993,31 +8472,31 @@
         <v>0.30405591591021547</v>
       </c>
       <c r="G20" s="0">
-        <v>8.7470738431297548</v>
+        <v>18.264796356949944</v>
       </c>
       <c r="H20" s="0">
-        <v>1.2250844414099273</v>
+        <v>0.95700224121054578</v>
       </c>
       <c r="I20" s="0">
-        <v>8.508874050441932</v>
+        <v>18.759055364240169</v>
       </c>
       <c r="J20" s="0">
-        <v>1.3378994319710398</v>
+        <v>1.016146594037991</v>
       </c>
       <c r="K20" s="0">
-        <v>21.233090909090912</v>
+        <v>21.210379746835443</v>
       </c>
       <c r="L20" s="0">
-        <v>1.2162236636408634</v>
+        <v>0.85999999999999943</v>
       </c>
       <c r="M20" s="0">
-        <v>11.436142500000003</v>
+        <v>20.728795315253965</v>
       </c>
       <c r="N20" s="0">
-        <v>1.1682740457018195</v>
-      </c>
-    </row>
-    <row r="21" x14ac:dyDescent="0.3">
+        <v>0.95173505696202543</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.35">
       <c r="A21" s="0">
         <v>16.981189759036145</v>
       </c>
@@ -9037,31 +8516,31 @@
         <v>0.046188021535170071</v>
       </c>
       <c r="G21" s="0">
-        <v>10.608540144371696</v>
+        <v>20.322350147885157</v>
       </c>
       <c r="H21" s="0">
-        <v>0.1897870984396218</v>
+        <v>0.12121134014286858</v>
       </c>
       <c r="I21" s="0">
-        <v>10.537434229444917</v>
+        <v>20.938398730162135</v>
       </c>
       <c r="J21" s="0">
-        <v>0.20618092030502574</v>
+        <v>0.1279253872401114</v>
       </c>
       <c r="K21" s="0">
-        <v>23.066424242424244</v>
+        <v>23.043713080168772</v>
       </c>
       <c r="L21" s="0">
-        <v>0.18475208614068039</v>
+        <v>0.10666666666666677</v>
       </c>
       <c r="M21" s="0">
-        <v>13.218681333333336</v>
+        <v>22.779172545211768</v>
       </c>
       <c r="N21" s="0">
-        <v>0.1828121892362039</v>
-      </c>
-    </row>
-    <row r="22" x14ac:dyDescent="0.3">
+        <v>0.12112999156118083</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.35">
       <c r="A22" s="0">
         <v>17.63149096385542</v>
       </c>
@@ -9081,31 +8560,31 @@
         <v>0.09899494936611658</v>
       </c>
       <c r="G22" s="0">
-        <v>13.137309567155825</v>
+        <v>23.122451276322039</v>
       </c>
       <c r="H22" s="0">
-        <v>0.41824451830908033</v>
+        <v>0.32778014583450954</v>
       </c>
       <c r="I22" s="0">
-        <v>13.273960257071678</v>
+        <v>23.88031485137509</v>
       </c>
       <c r="J22" s="0">
-        <v>0.45094337734165996</v>
+        <v>0.34291764727123564</v>
       </c>
       <c r="K22" s="0">
-        <v>25.49309090909091</v>
+        <v>25.470379746835441</v>
       </c>
       <c r="L22" s="0">
-        <v>0.39597979746446821</v>
+        <v>0.27999999999999936</v>
       </c>
       <c r="M22" s="0">
-        <v>15.670269000000001</v>
+        <v>25.585280853228646</v>
       </c>
       <c r="N22" s="0">
-        <v>0.40777999542890703</v>
-      </c>
-    </row>
-    <row r="23" x14ac:dyDescent="0.3">
+        <v>0.32925022784810132</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.35">
       <c r="A23" s="0">
         <v>17.813192771084339</v>
       </c>
@@ -9125,31 +8604,31 @@
         <v>0.3818376618407357</v>
       </c>
       <c r="G23" s="0">
-        <v>14.849442836112132</v>
+        <v>25.021788532385301</v>
       </c>
       <c r="H23" s="0">
-        <v>1.642953921670615</v>
+        <v>1.2892376768699023</v>
       </c>
       <c r="I23" s="0">
-        <v>15.1132693711005</v>
+        <v>25.859038549010137</v>
       </c>
       <c r="J23" s="0">
-        <v>1.7624387827362489</v>
+        <v>1.3408754639335425</v>
       </c>
       <c r="K23" s="0">
-        <v>27.093090909090911</v>
+        <v>27.070379746835442</v>
       </c>
       <c r="L23" s="0">
-        <v>1.5273506473629428</v>
+        <v>1.0799999999999983</v>
       </c>
       <c r="M23" s="0">
-        <v>17.347588999999999</v>
+        <v>27.496350726646369</v>
       </c>
       <c r="N23" s="0">
-        <v>1.6125768134857927</v>
-      </c>
-    </row>
-    <row r="24" x14ac:dyDescent="0.3">
+        <v>1.2980451645569635</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.35">
       <c r="A24" s="0">
         <v>18.042710843373495</v>
       </c>
@@ -9169,31 +8648,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G24" s="0">
-        <v>11.337630947867581</v>
+        <v>21.129116429817657</v>
       </c>
       <c r="H24" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I24" s="0">
-        <v>11.328573668453544</v>
+        <v>21.788696434843985</v>
       </c>
       <c r="J24" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K24" s="0">
-        <v>23.773090909090911</v>
+        <v>23.750379746835442</v>
       </c>
       <c r="L24" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M24" s="0">
-        <v>13.922413000000001</v>
+        <v>23.586143739304596</v>
       </c>
       <c r="N24" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="25" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.35">
       <c r="A25" s="0">
         <v>19.977037037037036</v>
       </c>
@@ -9213,31 +8692,31 @@
         <v>0.021213203435596444</v>
       </c>
       <c r="G25" s="0">
-        <v>12.946935517037133</v>
+        <v>22.911435376145448</v>
       </c>
       <c r="H25" s="0">
-        <v>0.089441303921192969</v>
+        <v>0.07008563638783015</v>
       </c>
       <c r="I25" s="0">
-        <v>13.068777636595286</v>
+        <v>23.659647328267596</v>
       </c>
       <c r="J25" s="0">
-        <v>0.096488095687476974</v>
+        <v>0.073369999475829673</v>
       </c>
       <c r="K25" s="0">
-        <v>25.31309090909091</v>
+        <v>25.290379746835441</v>
       </c>
       <c r="L25" s="0">
-        <v>0.084852813742386402</v>
+        <v>0.06000000000000049</v>
       </c>
       <c r="M25" s="0">
-        <v>15.484560500000001</v>
+        <v>25.373275492469155</v>
       </c>
       <c r="N25" s="0">
-        <v>0.087133233111712102</v>
-      </c>
-    </row>
-    <row r="26" x14ac:dyDescent="0.3">
+        <v>0.070378120253165477</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.35">
       <c r="A26" s="0">
         <v>20.023333333333333</v>
       </c>
@@ -9257,31 +8736,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G26" s="0">
-        <v>15.967633206778771</v>
+        <v>26.262651678764655</v>
       </c>
       <c r="H26" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I26" s="0">
-        <v>16.312939334260875</v>
+        <v>27.149799605148132</v>
       </c>
       <c r="J26" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K26" s="0">
-        <v>28.13309090909091</v>
+        <v>28.110379746835441</v>
       </c>
       <c r="L26" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M26" s="0">
-        <v>18.444931999999998</v>
+        <v>28.745631144367884</v>
       </c>
       <c r="N26" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="27" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.35">
       <c r="A27" s="0">
         <v>20.171481481481482</v>
       </c>
@@ -9301,31 +8780,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G27" s="0">
-        <v>15.793620200498367</v>
+        <v>26.069392558132108</v>
       </c>
       <c r="H27" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I27" s="0">
-        <v>16.126843864334433</v>
+        <v>26.949514110344012</v>
       </c>
       <c r="J27" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K27" s="0">
-        <v>27.97309090909091</v>
+        <v>27.950379746835441</v>
       </c>
       <c r="L27" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M27" s="0">
-        <v>18.273508</v>
+        <v>28.550832157026115</v>
       </c>
       <c r="N27" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="28" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.35">
       <c r="A28" s="0">
         <v>20.819629629629631</v>
       </c>
@@ -9345,31 +8824,31 @@
         <v>0.64346717087975824</v>
       </c>
       <c r="G28" s="0">
-        <v>10.634192748418059</v>
+        <v>20.35214475249353</v>
       </c>
       <c r="H28" s="0">
-        <v>2.6460750584549881</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I28" s="0">
-        <v>10.559793483665857</v>
+        <v>20.962997301209072</v>
       </c>
       <c r="J28" s="0">
-        <v>2.8739595793878441</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K28" s="0">
-        <v>23.073090909090908</v>
+        <v>23.050379746835443</v>
       </c>
       <c r="L28" s="0">
-        <v>2.5738686835190334</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M28" s="0">
-        <v>13.252012499999999</v>
+        <v>22.813477669684346</v>
       </c>
       <c r="N28" s="0">
-        <v>2.5493525843085134</v>
-      </c>
-    </row>
-    <row r="29" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.35">
       <c r="A29" s="0">
         <v>22.060370370370372</v>
       </c>
@@ -9389,31 +8868,31 @@
         <v>0.24269322199023194</v>
       </c>
       <c r="G29" s="0">
-        <v>13.436837603717587</v>
+        <v>23.454719415819188</v>
       </c>
       <c r="H29" s="0">
-        <v>1.0308952445971995</v>
+        <v>0.6599103552559179</v>
       </c>
       <c r="I29" s="0">
-        <v>13.595774420161471</v>
+        <v>24.226518446841983</v>
       </c>
       <c r="J29" s="0">
-        <v>1.1098329308263208</v>
+        <v>0.68919290163216784</v>
       </c>
       <c r="K29" s="0">
-        <v>25.773090909090911</v>
+        <v>25.750379746835439</v>
       </c>
       <c r="L29" s="0">
-        <v>0.9707728879609272</v>
+        <v>0.56047598818623179</v>
       </c>
       <c r="M29" s="0">
-        <v>15.963717666666666</v>
+        <v>25.919635747743417</v>
       </c>
       <c r="N29" s="0">
-        <v>1.00716122704378</v>
-      </c>
-    </row>
-    <row r="30" x14ac:dyDescent="0.3">
+        <v>0.66336643503824089</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.35">
       <c r="A30" s="0">
         <v>23.328888888888891</v>
       </c>
@@ -9433,31 +8912,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G30" s="0">
-        <v>12.170145189025618</v>
+        <v>22.050867126951459</v>
       </c>
       <c r="H30" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I30" s="0">
-        <v>12.229833899742857</v>
+        <v>22.75756572620628</v>
       </c>
       <c r="J30" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K30" s="0">
-        <v>24.573090909090908</v>
+        <v>24.550379746835443</v>
       </c>
       <c r="L30" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M30" s="0">
-        <v>14.729092999999999</v>
+        <v>24.509698676013461</v>
       </c>
       <c r="N30" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="31" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.35">
       <c r="A31" s="0">
         <v>23.421481481481482</v>
       </c>
@@ -9477,31 +8956,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G31" s="0">
-        <v>14.842256400772555</v>
+        <v>25.013252694829248</v>
       </c>
       <c r="H31" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I31" s="0">
-        <v>15.107713110195107</v>
+        <v>25.852844240076422</v>
       </c>
       <c r="J31" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K31" s="0">
-        <v>27.093090909090911</v>
+        <v>27.070379746835442</v>
       </c>
       <c r="L31" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M31" s="0">
-        <v>17.338111999999999</v>
+        <v>27.486873726646369</v>
       </c>
       <c r="N31" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="32" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.35">
       <c r="A32" s="0">
         <v>25.495555555555555</v>
       </c>
@@ -9521,31 +9000,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G32" s="0">
-        <v>14.370162821689803</v>
+        <v>24.489445686884096</v>
       </c>
       <c r="H32" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I32" s="0">
-        <v>14.600919430280271</v>
+        <v>25.307599487528535</v>
       </c>
       <c r="J32" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K32" s="0">
-        <v>26.65309090909091</v>
+        <v>26.630379746835441</v>
       </c>
       <c r="L32" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M32" s="0">
-        <v>16.875132999999998</v>
+        <v>26.959613511456492</v>
       </c>
       <c r="N32" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="33" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.35">
       <c r="A33" s="0">
         <v>26.227037037037036</v>
       </c>
@@ -9565,31 +9044,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G33" s="0">
-        <v>17.150686939033335</v>
+        <v>27.577224681285429</v>
       </c>
       <c r="H33" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I33" s="0">
-        <v>17.575570711350906</v>
+        <v>28.508962951688659</v>
       </c>
       <c r="J33" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K33" s="0">
-        <v>29.213090909090909</v>
+        <v>29.19037974683544</v>
       </c>
       <c r="L33" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M33" s="0">
-        <v>19.612924999999997</v>
+        <v>30.071405308924852</v>
       </c>
       <c r="N33" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="34" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.35">
       <c r="A34" s="0">
         <v>27.671481481481486</v>
       </c>
@@ -9609,31 +9088,31 @@
         <v>0.5586143571373724</v>
       </c>
       <c r="G34" s="0">
-        <v>15.353876808663273</v>
+        <v>25.58234137614707</v>
       </c>
       <c r="H34" s="0">
-        <v>2.416420067016984</v>
+        <v>1.8969009260147514</v>
       </c>
       <c r="I34" s="0">
-        <v>15.651475272004916</v>
+        <v>26.438407942130766</v>
       </c>
       <c r="J34" s="0">
-        <v>2.5882622732716398</v>
+        <v>1.9694418053981622</v>
       </c>
       <c r="K34" s="0">
-        <v>27.553090909090912</v>
+        <v>27.530379746835443</v>
       </c>
       <c r="L34" s="0">
-        <v>2.2344574285494905</v>
+        <v>1.5800000000000001</v>
       </c>
       <c r="M34" s="0">
-        <v>17.845782499999999</v>
+        <v>28.061747315253964</v>
       </c>
       <c r="N34" s="0">
-        <v>2.3758427223409568</v>
-      </c>
-    </row>
-    <row r="35" x14ac:dyDescent="0.3">
+        <v>1.9108024999999991</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.35">
       <c r="A35" s="0">
         <v>28.041851851851852</v>
       </c>
@@ -9653,31 +9132,31 @@
         <v>0.8017221048052332</v>
       </c>
       <c r="G35" s="0">
-        <v>16.011186695302456</v>
+        <v>26.311026209255203</v>
       </c>
       <c r="H35" s="0">
-        <v>3.1132944131159928</v>
+        <v>2.069907572464956</v>
       </c>
       <c r="I35" s="0">
-        <v>16.359501785799466</v>
+        <v>27.19991401294368</v>
       </c>
       <c r="J35" s="0">
-        <v>3.4326203083304709</v>
+        <v>2.1839554385460076</v>
       </c>
       <c r="K35" s="0">
-        <v>28.173090909090909</v>
+        <v>28.150379746835441</v>
       </c>
       <c r="L35" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="M35" s="0">
-        <v>18.487852999999998</v>
+        <v>28.794395891203333</v>
       </c>
       <c r="N35" s="0">
-        <v>2.901596591406459</v>
-      </c>
-    </row>
-    <row r="36" x14ac:dyDescent="0.3">
+        <v>2.0685549810126584</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.35">
       <c r="A36" s="0">
         <v>28.34740740740741</v>
       </c>
@@ -9697,28 +9176,28 @@
         <v>0.2191346617949794</v>
       </c>
       <c r="G36" s="0">
-        <v>14.708481014018593</v>
+        <v>24.865103718459363</v>
       </c>
       <c r="H36" s="0">
-        <v>0.94786618940897416</v>
+        <v>0.4705932260263353</v>
       </c>
       <c r="I36" s="0">
-        <v>14.963029998347746</v>
+        <v>25.697291305255977</v>
       </c>
       <c r="J36" s="0">
-        <v>1.015303424510438</v>
+        <v>0.48860721476346497</v>
       </c>
       <c r="K36" s="0">
-        <v>26.965090909090907</v>
+        <v>26.942379746835446</v>
       </c>
       <c r="L36" s="0">
-        <v>0.87653864717991792</v>
+        <v>0.3919999999999994</v>
       </c>
       <c r="M36" s="0">
-        <v>17.2080968</v>
+        <v>27.338158536772955</v>
       </c>
       <c r="N36" s="0">
-        <v>0.93200163008022741</v>
+        <v>0.47407251898734087</v>
       </c>
     </row>
   </sheetData>
@@ -9727,954 +9206,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="13.34765625" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.34765625" customWidth="true"/>
+    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.35">
+      <c r="A2" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.35">
+      <c r="A3" s="0">
+        <v>12.190000000000001</v>
+      </c>
+      <c r="B3" s="0">
+        <v>201.52877606845385</v>
+      </c>
+      <c r="C3" s="0">
+        <v>3.2324999999999999</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.395084379173192</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-0.13250000000000001</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.40917600125129522</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.81835200250259121</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.35">
+      <c r="A4" s="0">
+        <v>12.715978915662649</v>
+      </c>
+      <c r="B4" s="0">
+        <v>201.51313156737257</v>
+      </c>
+      <c r="C4" s="0">
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.38008770917600931</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.24857142857142858</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.53449130243714205</v>
+      </c>
+      <c r="G4" s="0">
+        <v>-1.5242857142857105</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.80807489381467978</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.35">
+      <c r="A5" s="0">
+        <v>13.481039156626506</v>
+      </c>
+      <c r="B5" s="0">
+        <v>201.49037592943623</v>
+      </c>
+      <c r="C5" s="0">
+        <v>3.9074999999999998</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.43250000000000005</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G5" s="0">
+        <v>-2.2600000000000016</v>
+      </c>
+      <c r="H5" s="0">
+        <v>1.6034442096104662</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.35">
+      <c r="A6" s="0">
+        <v>14.475617469879518</v>
+      </c>
+      <c r="B6" s="0">
+        <v>201.46079360011896</v>
+      </c>
+      <c r="C6" s="0">
+        <v>3.8650000000000002</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.34648232278140845</v>
+      </c>
+      <c r="E6" s="0">
+        <v>-0.070000000000000007</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.59396969619669993</v>
+      </c>
+      <c r="G6" s="0">
+        <v>-0.25</v>
+      </c>
+      <c r="H6" s="0">
+        <v>1.6799999999999995</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.35">
+      <c r="A7" s="0">
+        <v>14.571249999999999</v>
+      </c>
+      <c r="B7" s="0">
+        <v>201.45794914537692</v>
+      </c>
+      <c r="C7" s="0">
+        <v>3.6200000000000001</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G7" s="0">
+        <v>-0.84999999999999787</v>
+      </c>
+      <c r="H7" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.35">
+      <c r="A8" s="0">
+        <v>14.619066265060242</v>
+      </c>
+      <c r="B8" s="0">
+        <v>201.45652691800589</v>
+      </c>
+      <c r="C8" s="0">
+        <v>4.04</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E8" s="0">
+        <v>-0.050000000000000003</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G8" s="0">
+        <v>-0.32999999999999829</v>
+      </c>
+      <c r="H8" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.35">
+      <c r="A9" s="0">
+        <v>14.743388554216867</v>
+      </c>
+      <c r="B9" s="0">
+        <v>201.45282912684124</v>
+      </c>
+      <c r="C9" s="0">
+        <v>3.165</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.2050609665440988</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.095000000000000001</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.10606601717798214</v>
+      </c>
+      <c r="G9" s="0">
+        <v>-0.91000000000000014</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.35">
+      <c r="A10" s="0">
+        <v>15.020722891566265</v>
+      </c>
+      <c r="B10" s="0">
+        <v>201.44480709718414</v>
+      </c>
+      <c r="C10" s="0">
+        <v>4.5225</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.18246004128758331</v>
+      </c>
+      <c r="E10" s="0">
+        <v>-0.70999999999999996</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.27820855486487112</v>
+      </c>
+      <c r="G10" s="0">
+        <v>2.3100000000000023</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0.55641710972974234</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.35">
+      <c r="A11" s="0">
+        <v>15.30762048192771</v>
+      </c>
+      <c r="B11" s="0">
+        <v>201.43941489375504</v>
+      </c>
+      <c r="C11" s="0">
+        <v>3.6800000000000002</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-0.87</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G11" s="0">
+        <v>2.9499999999999993</v>
+      </c>
+      <c r="H11" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.35">
+      <c r="A12" s="0">
+        <v>15.699713855421688</v>
+      </c>
+      <c r="B12" s="0">
+        <v>201.43204554906859</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3.7566666666666664</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.4336204177234585</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.69000000000000006</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.25635912310662945</v>
+      </c>
+      <c r="G12" s="0">
+        <v>2.230000000000004</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.41863269501238587</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.35">
+      <c r="A13" s="0">
+        <v>15.910105421686747</v>
+      </c>
+      <c r="B13" s="0">
+        <v>201.42809126655393</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4.25</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-1.4100000000000001</v>
+      </c>
+      <c r="H13" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.35">
+      <c r="A14" s="0">
+        <v>16.130060240963857</v>
+      </c>
+      <c r="B14" s="0">
+        <v>201.42395724392495</v>
+      </c>
+      <c r="C14" s="0">
+        <v>2.98</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.93000000000000005</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G14" s="0">
+        <v>3.1900000000000013</v>
+      </c>
+      <c r="H14" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="0">
+        <v>16.158750000000001</v>
+      </c>
+      <c r="B15" s="0">
+        <v>201.42341802358203</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3.4100000000000001</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.10456258094238736</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-1.1524999999999999</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.041932485418030345</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4.0800000000000018</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.083864970836060801</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.35">
+      <c r="A16" s="0">
+        <v>16.407394578313252</v>
+      </c>
+      <c r="B16" s="0">
+        <v>201.41874478061015</v>
+      </c>
+      <c r="C16" s="0">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.14849242404917495</v>
+      </c>
+      <c r="E16" s="0">
+        <v>-1.2149999999999999</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.049497474683058366</v>
+      </c>
+      <c r="G16" s="0">
+        <v>4.3300000000000018</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.14000000000000054</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.35">
+      <c r="A17" s="0">
+        <v>16.598659638554217</v>
+      </c>
+      <c r="B17" s="0">
+        <v>201.41514997832408</v>
+      </c>
+      <c r="C17" s="0">
+        <v>3.2599999999999998</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E17" s="0">
+        <v>-0.38</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0.98999999999999844</v>
+      </c>
+      <c r="H17" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="0">
+        <v>16.627349397590361</v>
+      </c>
+      <c r="B18" s="0">
+        <v>201.41461075798117</v>
+      </c>
+      <c r="C18" s="0">
+        <v>3.9500000000000002</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E18" s="0">
+        <v>-0.81999999999999995</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G18" s="0">
+        <v>2.75</v>
+      </c>
+      <c r="H18" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.35">
+      <c r="A19" s="0">
+        <v>16.770798192771082</v>
+      </c>
+      <c r="B19" s="0">
+        <v>201.41191465626662</v>
+      </c>
+      <c r="C19" s="0">
+        <v>2.8900000000000001</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.4949747468305834</v>
+      </c>
+      <c r="E19" s="0">
+        <v>-0.33499999999999996</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.13435028842544403</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.80999999999999872</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.38000000000000073</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.35">
+      <c r="A20" s="0">
+        <v>16.875993975903611</v>
+      </c>
+      <c r="B20" s="0">
+        <v>201.40993751500929</v>
+      </c>
+      <c r="C20" s="0">
+        <v>3.5149999999999997</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.0070710678118656384</v>
+      </c>
+      <c r="E20" s="0">
+        <v>-0.055000000000000007</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.30405591591021547</v>
+      </c>
+      <c r="G20" s="0">
+        <v>-0.30999999999999872</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.85999999999999943</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="0">
+        <v>16.981189759036145</v>
+      </c>
+      <c r="B21" s="0">
+        <v>201.40796037375196</v>
+      </c>
+      <c r="C21" s="0">
+        <v>2.9333333333333331</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.15011106998930285</v>
+      </c>
+      <c r="E21" s="0">
+        <v>-0.51333333333333331</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.046188021535170071</v>
+      </c>
+      <c r="G21" s="0">
+        <v>1.5233333333333299</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.10666666666666677</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.35">
+      <c r="A22" s="0">
+        <v>17.63149096385542</v>
+      </c>
+      <c r="B22" s="0">
+        <v>201.39573804597933</v>
+      </c>
+      <c r="C22" s="0">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.098994949366116428</v>
+      </c>
+      <c r="E22" s="0">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.09899494936611658</v>
+      </c>
+      <c r="G22" s="0">
+        <v>3.9499999999999993</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.27999999999999936</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.35">
+      <c r="A23" s="0">
+        <v>17.813192771084339</v>
+      </c>
+      <c r="B23" s="0">
+        <v>201.39232298380756</v>
+      </c>
+      <c r="C23" s="0">
+        <v>2.3300000000000001</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.25455844122715704</v>
+      </c>
+      <c r="E23" s="0">
+        <v>-1.52</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.3818376618407357</v>
+      </c>
+      <c r="G23" s="0">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="H23" s="0">
+        <v>1.0799999999999983</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.35">
+      <c r="A24" s="0">
+        <v>18.042710843373495</v>
+      </c>
+      <c r="B24" s="0">
+        <v>201.38800922106429</v>
+      </c>
+      <c r="C24" s="0">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E24" s="0">
+        <v>-0.68999999999999995</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G24" s="0">
+        <v>2.2300000000000004</v>
+      </c>
+      <c r="H24" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.35">
+      <c r="A25" s="0">
+        <v>19.977037037037036</v>
+      </c>
+      <c r="B25" s="0">
+        <v>201.35165380824492</v>
+      </c>
+      <c r="C25" s="0">
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.21213203435596428</v>
+      </c>
+      <c r="E25" s="0">
+        <v>-1.0750000000000002</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.021213203435596444</v>
+      </c>
+      <c r="G25" s="0">
+        <v>3.7699999999999996</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.06000000000000049</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.35">
+      <c r="A26" s="0">
+        <v>20.023333333333333</v>
+      </c>
+      <c r="B26" s="0">
+        <v>201.35078128212905</v>
+      </c>
+      <c r="C26" s="0">
+        <v>2.3599999999999999</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E26" s="0">
+        <v>-1.78</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G26" s="0">
+        <v>6.5899999999999999</v>
+      </c>
+      <c r="H26" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.35">
+      <c r="A27" s="0">
+        <v>20.171481481481482</v>
+      </c>
+      <c r="B27" s="0">
+        <v>201.3479816619961</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1.99</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E27" s="0">
+        <v>-1.74</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G27" s="0">
+        <v>6.4299999999999997</v>
+      </c>
+      <c r="H27" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.35">
+      <c r="A28" s="0">
+        <v>20.819629629629631</v>
+      </c>
+      <c r="B28" s="0">
+        <v>201.33573332391444</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.21213203435596414</v>
+      </c>
+      <c r="E28" s="0">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.64346717087975824</v>
+      </c>
+      <c r="G28" s="0">
+        <v>1.5300000000000011</v>
+      </c>
+      <c r="H28" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="0">
+        <v>22.060370370370372</v>
+      </c>
+      <c r="B29" s="0">
+        <v>201.31228650530093</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1.9666666666666668</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.44500936319737516</v>
+      </c>
+      <c r="E29" s="0">
+        <v>-1.1900000000000002</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.24269322199023194</v>
+      </c>
+      <c r="G29" s="0">
+        <v>4.2299999999999969</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.56047598818623179</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.35">
+      <c r="A30" s="0">
+        <v>23.328888888888891</v>
+      </c>
+      <c r="B30" s="0">
+        <v>201.28831475791253</v>
+      </c>
+      <c r="C30" s="0">
+        <v>2.04</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E30" s="0">
+        <v>-0.89000000000000001</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G30" s="0">
+        <v>3.0300000000000011</v>
+      </c>
+      <c r="H30" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.35">
+      <c r="A31" s="0">
+        <v>23.421481481481482</v>
+      </c>
+      <c r="B31" s="0">
+        <v>201.28656499532943</v>
+      </c>
+      <c r="C31" s="0">
+        <v>2.73</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E31" s="0">
+        <v>-1.52</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G31" s="0">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="H31" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.35">
+      <c r="A32" s="0">
+        <v>25.495555555555555</v>
+      </c>
+      <c r="B32" s="0">
+        <v>201.24684845311921</v>
+      </c>
+      <c r="C32" s="0">
+        <v>2.5899999999999999</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E32" s="0">
+        <v>-1.4099999999999999</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G32" s="0">
+        <v>5.1099999999999994</v>
+      </c>
+      <c r="H32" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.35">
+      <c r="A33" s="0">
+        <v>26.227037037037036</v>
+      </c>
+      <c r="B33" s="0">
+        <v>201.23225501915442</v>
+      </c>
+      <c r="C33" s="0">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E33" s="0">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G33" s="0">
+        <v>7.6699999999999982</v>
+      </c>
+      <c r="H33" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.35">
+      <c r="A34" s="0">
+        <v>27.671481481481486</v>
+      </c>
+      <c r="B34" s="0">
+        <v>201.20343760524929</v>
+      </c>
+      <c r="C34" s="0">
+        <v>1.8100000000000001</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.28284271247461878</v>
+      </c>
+      <c r="E34" s="0">
+        <v>-1.6349999999999998</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.5586143571373724</v>
+      </c>
+      <c r="G34" s="0">
+        <v>6.0100000000000016</v>
+      </c>
+      <c r="H34" s="0">
+        <v>1.5800000000000001</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.35">
+      <c r="A35" s="0">
+        <v>28.041851851851852</v>
+      </c>
+      <c r="B35" s="0">
+        <v>201.19604852476081</v>
+      </c>
+      <c r="C35" s="0">
+        <v>1.26</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.51925427297230786</v>
+      </c>
+      <c r="E35" s="0">
+        <v>-1.79</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.8017221048052332</v>
+      </c>
+      <c r="G35" s="0">
+        <v>6.629999999999999</v>
+      </c>
+      <c r="H35" s="0">
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.35">
+      <c r="A36" s="0">
+        <v>28.34740740740741</v>
+      </c>
+      <c r="B36" s="0">
+        <v>201.1899525333578</v>
+      </c>
+      <c r="C36" s="0">
+        <v>1.9620000000000002</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.040249223594996254</v>
+      </c>
+      <c r="E36" s="0">
+        <v>-1.4879999999999998</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.2191346617949794</v>
+      </c>
+      <c r="G36" s="0">
+        <v>5.4220000000000041</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0.3919999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:C24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="6.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.37890625" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.37890625" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>328</v>
+        <v>183</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>329</v>
+        <v>184</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>339</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>12.190000000000001</v>
+        <v>201.18000000000001</v>
       </c>
       <c r="B3" s="0">
-        <v>201.52877606845385</v>
+        <v>26.942379746835446</v>
       </c>
       <c r="C3" s="0">
-        <v>3.2324999999999999</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.395084379173192</v>
-      </c>
-      <c r="E3" s="0">
-        <v>-0.13250000000000001</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.40917600125129522</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0">
-        <v>1.6367040050051809</v>
+        <v>0.3919999999999994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>12.715978915662649</v>
+        <v>201.19</v>
       </c>
       <c r="B4" s="0">
-        <v>201.51313156737257</v>
+        <v>28.150379746835441</v>
       </c>
       <c r="C4" s="0">
-        <v>2.9499999999999997</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.38008770917600931</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.24857142857142858</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.53449130243714205</v>
-      </c>
-      <c r="G4" s="0">
-        <v>-1.524285714285714</v>
-      </c>
-      <c r="H4" s="0">
-        <v>2.1379652097485677</v>
+        <v>1.8200000000000003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>13.481039156626506</v>
+        <v>201.20000000000002</v>
       </c>
       <c r="B5" s="0">
-        <v>201.49037592943623</v>
+        <v>27.530379746835443</v>
       </c>
       <c r="C5" s="0">
-        <v>3.9074999999999998</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.43250000000000005</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G5" s="0">
-        <v>-2.259999999999998</v>
-      </c>
-      <c r="H5" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.5800000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>14.475617469879518</v>
+        <v>201.23000000000002</v>
       </c>
       <c r="B6" s="0">
-        <v>201.46079360011896</v>
+        <v>29.19037974683544</v>
       </c>
       <c r="C6" s="0">
-        <v>3.8650000000000002</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.34648232278140845</v>
-      </c>
-      <c r="E6" s="0">
-        <v>-0.070000000000000007</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.59396969619669993</v>
-      </c>
-      <c r="G6" s="0">
-        <v>-0.24999999999999645</v>
-      </c>
-      <c r="H6" s="0">
-        <v>2.3758787847867993</v>
+        <v>1.8200000000000003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>14.571249999999999</v>
+        <v>201.24000000000001</v>
       </c>
       <c r="B7" s="0">
-        <v>201.45794914537692</v>
+        <v>26.630379746835441</v>
       </c>
       <c r="C7" s="0">
-        <v>3.6200000000000001</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G7" s="0">
-        <v>-0.84999999999999787</v>
-      </c>
-      <c r="H7" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>14.619066265060242</v>
+        <v>201.28</v>
       </c>
       <c r="B8" s="0">
-        <v>201.45652691800589</v>
+        <v>25.810379746835444</v>
       </c>
       <c r="C8" s="0">
-        <v>4.04</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E8" s="0">
-        <v>-0.050000000000000003</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G8" s="0">
-        <v>-0.32999999999999829</v>
-      </c>
-      <c r="H8" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.2599999999999998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>14.743388554216867</v>
+        <v>201.31</v>
       </c>
       <c r="B9" s="0">
-        <v>201.45282912684124</v>
+        <v>25.750379746835439</v>
       </c>
       <c r="C9" s="0">
-        <v>3.165</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.2050609665440988</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0.095000000000000001</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.10606601717798214</v>
-      </c>
-      <c r="G9" s="0">
-        <v>-0.90999999999999659</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0.42426406871192701</v>
+        <v>0.56047598818623179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>15.020722891566265</v>
+        <v>201.33000000000001</v>
       </c>
       <c r="B10" s="0">
-        <v>201.44480709718414</v>
+        <v>23.050379746835443</v>
       </c>
       <c r="C10" s="0">
-        <v>4.5225</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.18246004128758331</v>
-      </c>
-      <c r="E10" s="0">
-        <v>-0.70999999999999996</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0.27820855486487112</v>
-      </c>
-      <c r="G10" s="0">
-        <v>2.3100000000000023</v>
-      </c>
-      <c r="H10" s="0">
-        <v>1.1128342194594845</v>
+        <v>1.8200000000000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>15.30762048192771</v>
+        <v>201.34</v>
       </c>
       <c r="B11" s="0">
-        <v>201.43941489375504</v>
+        <v>27.950379746835441</v>
       </c>
       <c r="C11" s="0">
-        <v>3.6800000000000002</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E11" s="0">
-        <v>-0.87</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G11" s="0">
-        <v>2.9500000000000028</v>
-      </c>
-      <c r="H11" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>15.699713855421688</v>
+        <v>201.35000000000002</v>
       </c>
       <c r="B12" s="0">
-        <v>201.43204554906859</v>
+        <v>26.230379746835439</v>
       </c>
       <c r="C12" s="0">
-        <v>3.7566666666666664</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0.4336204177234585</v>
-      </c>
-      <c r="E12" s="0">
-        <v>-0.69000000000000006</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0.25635912310662945</v>
-      </c>
-      <c r="G12" s="0">
-        <v>2.2300000000000004</v>
-      </c>
-      <c r="H12" s="0">
-        <v>1.0254364924265176</v>
+        <v>0.94063808130438731</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>15.910105421686747</v>
+        <v>201.38000000000002</v>
       </c>
       <c r="B13" s="0">
-        <v>201.42809126655393</v>
+        <v>23.750379746835442</v>
       </c>
       <c r="C13" s="0">
-        <v>4.25</v>
-      </c>
-      <c r="D13" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E13" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G13" s="0">
-        <v>-1.4099999999999966</v>
-      </c>
-      <c r="H13" s="0">
-        <v>3.2068884192209333</v>
+        <v>1.8200000000000003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>16.130060240963857</v>
+        <v>201.39000000000001</v>
       </c>
       <c r="B14" s="0">
-        <v>201.42395724392495</v>
+        <v>26.270379746835442</v>
       </c>
       <c r="C14" s="0">
-        <v>2.98</v>
-      </c>
-      <c r="D14" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E14" s="0">
-        <v>-0.93000000000000005</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G14" s="0">
-        <v>3.1900000000000048</v>
-      </c>
-      <c r="H14" s="0">
-        <v>3.2068884192209333</v>
+        <v>0.64869098960907356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>16.158750000000001</v>
+        <v>201.40000000000001</v>
       </c>
       <c r="B15" s="0">
-        <v>201.42341802358203</v>
+        <v>22.310379746835441</v>
       </c>
       <c r="C15" s="0">
-        <v>3.4100000000000001</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0.10456258094238736</v>
-      </c>
-      <c r="E15" s="0">
-        <v>-1.1524999999999999</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0.041932485418030345</v>
-      </c>
-      <c r="G15" s="0">
-        <v>4.0800000000000018</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0.1677299416721216</v>
+        <v>0.52824236861501306</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>16.407394578313252</v>
+        <v>201.41000000000003</v>
       </c>
       <c r="B16" s="0">
-        <v>201.41874478061015</v>
+        <v>23.664665461121157</v>
       </c>
       <c r="C16" s="0">
-        <v>3.2749999999999999</v>
-      </c>
-      <c r="D16" s="0">
-        <v>0.14849242404917495</v>
-      </c>
-      <c r="E16" s="0">
-        <v>-1.2149999999999999</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0.049497474683058366</v>
-      </c>
-      <c r="G16" s="0">
-        <v>4.3300000000000018</v>
-      </c>
-      <c r="H16" s="0">
-        <v>0.1979898987322341</v>
+        <v>0.62630761171312321</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>16.598659638554217</v>
+        <v>201.42000000000002</v>
       </c>
       <c r="B17" s="0">
-        <v>201.41514997832408</v>
+        <v>24.537046413502111</v>
       </c>
       <c r="C17" s="0">
-        <v>3.2599999999999998</v>
-      </c>
-      <c r="D17" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E17" s="0">
-        <v>-0.38</v>
-      </c>
-      <c r="F17" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G17" s="0">
-        <v>0.99000000000000199</v>
-      </c>
-      <c r="H17" s="0">
-        <v>3.2068884192209333</v>
+        <v>0.89874974887958192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>16.627349397590361</v>
+        <v>201.43000000000001</v>
       </c>
       <c r="B18" s="0">
-        <v>201.41461075798117</v>
+        <v>23.853236889692585</v>
       </c>
       <c r="C18" s="0">
-        <v>3.9500000000000002</v>
-      </c>
-      <c r="D18" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E18" s="0">
-        <v>-0.81999999999999995</v>
-      </c>
-      <c r="F18" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G18" s="0">
-        <v>2.75</v>
-      </c>
-      <c r="H18" s="0">
-        <v>3.2068884192209333</v>
+        <v>0.3684569774311337</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>16.770798192771082</v>
+        <v>201.44</v>
       </c>
       <c r="B19" s="0">
-        <v>201.41191465626662</v>
+        <v>23.830379746835444</v>
       </c>
       <c r="C19" s="0">
-        <v>2.8900000000000001</v>
-      </c>
-      <c r="D19" s="0">
-        <v>0.4949747468305834</v>
-      </c>
-      <c r="E19" s="0">
-        <v>-0.33499999999999996</v>
-      </c>
-      <c r="F19" s="0">
-        <v>0.13435028842544403</v>
-      </c>
-      <c r="G19" s="0">
-        <v>0.81000000000000227</v>
-      </c>
-      <c r="H19" s="0">
-        <v>0.53740115370177477</v>
+        <v>0.55641710972974234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>16.875993975903611</v>
+        <v>201.45000000000002</v>
       </c>
       <c r="B20" s="0">
-        <v>201.40993751500929</v>
+        <v>20.950379746835441</v>
       </c>
       <c r="C20" s="0">
-        <v>3.5149999999999997</v>
-      </c>
-      <c r="D20" s="0">
-        <v>0.0070710678118656384</v>
-      </c>
-      <c r="E20" s="0">
-        <v>-0.055000000000000007</v>
-      </c>
-      <c r="F20" s="0">
-        <v>0.30405591591021547</v>
-      </c>
-      <c r="G20" s="0">
-        <v>-0.30999999999999517</v>
-      </c>
-      <c r="H20" s="0">
-        <v>1.2162236636408634</v>
+        <v>0.13093073414159573</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>16.981189759036145</v>
+        <v>201.46000000000001</v>
       </c>
       <c r="B21" s="0">
-        <v>201.40796037375196</v>
+        <v>21.270379746835442</v>
       </c>
       <c r="C21" s="0">
-        <v>2.9333333333333331</v>
-      </c>
-      <c r="D21" s="0">
-        <v>0.15011106998930285</v>
-      </c>
-      <c r="E21" s="0">
-        <v>-0.51333333333333331</v>
-      </c>
-      <c r="F21" s="0">
-        <v>0.046188021535170071</v>
-      </c>
-      <c r="G21" s="0">
-        <v>1.523333333333337</v>
-      </c>
-      <c r="H21" s="0">
-        <v>0.18475208614068039</v>
+        <v>1.6799999999999995</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>17.63149096385542</v>
+        <v>201.49000000000001</v>
       </c>
       <c r="B22" s="0">
-        <v>201.39573804597933</v>
+        <v>19.26037974683544</v>
       </c>
       <c r="C22" s="0">
-        <v>3</v>
-      </c>
-      <c r="D22" s="0">
-        <v>0.098994949366116428</v>
-      </c>
-      <c r="E22" s="0">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="F22" s="0">
-        <v>0.09899494936611658</v>
-      </c>
-      <c r="G22" s="0">
-        <v>3.9500000000000028</v>
-      </c>
-      <c r="H22" s="0">
-        <v>0.39597979746446821</v>
+        <v>1.6034442096104662</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>17.813192771084339</v>
+        <v>201.51000000000002</v>
       </c>
       <c r="B23" s="0">
-        <v>201.39232298380756</v>
+        <v>19.996094032549731</v>
       </c>
       <c r="C23" s="0">
-        <v>2.3300000000000001</v>
-      </c>
-      <c r="D23" s="0">
-        <v>0.25455844122715704</v>
-      </c>
-      <c r="E23" s="0">
-        <v>-1.52</v>
-      </c>
-      <c r="F23" s="0">
-        <v>0.3818376618407357</v>
-      </c>
-      <c r="G23" s="0">
-        <v>5.5500000000000043</v>
-      </c>
-      <c r="H23" s="0">
-        <v>1.5273506473629428</v>
+        <v>0.80807489381467978</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>18.042710843373495</v>
+        <v>201.52000000000001</v>
       </c>
       <c r="B24" s="0">
-        <v>201.38800922106429</v>
+        <v>21.520379746835442</v>
       </c>
       <c r="C24" s="0">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="D24" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E24" s="0">
-        <v>-0.68999999999999995</v>
-      </c>
-      <c r="F24" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G24" s="0">
-        <v>2.230000000000004</v>
-      </c>
-      <c r="H24" s="0">
-        <v>3.2068884192209333</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>19.977037037037036</v>
-      </c>
-      <c r="B25" s="0">
-        <v>201.35165380824492</v>
-      </c>
-      <c r="C25" s="0">
-        <v>2.0100000000000002</v>
-      </c>
-      <c r="D25" s="0">
-        <v>0.21213203435596428</v>
-      </c>
-      <c r="E25" s="0">
-        <v>-1.0750000000000002</v>
-      </c>
-      <c r="F25" s="0">
-        <v>0.021213203435596444</v>
-      </c>
-      <c r="G25" s="0">
-        <v>3.7700000000000031</v>
-      </c>
-      <c r="H25" s="0">
-        <v>0.084852813742386402</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>20.023333333333333</v>
-      </c>
-      <c r="B26" s="0">
-        <v>201.35078128212905</v>
-      </c>
-      <c r="C26" s="0">
-        <v>2.3599999999999999</v>
-      </c>
-      <c r="D26" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E26" s="0">
-        <v>-1.78</v>
-      </c>
-      <c r="F26" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G26" s="0">
-        <v>6.5900000000000034</v>
-      </c>
-      <c r="H26" s="0">
-        <v>3.2068884192209333</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>20.171481481481482</v>
-      </c>
-      <c r="B27" s="0">
-        <v>201.3479816619961</v>
-      </c>
-      <c r="C27" s="0">
-        <v>1.99</v>
-      </c>
-      <c r="D27" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E27" s="0">
-        <v>-1.74</v>
-      </c>
-      <c r="F27" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G27" s="0">
-        <v>6.4300000000000033</v>
-      </c>
-      <c r="H27" s="0">
-        <v>3.2068884192209333</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>20.819629629629631</v>
-      </c>
-      <c r="B28" s="0">
-        <v>201.33573332391444</v>
-      </c>
-      <c r="C28" s="0">
-        <v>1.8599999999999999</v>
-      </c>
-      <c r="D28" s="0">
-        <v>0.21213203435596414</v>
-      </c>
-      <c r="E28" s="0">
-        <v>-0.51500000000000001</v>
-      </c>
-      <c r="F28" s="0">
-        <v>0.64346717087975824</v>
-      </c>
-      <c r="G28" s="0">
-        <v>1.5300000000000011</v>
-      </c>
-      <c r="H28" s="0">
-        <v>2.5738686835190334</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>22.060370370370372</v>
-      </c>
-      <c r="B29" s="0">
-        <v>201.31228650530093</v>
-      </c>
-      <c r="C29" s="0">
-        <v>1.9666666666666668</v>
-      </c>
-      <c r="D29" s="0">
-        <v>0.44500936319737516</v>
-      </c>
-      <c r="E29" s="0">
-        <v>-1.1900000000000002</v>
-      </c>
-      <c r="F29" s="0">
-        <v>0.24269322199023194</v>
-      </c>
-      <c r="G29" s="0">
-        <v>4.230000000000004</v>
-      </c>
-      <c r="H29" s="0">
-        <v>0.9707728879609272</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>23.328888888888891</v>
-      </c>
-      <c r="B30" s="0">
-        <v>201.28831475791253</v>
-      </c>
-      <c r="C30" s="0">
-        <v>2.04</v>
-      </c>
-      <c r="D30" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E30" s="0">
-        <v>-0.89000000000000001</v>
-      </c>
-      <c r="F30" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G30" s="0">
-        <v>3.0300000000000011</v>
-      </c>
-      <c r="H30" s="0">
-        <v>3.2068884192209333</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>23.421481481481482</v>
-      </c>
-      <c r="B31" s="0">
-        <v>201.28656499532943</v>
-      </c>
-      <c r="C31" s="0">
-        <v>2.73</v>
-      </c>
-      <c r="D31" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E31" s="0">
-        <v>-1.52</v>
-      </c>
-      <c r="F31" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G31" s="0">
-        <v>5.5500000000000043</v>
-      </c>
-      <c r="H31" s="0">
-        <v>3.2068884192209333</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>25.495555555555555</v>
-      </c>
-      <c r="B32" s="0">
-        <v>201.24684845311921</v>
-      </c>
-      <c r="C32" s="0">
-        <v>2.5899999999999999</v>
-      </c>
-      <c r="D32" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E32" s="0">
-        <v>-1.4099999999999999</v>
-      </c>
-      <c r="F32" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G32" s="0">
-        <v>5.110000000000003</v>
-      </c>
-      <c r="H32" s="0">
-        <v>3.2068884192209333</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>26.227037037037036</v>
-      </c>
-      <c r="B33" s="0">
-        <v>201.23225501915442</v>
-      </c>
-      <c r="C33" s="0">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="D33" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E33" s="0">
-        <v>-2.0499999999999998</v>
-      </c>
-      <c r="F33" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G33" s="0">
-        <v>7.6700000000000017</v>
-      </c>
-      <c r="H33" s="0">
-        <v>3.2068884192209333</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>27.671481481481486</v>
-      </c>
-      <c r="B34" s="0">
-        <v>201.20343760524929</v>
-      </c>
-      <c r="C34" s="0">
-        <v>1.8100000000000001</v>
-      </c>
-      <c r="D34" s="0">
-        <v>0.28284271247461878</v>
-      </c>
-      <c r="E34" s="0">
-        <v>-1.6349999999999998</v>
-      </c>
-      <c r="F34" s="0">
-        <v>0.5586143571373724</v>
-      </c>
-      <c r="G34" s="0">
-        <v>6.0100000000000051</v>
-      </c>
-      <c r="H34" s="0">
-        <v>2.2344574285494905</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>28.041851851851852</v>
-      </c>
-      <c r="B35" s="0">
-        <v>201.19604852476081</v>
-      </c>
-      <c r="C35" s="0">
-        <v>1.26</v>
-      </c>
-      <c r="D35" s="0">
-        <v>0.51925427297230786</v>
-      </c>
-      <c r="E35" s="0">
-        <v>-1.79</v>
-      </c>
-      <c r="F35" s="0">
-        <v>0.8017221048052332</v>
-      </c>
-      <c r="G35" s="0">
-        <v>6.6300000000000026</v>
-      </c>
-      <c r="H35" s="0">
-        <v>3.2068884192209333</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>28.34740740740741</v>
-      </c>
-      <c r="B36" s="0">
-        <v>201.1899525333578</v>
-      </c>
-      <c r="C36" s="0">
-        <v>1.9620000000000002</v>
-      </c>
-      <c r="D36" s="0">
-        <v>0.040249223594996254</v>
-      </c>
-      <c r="E36" s="0">
-        <v>-1.4879999999999998</v>
-      </c>
-      <c r="F36" s="0">
-        <v>0.2191346617949794</v>
-      </c>
-      <c r="G36" s="0">
-        <v>5.4220000000000006</v>
-      </c>
-      <c r="H36" s="0">
-        <v>0.87653864717991792</v>
+        <v>0.81835200250259121</v>
       </c>
     </row>
   </sheetData>
@@ -10682,12 +10445,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0F56654C37D7A4AAC59B6C288F9CE16" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="563f837eafd1d134d0191c976a557f73">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7fa73a2b-a877-44bc-b864-c31a95c8f621" xmlns:ns4="4bb6f66d-1447-4ffa-a850-4f1b35540af2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f764ae2895bc9eb9b73becb11c151bc" ns3:_="" ns4:_="">
     <xsd:import namespace="7fa73a2b-a877-44bc-b864-c31a95c8f621"/>
@@ -10910,6 +10667,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10920,15 +10683,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C202581-B927-47D8-A4E5-FDECE9D28905}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42D62FDB-E236-4661-B451-F6CE4EB8C2F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10947,6 +10701,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C202581-B927-47D8-A4E5-FDECE9D28905}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8BD1235-185D-4CAC-BE54-F656E08038BE}">
   <ds:schemaRefs>
